--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -1,38 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0FFFA9-827D-4BAC-9EB4-D11AE65752B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PV" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SC" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PVT" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Boiler" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Furnace" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="FC" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="CCGT" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Chiller_configuration" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Chiller" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Absorption_chiller" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="CT" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="HEX" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="BH" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="HP" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Pump" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="TES" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="PV" sheetId="1" r:id="rId1"/>
+    <sheet name="SC" sheetId="2" r:id="rId2"/>
+    <sheet name="PVT" sheetId="3" r:id="rId3"/>
+    <sheet name="Boiler" sheetId="4" r:id="rId4"/>
+    <sheet name="Furnace" sheetId="5" r:id="rId5"/>
+    <sheet name="FC" sheetId="6" r:id="rId6"/>
+    <sheet name="CCGT" sheetId="7" r:id="rId7"/>
+    <sheet name="Chiller_configuration" sheetId="8" r:id="rId8"/>
+    <sheet name="Chiller" sheetId="9" r:id="rId9"/>
+    <sheet name="Absorption_chiller" sheetId="10" r:id="rId10"/>
+    <sheet name="CT" sheetId="11" r:id="rId11"/>
+    <sheet name="HEX" sheetId="12" r:id="rId12"/>
+    <sheet name="BH" sheetId="13" r:id="rId13"/>
+    <sheet name="HP" sheetId="14" r:id="rId14"/>
+    <sheet name="Pump" sheetId="15" r:id="rId15"/>
+    <sheet name="TES" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="172">
   <si>
     <t>Description</t>
   </si>
@@ -115,7 +135,7 @@
     <t>assumption</t>
   </si>
   <si>
-    <t xml:space="preserve">generic monocrystalline panel</t>
+    <t>generic monocrystalline panel</t>
   </si>
   <si>
     <t>PV1</t>
@@ -130,16 +150,16 @@
     <t>USD-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">IR_%, capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generic polycrystalline panel</t>
+    <t>IR_%, capacity</t>
+  </si>
+  <si>
+    <t>generic polycrystalline panel</t>
   </si>
   <si>
     <t>PV2</t>
   </si>
   <si>
-    <t xml:space="preserve">generic amorphous silicon panel</t>
+    <t>generic amorphous silicon panel</t>
   </si>
   <si>
     <t>PV3</t>
@@ -193,7 +213,7 @@
     <t>Cp_fluid</t>
   </si>
   <si>
-    <t xml:space="preserve">flat plate</t>
+    <t>flat plate</t>
   </si>
   <si>
     <t>SC1</t>
@@ -205,7 +225,7 @@
     <t>m2</t>
   </si>
   <si>
-    <t xml:space="preserve">evacuated tube</t>
+    <t>evacuated tube</t>
   </si>
   <si>
     <t>SC2</t>
@@ -214,19 +234,19 @@
     <t>ET</t>
   </si>
   <si>
-    <t xml:space="preserve">generic PVT</t>
+    <t>generic PVT</t>
   </si>
   <si>
     <t>PVT1</t>
   </si>
   <si>
-    <t xml:space="preserve">condensing boiler</t>
+    <t>condensing boiler</t>
   </si>
   <si>
     <t>BO1</t>
   </si>
   <si>
-    <t xml:space="preserve">furnace combined with ORC</t>
+    <t>furnace combined with ORC</t>
   </si>
   <si>
     <t>FU1</t>
@@ -235,7 +255,7 @@
     <t xml:space="preserve"> Assumptions</t>
   </si>
   <si>
-    <t xml:space="preserve">solid oxide fuel cell</t>
+    <t>solid oxide fuel cell</t>
   </si>
   <si>
     <t>FC1</t>
@@ -244,7 +264,7 @@
     <t>everything</t>
   </si>
   <si>
-    <t xml:space="preserve">combined cycle gas turbine</t>
+    <t>combined cycle gas turbine</t>
   </si>
   <si>
     <t>CCGT1</t>
@@ -304,22 +324,16 @@
     <t>https://comnet.org/index.php/382-chillers</t>
   </si>
   <si>
-    <t>asfasdfg&lt;sgd</t>
-  </si>
-  <si>
     <t>CH_T1</t>
   </si>
   <si>
     <t>CENTRIFUGAL</t>
   </si>
   <si>
-    <t>asdgasdggasd</t>
-  </si>
-  <si>
     <t>G_VALUE</t>
   </si>
   <si>
-    <t xml:space="preserve">centralized chiller</t>
+    <t>centralized chiller</t>
   </si>
   <si>
     <t>CH1</t>
@@ -328,7 +342,7 @@
     <t xml:space="preserve">Fit based on RESCUE WP 2.4. Figure 18 </t>
   </si>
   <si>
-    <t xml:space="preserve">vapor compression chiller</t>
+    <t>vapor compression chiller</t>
   </si>
   <si>
     <t>CH2</t>
@@ -367,7 +381,7 @@
     <t>m_hw</t>
   </si>
   <si>
-    <t xml:space="preserve">LiBr single effect</t>
+    <t>LiBr single effect</t>
   </si>
   <si>
     <t>ACH1</t>
@@ -379,7 +393,7 @@
     <t>ACH2</t>
   </si>
   <si>
-    <t xml:space="preserve">LiBr double effect (dummy)</t>
+    <t>LiBr double effect (dummy)</t>
   </si>
   <si>
     <t>ACH3</t>
@@ -388,13 +402,13 @@
     <t>double</t>
   </si>
   <si>
-    <t xml:space="preserve">LiBr double effect</t>
+    <t>LiBr double effect</t>
   </si>
   <si>
     <t>ACH4</t>
   </si>
   <si>
-    <t xml:space="preserve">LiBr triple effect</t>
+    <t>LiBr triple effect</t>
   </si>
   <si>
     <t>ACH5</t>
@@ -403,7 +417,7 @@
     <t>triple</t>
   </si>
   <si>
-    <t xml:space="preserve">centralized cooling tower</t>
+    <t>centralized cooling tower</t>
   </si>
   <si>
     <t>CT1</t>
@@ -430,13 +444,13 @@
     <t>e_p</t>
   </si>
   <si>
-    <t xml:space="preserve">substation heat exchanger</t>
+    <t>substation heat exchanger</t>
   </si>
   <si>
     <t>HEX1</t>
   </si>
   <si>
-    <t xml:space="preserve">District substation heat exchanger</t>
+    <t>District substation heat exchanger</t>
   </si>
   <si>
     <t>HEX2</t>
@@ -445,7 +459,7 @@
     <t>m^2</t>
   </si>
   <si>
-    <t xml:space="preserve">Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
+    <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
   </si>
   <si>
     <t>borehole</t>
@@ -454,19 +468,19 @@
     <t>BH1</t>
   </si>
   <si>
-    <t xml:space="preserve">geothermal heat pump</t>
+    <t>geothermal heat pump</t>
   </si>
   <si>
     <t>HP1</t>
   </si>
   <si>
-    <t xml:space="preserve">water-water heat pump</t>
+    <t>water-water heat pump</t>
   </si>
   <si>
     <t>HP2</t>
   </si>
   <si>
-    <t xml:space="preserve">generic pump</t>
+    <t>generic pump</t>
   </si>
   <si>
     <t>PU1</t>
@@ -505,7 +519,7 @@
     <t>n_disch</t>
   </si>
   <si>
-    <t xml:space="preserve">long-term storage tank</t>
+    <t>long-term storage tank</t>
   </si>
   <si>
     <t>TES1</t>
@@ -517,10 +531,10 @@
     <t>m3</t>
   </si>
   <si>
-    <t xml:space="preserve">cap_min, cap_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short-term storage tank - water</t>
+    <t>cap_min, cap_max</t>
+  </si>
+  <si>
+    <t>short-term storage tank - water</t>
   </si>
   <si>
     <t>TES2</t>
@@ -532,25 +546,25 @@
     <t>kWh</t>
   </si>
   <si>
-    <t xml:space="preserve">short-term storage tank- ice</t>
+    <t>short-term storage tank- ice</t>
   </si>
   <si>
     <t>TES3</t>
   </si>
   <si>
-    <t xml:space="preserve">short-term storage tank - eutectic salt</t>
+    <t>short-term storage tank - eutectic salt</t>
   </si>
   <si>
     <t>TES4</t>
   </si>
   <si>
-    <t xml:space="preserve">short-term storage tank - PEG400</t>
+    <t>short-term storage tank - PEG400</t>
   </si>
   <si>
     <t>TES5</t>
   </si>
   <si>
-    <t xml:space="preserve">short-term storage tank - Paraffin C14</t>
+    <t>short-term storage tank - Paraffin C14</t>
   </si>
   <si>
     <t>TES6</t>
@@ -559,31 +573,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="160" formatCode="0.0000000"/>
-    <numFmt numFmtId="161" formatCode="0.0"/>
-    <numFmt numFmtId="162" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="65"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -665,57 +684,57 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="3" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="162" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,295 +742,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1275,39 +1014,41 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView topLeftCell="O1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="S1" activeCellId="0" sqref="S1:W10"/>
+      <selection activeCell="S1" sqref="S1:W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.6328125"/>
-    <col customWidth="1" min="4" max="4" width="15.6328125"/>
-    <col customWidth="1" min="5" max="6" width="12"/>
-    <col customWidth="1" min="7" max="7" width="14.453125"/>
-    <col customWidth="1" min="8" max="8" width="9.36328125"/>
-    <col customWidth="1" min="9" max="9" width="8.453125"/>
-    <col customWidth="1" min="10" max="10" width="8.6328125"/>
-    <col customWidth="1" min="12" max="12" width="16.453125"/>
-    <col customWidth="1" min="13" max="13" width="18.453125"/>
-    <col customWidth="1" min="14" max="14" width="16.36328125"/>
-    <col customWidth="1" min="15" max="15" width="14.6328125"/>
-    <col customWidth="1" min="16" max="17" width="12.453125"/>
-    <col customWidth="1" min="19" max="19" width="10.453125"/>
-    <col customWidth="1" min="20" max="20" width="13.6328125"/>
-    <col customWidth="1" min="21" max="23" width="10.453125"/>
-    <col customWidth="1" min="24" max="24" width="14.6328125"/>
-    <col customWidth="1" min="25" max="25" width="12.6328125"/>
-    <col customWidth="1" min="27" max="27" width="13.36328125"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="17" width="12.453125" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" customWidth="1"/>
+    <col min="21" max="23" width="10.453125" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" customWidth="1"/>
+    <col min="25" max="25" width="12.6328125" customWidth="1"/>
+    <col min="27" max="27" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I2" s="2">
         <v>0.16</v>
@@ -1422,25 +1163,25 @@
         <v>43.5</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0035000000000000001</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L2" s="3">
         <v>0.93582299999999996</v>
       </c>
       <c r="M2" s="3">
-        <v>0.054288999999999997</v>
+        <v>5.4288999999999997E-2</v>
       </c>
       <c r="N2" s="3">
-        <v>0.0086770000000000007</v>
+        <v>8.6770000000000007E-3</v>
       </c>
       <c r="O2" s="3">
-        <v>0.00052700000000000002</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="P2" s="3">
-        <v>-1.1e-05</v>
+        <v>-1.1E-5</v>
       </c>
       <c r="Q2" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>31</v>
@@ -1474,7 +1215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1497,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I3" s="2">
         <v>0.16</v>
@@ -1506,25 +1247,25 @@
         <v>43.5</v>
       </c>
       <c r="K3" s="2">
-        <v>0.0035000000000000001</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L3" s="3">
         <v>0.93582299999999996</v>
       </c>
       <c r="M3" s="3">
-        <v>0.054288999999999997</v>
+        <v>5.4288999999999997E-2</v>
       </c>
       <c r="N3" s="3">
-        <v>0.0086770000000000007</v>
+        <v>8.6770000000000007E-3</v>
       </c>
       <c r="O3" s="3">
-        <v>0.00052700000000000002</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="P3" s="3">
-        <v>-1.1e-05</v>
+        <v>-1.1E-5</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>31</v>
@@ -1558,7 +1299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1581,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I4" s="2">
         <v>0.16</v>
@@ -1590,25 +1331,25 @@
         <v>43.5</v>
       </c>
       <c r="K4" s="2">
-        <v>0.0035000000000000001</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L4" s="3">
         <v>0.93582299999999996</v>
       </c>
       <c r="M4" s="3">
-        <v>0.054288999999999997</v>
+        <v>5.4288999999999997E-2</v>
       </c>
       <c r="N4" s="3">
-        <v>0.0086770000000000007</v>
+        <v>8.6770000000000007E-3</v>
       </c>
       <c r="O4" s="3">
-        <v>0.00052700000000000002</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="P4" s="3">
-        <v>-1.1e-05</v>
+        <v>-1.1E-5</v>
       </c>
       <c r="Q4" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>31</v>
@@ -1642,7 +1383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1665,34 +1406,34 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>0.14999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="J5" s="2">
-        <v>43.899999999999999</v>
+        <v>43.9</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0044000000000000003</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="L5" s="3">
         <v>0.91809300000000005</v>
       </c>
       <c r="M5" s="3">
-        <v>0.086257</v>
+        <v>8.6257E-2</v>
       </c>
       <c r="N5" s="3">
-        <v>-0.024459000000000002</v>
+        <v>-2.4459000000000002E-2</v>
       </c>
       <c r="O5" s="3">
-        <v>0.0028159999999999999</v>
+        <v>2.8159999999999999E-3</v>
       </c>
       <c r="P5" s="3">
-        <v>-0.000126</v>
+        <v>-1.26E-4</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>31</v>
@@ -1726,7 +1467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1749,34 +1490,34 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>0.14999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="J6" s="2">
-        <v>43.899999999999999</v>
+        <v>43.9</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0044000000000000003</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="L6" s="3">
         <v>0.91809300000000005</v>
       </c>
       <c r="M6" s="3">
-        <v>0.086257</v>
+        <v>8.6257E-2</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.024459000000000002</v>
+        <v>-2.4459000000000002E-2</v>
       </c>
       <c r="O6" s="3">
-        <v>0.0028159999999999999</v>
+        <v>2.8159999999999999E-3</v>
       </c>
       <c r="P6" s="3">
-        <v>-0.000126</v>
+        <v>-1.26E-4</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>31</v>
@@ -1810,7 +1551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1833,34 +1574,34 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>0.14999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="J7" s="2">
-        <v>43.899999999999999</v>
+        <v>43.9</v>
       </c>
       <c r="K7" s="2">
-        <v>0.0044000000000000003</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="L7" s="3">
         <v>0.91809300000000005</v>
       </c>
       <c r="M7" s="3">
-        <v>0.086257</v>
+        <v>8.6257E-2</v>
       </c>
       <c r="N7" s="3">
-        <v>-0.024459000000000002</v>
+        <v>-2.4459000000000002E-2</v>
       </c>
       <c r="O7" s="3">
-        <v>0.0028159999999999999</v>
+        <v>2.8159999999999999E-3</v>
       </c>
       <c r="P7" s="3">
-        <v>-0.000126</v>
+        <v>-1.26E-4</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>31</v>
@@ -1894,7 +1635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1917,34 +1658,34 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>0.080000000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="J8" s="2">
-        <v>38.100000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0025999999999999999</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="L8" s="3">
         <v>1.10044085</v>
       </c>
       <c r="M8" s="3">
-        <v>-0.061423230000000002</v>
+        <v>-6.1423230000000002E-2</v>
       </c>
       <c r="N8" s="3">
-        <v>-0.0044273200000000002</v>
+        <v>-4.4273200000000002E-3</v>
       </c>
       <c r="O8" s="3">
-        <v>0.00063150399999999996</v>
+        <v>6.3150399999999996E-4</v>
       </c>
       <c r="P8" s="3">
-        <v>-1.9184000000000001e-05</v>
+        <v>-1.9184000000000001E-5</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>31</v>
@@ -1978,7 +1719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2001,34 +1742,34 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>0.080000000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="J9" s="2">
-        <v>38.100000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="K9" s="2">
-        <v>0.0025999999999999999</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="L9" s="3">
         <v>1.10044085</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.061423230000000002</v>
+        <v>-6.1423230000000002E-2</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.0044273200000000002</v>
+        <v>-4.4273200000000002E-3</v>
       </c>
       <c r="O9" s="3">
-        <v>0.00063150399999999996</v>
+        <v>6.3150399999999996E-4</v>
       </c>
       <c r="P9" s="3">
-        <v>-1.9184000000000001e-05</v>
+        <v>-1.9184000000000001E-5</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>31</v>
@@ -2062,7 +1803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2085,34 +1826,34 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>0.080000000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="J10" s="2">
-        <v>38.100000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="K10" s="2">
-        <v>0.0025999999999999999</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="L10" s="3">
         <v>1.10044085</v>
       </c>
       <c r="M10" s="3">
-        <v>-0.061423230000000002</v>
+        <v>-6.1423230000000002E-2</v>
       </c>
       <c r="N10" s="3">
-        <v>-0.0044273200000000002</v>
+        <v>-4.4273200000000002E-3</v>
       </c>
       <c r="O10" s="3">
-        <v>0.00063150399999999996</v>
+        <v>6.3150399999999996E-4</v>
       </c>
       <c r="P10" s="3">
-        <v>-1.9184000000000001e-05</v>
+        <v>-1.9184000000000001E-5</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>31</v>
@@ -2147,28 +1888,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="J29" activeCellId="0" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.6328125"/>
-    <col customWidth="1" min="5" max="5" width="9.6328125"/>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,45 +1959,45 @@
         <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2298,13 +2039,13 @@
         <v>25</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.41999999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="R2" s="2">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="S2" s="2">
-        <v>0.53000000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="T2" s="2">
         <v>-2.5</v>
@@ -2316,7 +2057,7 @@
         <v>1.8</v>
       </c>
       <c r="W2" s="2">
-        <v>-2.1000000000000001</v>
+        <v>-2.1</v>
       </c>
       <c r="X2" s="2">
         <v>1.5</v>
@@ -2328,15 +2069,15 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D3" s="2">
         <v>51150</v>
@@ -2378,13 +2119,13 @@
         <v>25</v>
       </c>
       <c r="Q3" s="2">
-        <v>68.120000000000005</v>
+        <v>68.12</v>
       </c>
       <c r="R3" s="2">
-        <v>-3281.0999999999999</v>
+        <v>-3281.1</v>
       </c>
       <c r="S3" s="2">
-        <v>88.049999999999997</v>
+        <v>88.05</v>
       </c>
       <c r="T3" s="2">
         <v>-4216.1000000000004</v>
@@ -2408,15 +2149,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2458,13 +2199,13 @@
         <v>25</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.41999999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="R4" s="2">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="S4" s="2">
-        <v>0.53000000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="T4" s="2">
         <v>-2.5</v>
@@ -2476,7 +2217,7 @@
         <v>1.8</v>
       </c>
       <c r="W4" s="2">
-        <v>-2.1000000000000001</v>
+        <v>-2.1</v>
       </c>
       <c r="X4" s="2">
         <v>1.5</v>
@@ -2488,15 +2229,15 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2">
         <v>58150</v>
@@ -2544,22 +2285,22 @@
         <v>-1350.5</v>
       </c>
       <c r="S5" s="2">
-        <v>12.539999999999999</v>
+        <v>12.54</v>
       </c>
       <c r="T5" s="2">
-        <v>-917.29999999999995</v>
+        <v>-917.3</v>
       </c>
       <c r="U5" s="2">
         <v>-2.46</v>
       </c>
       <c r="V5" s="2">
-        <v>4.3799999999999999</v>
+        <v>4.38</v>
       </c>
       <c r="W5" s="2">
         <v>-2.46</v>
       </c>
       <c r="X5" s="2">
-        <v>4.3799999999999999</v>
+        <v>4.38</v>
       </c>
       <c r="Y5" s="2">
         <v>68</v>
@@ -2568,15 +2309,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="5">
         <v>1337450</v>
@@ -2624,22 +2365,22 @@
         <v>-1350.5</v>
       </c>
       <c r="S6" s="2">
-        <v>12.539999999999999</v>
+        <v>12.54</v>
       </c>
       <c r="T6" s="2">
-        <v>-917.29999999999995</v>
+        <v>-917.3</v>
       </c>
       <c r="U6" s="2">
         <v>-2.46</v>
       </c>
       <c r="V6" s="2">
-        <v>4.3799999999999999</v>
+        <v>4.38</v>
       </c>
       <c r="W6" s="2">
         <v>-2.46</v>
       </c>
       <c r="X6" s="2">
-        <v>4.3799999999999999</v>
+        <v>4.38</v>
       </c>
       <c r="Y6" s="2">
         <v>68</v>
@@ -2648,15 +2389,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D7" s="2">
         <v>116300</v>
@@ -2704,19 +2445,19 @@
         <v>-1171.7</v>
       </c>
       <c r="S7" s="2">
-        <v>7.0499999999999998</v>
+        <v>7.05</v>
       </c>
       <c r="T7" s="2">
-        <v>-504.19999999999999</v>
+        <v>-504.2</v>
       </c>
       <c r="U7" s="2">
-        <v>-2.1400000000000001</v>
+        <v>-2.14</v>
       </c>
       <c r="V7" s="2">
         <v>3.29</v>
       </c>
       <c r="W7" s="2">
-        <v>-2.1400000000000001</v>
+        <v>-2.14</v>
       </c>
       <c r="X7" s="2">
         <v>3.29</v>
@@ -2729,30 +2470,30 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.453125"/>
-    <col customWidth="1" min="3" max="3" width="18.453125"/>
-    <col customWidth="1" min="4" max="5" width="15.36328125"/>
-    <col customWidth="1" min="15" max="15" width="29"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.36328125" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2799,12 +2540,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2822,7 +2563,7 @@
         <v>1457.3</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0161</v>
+        <v>1.61E-2</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -2846,18 +2587,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2">
         <v>10000000</v>
       </c>
       <c r="D3" s="5">
-        <v>10000000000000000</v>
+        <v>1E+16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -2869,7 +2610,7 @@
         <v>1457.3</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0161</v>
+        <v>1.61E-2</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -2890,35 +2631,35 @@
         <v>15</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.6328125"/>
-    <col customWidth="1" min="2" max="2" width="16.453125"/>
-    <col customWidth="1" min="3" max="3" width="16.6328125"/>
-    <col customWidth="1" min="4" max="5" width="23"/>
-    <col customWidth="1" min="12" max="12" width="19"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="5" width="23" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2935,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
@@ -2953,19 +2694,19 @@
         <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>23</v>
@@ -2980,12 +2721,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2">
         <v>50000</v>
@@ -3005,7 +2746,7 @@
       </c>
       <c r="H2" s="2">
         <f>0.067/0.962</f>
-        <v>0.06964656964656965</v>
+        <v>6.964656964656965E-2</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -3042,12 +2783,12 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2">
         <v>80000</v>
@@ -3103,12 +2844,12 @@
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2">
         <v>100000</v>
@@ -3128,7 +2869,7 @@
       </c>
       <c r="H4" s="2">
         <f>0.08/0.962</f>
-        <v>0.083160083160083165</v>
+        <v>8.3160083160083165E-2</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -3165,12 +2906,12 @@
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -3179,7 +2920,7 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>31</v>
@@ -3188,7 +2929,7 @@
         <v>3381</v>
       </c>
       <c r="H5" s="2">
-        <v>229.80000000000001</v>
+        <v>229.8</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -3212,7 +2953,7 @@
         <v>-1271</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0068329999999999997</v>
+        <v>6.8329999999999997E-3</v>
       </c>
       <c r="Q5" s="2">
         <v>20</v>
@@ -3224,35 +2965,35 @@
         <v>5</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23"/>
-    <col customWidth="1" min="2" max="2" width="15.36328125"/>
-    <col customWidth="1" min="3" max="3" width="16.6328125"/>
-    <col customWidth="1" min="4" max="4" width="13"/>
-    <col customWidth="1" min="15" max="15" width="29.6328125"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="15" max="15" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3299,12 +3040,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3326,7 +3067,7 @@
         <v>47.427937915742795</v>
       </c>
       <c r="I2" s="2">
-        <v>0.73999999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -3346,32 +3087,32 @@
       <c r="O2" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="O6" activeCellId="0" sqref="O6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29"/>
-    <col customWidth="1" min="3" max="3" width="17.453125"/>
-    <col customWidth="1" min="4" max="5" width="20.453125"/>
-    <col customWidth="1" min="7" max="7" width="11.36328125"/>
-    <col customWidth="1" min="9" max="9" width="12.453125"/>
-    <col customWidth="1" min="10" max="10" width="12"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,12 +3159,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3445,7 +3186,7 @@
         <v>197.11751662971176</v>
       </c>
       <c r="I2" s="2">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -3464,12 +3205,12 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2">
         <v>1000000</v>
@@ -3512,31 +3253,31 @@
       <c r="O3" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="N32" activeCellId="0" sqref="N32"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.453125"/>
-    <col customWidth="1" min="3" max="3" width="18"/>
-    <col customWidth="1" min="4" max="5" width="21.6328125"/>
-    <col customWidth="1" min="8" max="8" width="11.6328125"/>
-    <col customWidth="1" min="10" max="10" width="13"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3583,12 +3324,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -3631,12 +3372,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2">
         <v>4000</v>
@@ -3679,12 +3420,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2">
         <v>37000</v>
@@ -3702,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H5" si="5">0.9782/0.962</f>
+        <f t="shared" ref="H4:H5" si="0">0.9782/0.962</f>
         <v>1.0168399168399169</v>
       </c>
       <c r="I4" s="2">
@@ -3727,12 +3468,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2">
         <v>37000</v>
@@ -3750,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.0168399168399169</v>
       </c>
       <c r="I5" s="2">
@@ -3772,670 +3513,670 @@
         <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.36328125"/>
-    <col customWidth="1" min="2" max="2" width="12.6328125"/>
-    <col customWidth="1" min="3" max="3" width="19.6328125"/>
-    <col customWidth="1" min="4" max="5" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="14" max="14" width="10"/>
-    <col bestFit="1" customWidth="1" min="15" max="15" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="18" max="18" width="10"/>
-    <col bestFit="1" customWidth="1" min="22" max="22" width="18.1796875"/>
-    <col customWidth="1" min="24" max="24" width="7"/>
-    <col bestFit="1" customWidth="1" min="26" max="26" width="17.36328125"/>
-    <col customWidth="1" min="257" max="257" width="43.36328125"/>
-    <col customWidth="1" min="258" max="258" width="12.6328125"/>
-    <col customWidth="1" min="259" max="259" width="19.6328125"/>
-    <col customWidth="1" min="260" max="261" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="270" max="270" width="10"/>
-    <col bestFit="1" customWidth="1" min="271" max="271" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="274" max="274" width="10"/>
-    <col bestFit="1" customWidth="1" min="278" max="278" width="18.1796875"/>
-    <col customWidth="1" min="280" max="280" width="7"/>
-    <col bestFit="1" customWidth="1" min="282" max="282" width="17.36328125"/>
-    <col customWidth="1" min="513" max="513" width="43.36328125"/>
-    <col customWidth="1" min="514" max="514" width="12.6328125"/>
-    <col customWidth="1" min="515" max="515" width="19.6328125"/>
-    <col customWidth="1" min="516" max="517" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="526" max="526" width="10"/>
-    <col bestFit="1" customWidth="1" min="527" max="527" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="530" max="530" width="10"/>
-    <col bestFit="1" customWidth="1" min="534" max="534" width="18.1796875"/>
-    <col customWidth="1" min="536" max="536" width="7"/>
-    <col bestFit="1" customWidth="1" min="538" max="538" width="17.36328125"/>
-    <col customWidth="1" min="769" max="769" width="43.36328125"/>
-    <col customWidth="1" min="770" max="770" width="12.6328125"/>
-    <col customWidth="1" min="771" max="771" width="19.6328125"/>
-    <col customWidth="1" min="772" max="773" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="782" max="782" width="10"/>
-    <col bestFit="1" customWidth="1" min="783" max="783" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="786" max="786" width="10"/>
-    <col bestFit="1" customWidth="1" min="790" max="790" width="18.1796875"/>
-    <col customWidth="1" min="792" max="792" width="7"/>
-    <col bestFit="1" customWidth="1" min="794" max="794" width="17.36328125"/>
-    <col customWidth="1" min="1025" max="1025" width="43.36328125"/>
-    <col customWidth="1" min="1026" max="1026" width="12.6328125"/>
-    <col customWidth="1" min="1027" max="1027" width="19.6328125"/>
-    <col customWidth="1" min="1028" max="1029" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="1038" max="1038" width="10"/>
-    <col bestFit="1" customWidth="1" min="1039" max="1039" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="1042" max="1042" width="10"/>
-    <col bestFit="1" customWidth="1" min="1046" max="1046" width="18.1796875"/>
-    <col customWidth="1" min="1048" max="1048" width="7"/>
-    <col bestFit="1" customWidth="1" min="1050" max="1050" width="17.36328125"/>
-    <col customWidth="1" min="1281" max="1281" width="43.36328125"/>
-    <col customWidth="1" min="1282" max="1282" width="12.6328125"/>
-    <col customWidth="1" min="1283" max="1283" width="19.6328125"/>
-    <col customWidth="1" min="1284" max="1285" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="1294" max="1294" width="10"/>
-    <col bestFit="1" customWidth="1" min="1295" max="1295" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="1298" max="1298" width="10"/>
-    <col bestFit="1" customWidth="1" min="1302" max="1302" width="18.1796875"/>
-    <col customWidth="1" min="1304" max="1304" width="7"/>
-    <col bestFit="1" customWidth="1" min="1306" max="1306" width="17.36328125"/>
-    <col customWidth="1" min="1537" max="1537" width="43.36328125"/>
-    <col customWidth="1" min="1538" max="1538" width="12.6328125"/>
-    <col customWidth="1" min="1539" max="1539" width="19.6328125"/>
-    <col customWidth="1" min="1540" max="1541" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="1550" max="1550" width="10"/>
-    <col bestFit="1" customWidth="1" min="1551" max="1551" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="1554" max="1554" width="10"/>
-    <col bestFit="1" customWidth="1" min="1558" max="1558" width="18.1796875"/>
-    <col customWidth="1" min="1560" max="1560" width="7"/>
-    <col bestFit="1" customWidth="1" min="1562" max="1562" width="17.36328125"/>
-    <col customWidth="1" min="1793" max="1793" width="43.36328125"/>
-    <col customWidth="1" min="1794" max="1794" width="12.6328125"/>
-    <col customWidth="1" min="1795" max="1795" width="19.6328125"/>
-    <col customWidth="1" min="1796" max="1797" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="1806" max="1806" width="10"/>
-    <col bestFit="1" customWidth="1" min="1807" max="1807" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="1810" max="1810" width="10"/>
-    <col bestFit="1" customWidth="1" min="1814" max="1814" width="18.1796875"/>
-    <col customWidth="1" min="1816" max="1816" width="7"/>
-    <col bestFit="1" customWidth="1" min="1818" max="1818" width="17.36328125"/>
-    <col customWidth="1" min="2049" max="2049" width="43.36328125"/>
-    <col customWidth="1" min="2050" max="2050" width="12.6328125"/>
-    <col customWidth="1" min="2051" max="2051" width="19.6328125"/>
-    <col customWidth="1" min="2052" max="2053" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="2062" max="2062" width="10"/>
-    <col bestFit="1" customWidth="1" min="2063" max="2063" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="2066" max="2066" width="10"/>
-    <col bestFit="1" customWidth="1" min="2070" max="2070" width="18.1796875"/>
-    <col customWidth="1" min="2072" max="2072" width="7"/>
-    <col bestFit="1" customWidth="1" min="2074" max="2074" width="17.36328125"/>
-    <col customWidth="1" min="2305" max="2305" width="43.36328125"/>
-    <col customWidth="1" min="2306" max="2306" width="12.6328125"/>
-    <col customWidth="1" min="2307" max="2307" width="19.6328125"/>
-    <col customWidth="1" min="2308" max="2309" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="2318" max="2318" width="10"/>
-    <col bestFit="1" customWidth="1" min="2319" max="2319" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="2322" max="2322" width="10"/>
-    <col bestFit="1" customWidth="1" min="2326" max="2326" width="18.1796875"/>
-    <col customWidth="1" min="2328" max="2328" width="7"/>
-    <col bestFit="1" customWidth="1" min="2330" max="2330" width="17.36328125"/>
-    <col customWidth="1" min="2561" max="2561" width="43.36328125"/>
-    <col customWidth="1" min="2562" max="2562" width="12.6328125"/>
-    <col customWidth="1" min="2563" max="2563" width="19.6328125"/>
-    <col customWidth="1" min="2564" max="2565" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="2574" max="2574" width="10"/>
-    <col bestFit="1" customWidth="1" min="2575" max="2575" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="2578" max="2578" width="10"/>
-    <col bestFit="1" customWidth="1" min="2582" max="2582" width="18.1796875"/>
-    <col customWidth="1" min="2584" max="2584" width="7"/>
-    <col bestFit="1" customWidth="1" min="2586" max="2586" width="17.36328125"/>
-    <col customWidth="1" min="2817" max="2817" width="43.36328125"/>
-    <col customWidth="1" min="2818" max="2818" width="12.6328125"/>
-    <col customWidth="1" min="2819" max="2819" width="19.6328125"/>
-    <col customWidth="1" min="2820" max="2821" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="2830" max="2830" width="10"/>
-    <col bestFit="1" customWidth="1" min="2831" max="2831" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="2834" max="2834" width="10"/>
-    <col bestFit="1" customWidth="1" min="2838" max="2838" width="18.1796875"/>
-    <col customWidth="1" min="2840" max="2840" width="7"/>
-    <col bestFit="1" customWidth="1" min="2842" max="2842" width="17.36328125"/>
-    <col customWidth="1" min="3073" max="3073" width="43.36328125"/>
-    <col customWidth="1" min="3074" max="3074" width="12.6328125"/>
-    <col customWidth="1" min="3075" max="3075" width="19.6328125"/>
-    <col customWidth="1" min="3076" max="3077" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="3086" max="3086" width="10"/>
-    <col bestFit="1" customWidth="1" min="3087" max="3087" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="3090" max="3090" width="10"/>
-    <col bestFit="1" customWidth="1" min="3094" max="3094" width="18.1796875"/>
-    <col customWidth="1" min="3096" max="3096" width="7"/>
-    <col bestFit="1" customWidth="1" min="3098" max="3098" width="17.36328125"/>
-    <col customWidth="1" min="3329" max="3329" width="43.36328125"/>
-    <col customWidth="1" min="3330" max="3330" width="12.6328125"/>
-    <col customWidth="1" min="3331" max="3331" width="19.6328125"/>
-    <col customWidth="1" min="3332" max="3333" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="3342" max="3342" width="10"/>
-    <col bestFit="1" customWidth="1" min="3343" max="3343" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="3346" max="3346" width="10"/>
-    <col bestFit="1" customWidth="1" min="3350" max="3350" width="18.1796875"/>
-    <col customWidth="1" min="3352" max="3352" width="7"/>
-    <col bestFit="1" customWidth="1" min="3354" max="3354" width="17.36328125"/>
-    <col customWidth="1" min="3585" max="3585" width="43.36328125"/>
-    <col customWidth="1" min="3586" max="3586" width="12.6328125"/>
-    <col customWidth="1" min="3587" max="3587" width="19.6328125"/>
-    <col customWidth="1" min="3588" max="3589" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="3598" max="3598" width="10"/>
-    <col bestFit="1" customWidth="1" min="3599" max="3599" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="3602" max="3602" width="10"/>
-    <col bestFit="1" customWidth="1" min="3606" max="3606" width="18.1796875"/>
-    <col customWidth="1" min="3608" max="3608" width="7"/>
-    <col bestFit="1" customWidth="1" min="3610" max="3610" width="17.36328125"/>
-    <col customWidth="1" min="3841" max="3841" width="43.36328125"/>
-    <col customWidth="1" min="3842" max="3842" width="12.6328125"/>
-    <col customWidth="1" min="3843" max="3843" width="19.6328125"/>
-    <col customWidth="1" min="3844" max="3845" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="3854" max="3854" width="10"/>
-    <col bestFit="1" customWidth="1" min="3855" max="3855" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="3858" max="3858" width="10"/>
-    <col bestFit="1" customWidth="1" min="3862" max="3862" width="18.1796875"/>
-    <col customWidth="1" min="3864" max="3864" width="7"/>
-    <col bestFit="1" customWidth="1" min="3866" max="3866" width="17.36328125"/>
-    <col customWidth="1" min="4097" max="4097" width="43.36328125"/>
-    <col customWidth="1" min="4098" max="4098" width="12.6328125"/>
-    <col customWidth="1" min="4099" max="4099" width="19.6328125"/>
-    <col customWidth="1" min="4100" max="4101" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="4110" max="4110" width="10"/>
-    <col bestFit="1" customWidth="1" min="4111" max="4111" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="4114" max="4114" width="10"/>
-    <col bestFit="1" customWidth="1" min="4118" max="4118" width="18.1796875"/>
-    <col customWidth="1" min="4120" max="4120" width="7"/>
-    <col bestFit="1" customWidth="1" min="4122" max="4122" width="17.36328125"/>
-    <col customWidth="1" min="4353" max="4353" width="43.36328125"/>
-    <col customWidth="1" min="4354" max="4354" width="12.6328125"/>
-    <col customWidth="1" min="4355" max="4355" width="19.6328125"/>
-    <col customWidth="1" min="4356" max="4357" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="4366" max="4366" width="10"/>
-    <col bestFit="1" customWidth="1" min="4367" max="4367" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="4370" max="4370" width="10"/>
-    <col bestFit="1" customWidth="1" min="4374" max="4374" width="18.1796875"/>
-    <col customWidth="1" min="4376" max="4376" width="7"/>
-    <col bestFit="1" customWidth="1" min="4378" max="4378" width="17.36328125"/>
-    <col customWidth="1" min="4609" max="4609" width="43.36328125"/>
-    <col customWidth="1" min="4610" max="4610" width="12.6328125"/>
-    <col customWidth="1" min="4611" max="4611" width="19.6328125"/>
-    <col customWidth="1" min="4612" max="4613" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="4622" max="4622" width="10"/>
-    <col bestFit="1" customWidth="1" min="4623" max="4623" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="4626" max="4626" width="10"/>
-    <col bestFit="1" customWidth="1" min="4630" max="4630" width="18.1796875"/>
-    <col customWidth="1" min="4632" max="4632" width="7"/>
-    <col bestFit="1" customWidth="1" min="4634" max="4634" width="17.36328125"/>
-    <col customWidth="1" min="4865" max="4865" width="43.36328125"/>
-    <col customWidth="1" min="4866" max="4866" width="12.6328125"/>
-    <col customWidth="1" min="4867" max="4867" width="19.6328125"/>
-    <col customWidth="1" min="4868" max="4869" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="4878" max="4878" width="10"/>
-    <col bestFit="1" customWidth="1" min="4879" max="4879" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="4882" max="4882" width="10"/>
-    <col bestFit="1" customWidth="1" min="4886" max="4886" width="18.1796875"/>
-    <col customWidth="1" min="4888" max="4888" width="7"/>
-    <col bestFit="1" customWidth="1" min="4890" max="4890" width="17.36328125"/>
-    <col customWidth="1" min="5121" max="5121" width="43.36328125"/>
-    <col customWidth="1" min="5122" max="5122" width="12.6328125"/>
-    <col customWidth="1" min="5123" max="5123" width="19.6328125"/>
-    <col customWidth="1" min="5124" max="5125" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="5134" max="5134" width="10"/>
-    <col bestFit="1" customWidth="1" min="5135" max="5135" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="5138" max="5138" width="10"/>
-    <col bestFit="1" customWidth="1" min="5142" max="5142" width="18.1796875"/>
-    <col customWidth="1" min="5144" max="5144" width="7"/>
-    <col bestFit="1" customWidth="1" min="5146" max="5146" width="17.36328125"/>
-    <col customWidth="1" min="5377" max="5377" width="43.36328125"/>
-    <col customWidth="1" min="5378" max="5378" width="12.6328125"/>
-    <col customWidth="1" min="5379" max="5379" width="19.6328125"/>
-    <col customWidth="1" min="5380" max="5381" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="5390" max="5390" width="10"/>
-    <col bestFit="1" customWidth="1" min="5391" max="5391" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="5394" max="5394" width="10"/>
-    <col bestFit="1" customWidth="1" min="5398" max="5398" width="18.1796875"/>
-    <col customWidth="1" min="5400" max="5400" width="7"/>
-    <col bestFit="1" customWidth="1" min="5402" max="5402" width="17.36328125"/>
-    <col customWidth="1" min="5633" max="5633" width="43.36328125"/>
-    <col customWidth="1" min="5634" max="5634" width="12.6328125"/>
-    <col customWidth="1" min="5635" max="5635" width="19.6328125"/>
-    <col customWidth="1" min="5636" max="5637" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="5646" max="5646" width="10"/>
-    <col bestFit="1" customWidth="1" min="5647" max="5647" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="5650" max="5650" width="10"/>
-    <col bestFit="1" customWidth="1" min="5654" max="5654" width="18.1796875"/>
-    <col customWidth="1" min="5656" max="5656" width="7"/>
-    <col bestFit="1" customWidth="1" min="5658" max="5658" width="17.36328125"/>
-    <col customWidth="1" min="5889" max="5889" width="43.36328125"/>
-    <col customWidth="1" min="5890" max="5890" width="12.6328125"/>
-    <col customWidth="1" min="5891" max="5891" width="19.6328125"/>
-    <col customWidth="1" min="5892" max="5893" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="5902" max="5902" width="10"/>
-    <col bestFit="1" customWidth="1" min="5903" max="5903" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="5906" max="5906" width="10"/>
-    <col bestFit="1" customWidth="1" min="5910" max="5910" width="18.1796875"/>
-    <col customWidth="1" min="5912" max="5912" width="7"/>
-    <col bestFit="1" customWidth="1" min="5914" max="5914" width="17.36328125"/>
-    <col customWidth="1" min="6145" max="6145" width="43.36328125"/>
-    <col customWidth="1" min="6146" max="6146" width="12.6328125"/>
-    <col customWidth="1" min="6147" max="6147" width="19.6328125"/>
-    <col customWidth="1" min="6148" max="6149" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="6158" max="6158" width="10"/>
-    <col bestFit="1" customWidth="1" min="6159" max="6159" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="6162" max="6162" width="10"/>
-    <col bestFit="1" customWidth="1" min="6166" max="6166" width="18.1796875"/>
-    <col customWidth="1" min="6168" max="6168" width="7"/>
-    <col bestFit="1" customWidth="1" min="6170" max="6170" width="17.36328125"/>
-    <col customWidth="1" min="6401" max="6401" width="43.36328125"/>
-    <col customWidth="1" min="6402" max="6402" width="12.6328125"/>
-    <col customWidth="1" min="6403" max="6403" width="19.6328125"/>
-    <col customWidth="1" min="6404" max="6405" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="6414" max="6414" width="10"/>
-    <col bestFit="1" customWidth="1" min="6415" max="6415" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="6418" max="6418" width="10"/>
-    <col bestFit="1" customWidth="1" min="6422" max="6422" width="18.1796875"/>
-    <col customWidth="1" min="6424" max="6424" width="7"/>
-    <col bestFit="1" customWidth="1" min="6426" max="6426" width="17.36328125"/>
-    <col customWidth="1" min="6657" max="6657" width="43.36328125"/>
-    <col customWidth="1" min="6658" max="6658" width="12.6328125"/>
-    <col customWidth="1" min="6659" max="6659" width="19.6328125"/>
-    <col customWidth="1" min="6660" max="6661" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="6670" max="6670" width="10"/>
-    <col bestFit="1" customWidth="1" min="6671" max="6671" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="6674" max="6674" width="10"/>
-    <col bestFit="1" customWidth="1" min="6678" max="6678" width="18.1796875"/>
-    <col customWidth="1" min="6680" max="6680" width="7"/>
-    <col bestFit="1" customWidth="1" min="6682" max="6682" width="17.36328125"/>
-    <col customWidth="1" min="6913" max="6913" width="43.36328125"/>
-    <col customWidth="1" min="6914" max="6914" width="12.6328125"/>
-    <col customWidth="1" min="6915" max="6915" width="19.6328125"/>
-    <col customWidth="1" min="6916" max="6917" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="6926" max="6926" width="10"/>
-    <col bestFit="1" customWidth="1" min="6927" max="6927" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="6930" max="6930" width="10"/>
-    <col bestFit="1" customWidth="1" min="6934" max="6934" width="18.1796875"/>
-    <col customWidth="1" min="6936" max="6936" width="7"/>
-    <col bestFit="1" customWidth="1" min="6938" max="6938" width="17.36328125"/>
-    <col customWidth="1" min="7169" max="7169" width="43.36328125"/>
-    <col customWidth="1" min="7170" max="7170" width="12.6328125"/>
-    <col customWidth="1" min="7171" max="7171" width="19.6328125"/>
-    <col customWidth="1" min="7172" max="7173" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="7182" max="7182" width="10"/>
-    <col bestFit="1" customWidth="1" min="7183" max="7183" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="7186" max="7186" width="10"/>
-    <col bestFit="1" customWidth="1" min="7190" max="7190" width="18.1796875"/>
-    <col customWidth="1" min="7192" max="7192" width="7"/>
-    <col bestFit="1" customWidth="1" min="7194" max="7194" width="17.36328125"/>
-    <col customWidth="1" min="7425" max="7425" width="43.36328125"/>
-    <col customWidth="1" min="7426" max="7426" width="12.6328125"/>
-    <col customWidth="1" min="7427" max="7427" width="19.6328125"/>
-    <col customWidth="1" min="7428" max="7429" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="7438" max="7438" width="10"/>
-    <col bestFit="1" customWidth="1" min="7439" max="7439" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="7442" max="7442" width="10"/>
-    <col bestFit="1" customWidth="1" min="7446" max="7446" width="18.1796875"/>
-    <col customWidth="1" min="7448" max="7448" width="7"/>
-    <col bestFit="1" customWidth="1" min="7450" max="7450" width="17.36328125"/>
-    <col customWidth="1" min="7681" max="7681" width="43.36328125"/>
-    <col customWidth="1" min="7682" max="7682" width="12.6328125"/>
-    <col customWidth="1" min="7683" max="7683" width="19.6328125"/>
-    <col customWidth="1" min="7684" max="7685" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="7694" max="7694" width="10"/>
-    <col bestFit="1" customWidth="1" min="7695" max="7695" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="7698" max="7698" width="10"/>
-    <col bestFit="1" customWidth="1" min="7702" max="7702" width="18.1796875"/>
-    <col customWidth="1" min="7704" max="7704" width="7"/>
-    <col bestFit="1" customWidth="1" min="7706" max="7706" width="17.36328125"/>
-    <col customWidth="1" min="7937" max="7937" width="43.36328125"/>
-    <col customWidth="1" min="7938" max="7938" width="12.6328125"/>
-    <col customWidth="1" min="7939" max="7939" width="19.6328125"/>
-    <col customWidth="1" min="7940" max="7941" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="7950" max="7950" width="10"/>
-    <col bestFit="1" customWidth="1" min="7951" max="7951" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="7954" max="7954" width="10"/>
-    <col bestFit="1" customWidth="1" min="7958" max="7958" width="18.1796875"/>
-    <col customWidth="1" min="7960" max="7960" width="7"/>
-    <col bestFit="1" customWidth="1" min="7962" max="7962" width="17.36328125"/>
-    <col customWidth="1" min="8193" max="8193" width="43.36328125"/>
-    <col customWidth="1" min="8194" max="8194" width="12.6328125"/>
-    <col customWidth="1" min="8195" max="8195" width="19.6328125"/>
-    <col customWidth="1" min="8196" max="8197" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="8206" max="8206" width="10"/>
-    <col bestFit="1" customWidth="1" min="8207" max="8207" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="8210" max="8210" width="10"/>
-    <col bestFit="1" customWidth="1" min="8214" max="8214" width="18.1796875"/>
-    <col customWidth="1" min="8216" max="8216" width="7"/>
-    <col bestFit="1" customWidth="1" min="8218" max="8218" width="17.36328125"/>
-    <col customWidth="1" min="8449" max="8449" width="43.36328125"/>
-    <col customWidth="1" min="8450" max="8450" width="12.6328125"/>
-    <col customWidth="1" min="8451" max="8451" width="19.6328125"/>
-    <col customWidth="1" min="8452" max="8453" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="8462" max="8462" width="10"/>
-    <col bestFit="1" customWidth="1" min="8463" max="8463" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="8466" max="8466" width="10"/>
-    <col bestFit="1" customWidth="1" min="8470" max="8470" width="18.1796875"/>
-    <col customWidth="1" min="8472" max="8472" width="7"/>
-    <col bestFit="1" customWidth="1" min="8474" max="8474" width="17.36328125"/>
-    <col customWidth="1" min="8705" max="8705" width="43.36328125"/>
-    <col customWidth="1" min="8706" max="8706" width="12.6328125"/>
-    <col customWidth="1" min="8707" max="8707" width="19.6328125"/>
-    <col customWidth="1" min="8708" max="8709" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="8718" max="8718" width="10"/>
-    <col bestFit="1" customWidth="1" min="8719" max="8719" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="8722" max="8722" width="10"/>
-    <col bestFit="1" customWidth="1" min="8726" max="8726" width="18.1796875"/>
-    <col customWidth="1" min="8728" max="8728" width="7"/>
-    <col bestFit="1" customWidth="1" min="8730" max="8730" width="17.36328125"/>
-    <col customWidth="1" min="8961" max="8961" width="43.36328125"/>
-    <col customWidth="1" min="8962" max="8962" width="12.6328125"/>
-    <col customWidth="1" min="8963" max="8963" width="19.6328125"/>
-    <col customWidth="1" min="8964" max="8965" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="8974" max="8974" width="10"/>
-    <col bestFit="1" customWidth="1" min="8975" max="8975" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="8978" max="8978" width="10"/>
-    <col bestFit="1" customWidth="1" min="8982" max="8982" width="18.1796875"/>
-    <col customWidth="1" min="8984" max="8984" width="7"/>
-    <col bestFit="1" customWidth="1" min="8986" max="8986" width="17.36328125"/>
-    <col customWidth="1" min="9217" max="9217" width="43.36328125"/>
-    <col customWidth="1" min="9218" max="9218" width="12.6328125"/>
-    <col customWidth="1" min="9219" max="9219" width="19.6328125"/>
-    <col customWidth="1" min="9220" max="9221" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="9230" max="9230" width="10"/>
-    <col bestFit="1" customWidth="1" min="9231" max="9231" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="9234" max="9234" width="10"/>
-    <col bestFit="1" customWidth="1" min="9238" max="9238" width="18.1796875"/>
-    <col customWidth="1" min="9240" max="9240" width="7"/>
-    <col bestFit="1" customWidth="1" min="9242" max="9242" width="17.36328125"/>
-    <col customWidth="1" min="9473" max="9473" width="43.36328125"/>
-    <col customWidth="1" min="9474" max="9474" width="12.6328125"/>
-    <col customWidth="1" min="9475" max="9475" width="19.6328125"/>
-    <col customWidth="1" min="9476" max="9477" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="9486" max="9486" width="10"/>
-    <col bestFit="1" customWidth="1" min="9487" max="9487" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="9490" max="9490" width="10"/>
-    <col bestFit="1" customWidth="1" min="9494" max="9494" width="18.1796875"/>
-    <col customWidth="1" min="9496" max="9496" width="7"/>
-    <col bestFit="1" customWidth="1" min="9498" max="9498" width="17.36328125"/>
-    <col customWidth="1" min="9729" max="9729" width="43.36328125"/>
-    <col customWidth="1" min="9730" max="9730" width="12.6328125"/>
-    <col customWidth="1" min="9731" max="9731" width="19.6328125"/>
-    <col customWidth="1" min="9732" max="9733" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="9742" max="9742" width="10"/>
-    <col bestFit="1" customWidth="1" min="9743" max="9743" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="9746" max="9746" width="10"/>
-    <col bestFit="1" customWidth="1" min="9750" max="9750" width="18.1796875"/>
-    <col customWidth="1" min="9752" max="9752" width="7"/>
-    <col bestFit="1" customWidth="1" min="9754" max="9754" width="17.36328125"/>
-    <col customWidth="1" min="9985" max="9985" width="43.36328125"/>
-    <col customWidth="1" min="9986" max="9986" width="12.6328125"/>
-    <col customWidth="1" min="9987" max="9987" width="19.6328125"/>
-    <col customWidth="1" min="9988" max="9989" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="9998" max="9998" width="10"/>
-    <col bestFit="1" customWidth="1" min="9999" max="9999" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="10002" max="10002" width="10"/>
-    <col bestFit="1" customWidth="1" min="10006" max="10006" width="18.1796875"/>
-    <col customWidth="1" min="10008" max="10008" width="7"/>
-    <col bestFit="1" customWidth="1" min="10010" max="10010" width="17.36328125"/>
-    <col customWidth="1" min="10241" max="10241" width="43.36328125"/>
-    <col customWidth="1" min="10242" max="10242" width="12.6328125"/>
-    <col customWidth="1" min="10243" max="10243" width="19.6328125"/>
-    <col customWidth="1" min="10244" max="10245" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="10254" max="10254" width="10"/>
-    <col bestFit="1" customWidth="1" min="10255" max="10255" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="10258" max="10258" width="10"/>
-    <col bestFit="1" customWidth="1" min="10262" max="10262" width="18.1796875"/>
-    <col customWidth="1" min="10264" max="10264" width="7"/>
-    <col bestFit="1" customWidth="1" min="10266" max="10266" width="17.36328125"/>
-    <col customWidth="1" min="10497" max="10497" width="43.36328125"/>
-    <col customWidth="1" min="10498" max="10498" width="12.6328125"/>
-    <col customWidth="1" min="10499" max="10499" width="19.6328125"/>
-    <col customWidth="1" min="10500" max="10501" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="10510" max="10510" width="10"/>
-    <col bestFit="1" customWidth="1" min="10511" max="10511" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="10514" max="10514" width="10"/>
-    <col bestFit="1" customWidth="1" min="10518" max="10518" width="18.1796875"/>
-    <col customWidth="1" min="10520" max="10520" width="7"/>
-    <col bestFit="1" customWidth="1" min="10522" max="10522" width="17.36328125"/>
-    <col customWidth="1" min="10753" max="10753" width="43.36328125"/>
-    <col customWidth="1" min="10754" max="10754" width="12.6328125"/>
-    <col customWidth="1" min="10755" max="10755" width="19.6328125"/>
-    <col customWidth="1" min="10756" max="10757" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="10766" max="10766" width="10"/>
-    <col bestFit="1" customWidth="1" min="10767" max="10767" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="10770" max="10770" width="10"/>
-    <col bestFit="1" customWidth="1" min="10774" max="10774" width="18.1796875"/>
-    <col customWidth="1" min="10776" max="10776" width="7"/>
-    <col bestFit="1" customWidth="1" min="10778" max="10778" width="17.36328125"/>
-    <col customWidth="1" min="11009" max="11009" width="43.36328125"/>
-    <col customWidth="1" min="11010" max="11010" width="12.6328125"/>
-    <col customWidth="1" min="11011" max="11011" width="19.6328125"/>
-    <col customWidth="1" min="11012" max="11013" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="11022" max="11022" width="10"/>
-    <col bestFit="1" customWidth="1" min="11023" max="11023" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="11026" max="11026" width="10"/>
-    <col bestFit="1" customWidth="1" min="11030" max="11030" width="18.1796875"/>
-    <col customWidth="1" min="11032" max="11032" width="7"/>
-    <col bestFit="1" customWidth="1" min="11034" max="11034" width="17.36328125"/>
-    <col customWidth="1" min="11265" max="11265" width="43.36328125"/>
-    <col customWidth="1" min="11266" max="11266" width="12.6328125"/>
-    <col customWidth="1" min="11267" max="11267" width="19.6328125"/>
-    <col customWidth="1" min="11268" max="11269" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="11278" max="11278" width="10"/>
-    <col bestFit="1" customWidth="1" min="11279" max="11279" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="11282" max="11282" width="10"/>
-    <col bestFit="1" customWidth="1" min="11286" max="11286" width="18.1796875"/>
-    <col customWidth="1" min="11288" max="11288" width="7"/>
-    <col bestFit="1" customWidth="1" min="11290" max="11290" width="17.36328125"/>
-    <col customWidth="1" min="11521" max="11521" width="43.36328125"/>
-    <col customWidth="1" min="11522" max="11522" width="12.6328125"/>
-    <col customWidth="1" min="11523" max="11523" width="19.6328125"/>
-    <col customWidth="1" min="11524" max="11525" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="11534" max="11534" width="10"/>
-    <col bestFit="1" customWidth="1" min="11535" max="11535" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="11538" max="11538" width="10"/>
-    <col bestFit="1" customWidth="1" min="11542" max="11542" width="18.1796875"/>
-    <col customWidth="1" min="11544" max="11544" width="7"/>
-    <col bestFit="1" customWidth="1" min="11546" max="11546" width="17.36328125"/>
-    <col customWidth="1" min="11777" max="11777" width="43.36328125"/>
-    <col customWidth="1" min="11778" max="11778" width="12.6328125"/>
-    <col customWidth="1" min="11779" max="11779" width="19.6328125"/>
-    <col customWidth="1" min="11780" max="11781" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="11790" max="11790" width="10"/>
-    <col bestFit="1" customWidth="1" min="11791" max="11791" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="11794" max="11794" width="10"/>
-    <col bestFit="1" customWidth="1" min="11798" max="11798" width="18.1796875"/>
-    <col customWidth="1" min="11800" max="11800" width="7"/>
-    <col bestFit="1" customWidth="1" min="11802" max="11802" width="17.36328125"/>
-    <col customWidth="1" min="12033" max="12033" width="43.36328125"/>
-    <col customWidth="1" min="12034" max="12034" width="12.6328125"/>
-    <col customWidth="1" min="12035" max="12035" width="19.6328125"/>
-    <col customWidth="1" min="12036" max="12037" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="12046" max="12046" width="10"/>
-    <col bestFit="1" customWidth="1" min="12047" max="12047" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="12050" max="12050" width="10"/>
-    <col bestFit="1" customWidth="1" min="12054" max="12054" width="18.1796875"/>
-    <col customWidth="1" min="12056" max="12056" width="7"/>
-    <col bestFit="1" customWidth="1" min="12058" max="12058" width="17.36328125"/>
-    <col customWidth="1" min="12289" max="12289" width="43.36328125"/>
-    <col customWidth="1" min="12290" max="12290" width="12.6328125"/>
-    <col customWidth="1" min="12291" max="12291" width="19.6328125"/>
-    <col customWidth="1" min="12292" max="12293" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="12302" max="12302" width="10"/>
-    <col bestFit="1" customWidth="1" min="12303" max="12303" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="12306" max="12306" width="10"/>
-    <col bestFit="1" customWidth="1" min="12310" max="12310" width="18.1796875"/>
-    <col customWidth="1" min="12312" max="12312" width="7"/>
-    <col bestFit="1" customWidth="1" min="12314" max="12314" width="17.36328125"/>
-    <col customWidth="1" min="12545" max="12545" width="43.36328125"/>
-    <col customWidth="1" min="12546" max="12546" width="12.6328125"/>
-    <col customWidth="1" min="12547" max="12547" width="19.6328125"/>
-    <col customWidth="1" min="12548" max="12549" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="12558" max="12558" width="10"/>
-    <col bestFit="1" customWidth="1" min="12559" max="12559" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="12562" max="12562" width="10"/>
-    <col bestFit="1" customWidth="1" min="12566" max="12566" width="18.1796875"/>
-    <col customWidth="1" min="12568" max="12568" width="7"/>
-    <col bestFit="1" customWidth="1" min="12570" max="12570" width="17.36328125"/>
-    <col customWidth="1" min="12801" max="12801" width="43.36328125"/>
-    <col customWidth="1" min="12802" max="12802" width="12.6328125"/>
-    <col customWidth="1" min="12803" max="12803" width="19.6328125"/>
-    <col customWidth="1" min="12804" max="12805" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="12814" max="12814" width="10"/>
-    <col bestFit="1" customWidth="1" min="12815" max="12815" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="12818" max="12818" width="10"/>
-    <col bestFit="1" customWidth="1" min="12822" max="12822" width="18.1796875"/>
-    <col customWidth="1" min="12824" max="12824" width="7"/>
-    <col bestFit="1" customWidth="1" min="12826" max="12826" width="17.36328125"/>
-    <col customWidth="1" min="13057" max="13057" width="43.36328125"/>
-    <col customWidth="1" min="13058" max="13058" width="12.6328125"/>
-    <col customWidth="1" min="13059" max="13059" width="19.6328125"/>
-    <col customWidth="1" min="13060" max="13061" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="13070" max="13070" width="10"/>
-    <col bestFit="1" customWidth="1" min="13071" max="13071" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="13074" max="13074" width="10"/>
-    <col bestFit="1" customWidth="1" min="13078" max="13078" width="18.1796875"/>
-    <col customWidth="1" min="13080" max="13080" width="7"/>
-    <col bestFit="1" customWidth="1" min="13082" max="13082" width="17.36328125"/>
-    <col customWidth="1" min="13313" max="13313" width="43.36328125"/>
-    <col customWidth="1" min="13314" max="13314" width="12.6328125"/>
-    <col customWidth="1" min="13315" max="13315" width="19.6328125"/>
-    <col customWidth="1" min="13316" max="13317" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="13326" max="13326" width="10"/>
-    <col bestFit="1" customWidth="1" min="13327" max="13327" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="13330" max="13330" width="10"/>
-    <col bestFit="1" customWidth="1" min="13334" max="13334" width="18.1796875"/>
-    <col customWidth="1" min="13336" max="13336" width="7"/>
-    <col bestFit="1" customWidth="1" min="13338" max="13338" width="17.36328125"/>
-    <col customWidth="1" min="13569" max="13569" width="43.36328125"/>
-    <col customWidth="1" min="13570" max="13570" width="12.6328125"/>
-    <col customWidth="1" min="13571" max="13571" width="19.6328125"/>
-    <col customWidth="1" min="13572" max="13573" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="13582" max="13582" width="10"/>
-    <col bestFit="1" customWidth="1" min="13583" max="13583" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="13586" max="13586" width="10"/>
-    <col bestFit="1" customWidth="1" min="13590" max="13590" width="18.1796875"/>
-    <col customWidth="1" min="13592" max="13592" width="7"/>
-    <col bestFit="1" customWidth="1" min="13594" max="13594" width="17.36328125"/>
-    <col customWidth="1" min="13825" max="13825" width="43.36328125"/>
-    <col customWidth="1" min="13826" max="13826" width="12.6328125"/>
-    <col customWidth="1" min="13827" max="13827" width="19.6328125"/>
-    <col customWidth="1" min="13828" max="13829" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="13838" max="13838" width="10"/>
-    <col bestFit="1" customWidth="1" min="13839" max="13839" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="13842" max="13842" width="10"/>
-    <col bestFit="1" customWidth="1" min="13846" max="13846" width="18.1796875"/>
-    <col customWidth="1" min="13848" max="13848" width="7"/>
-    <col bestFit="1" customWidth="1" min="13850" max="13850" width="17.36328125"/>
-    <col customWidth="1" min="14081" max="14081" width="43.36328125"/>
-    <col customWidth="1" min="14082" max="14082" width="12.6328125"/>
-    <col customWidth="1" min="14083" max="14083" width="19.6328125"/>
-    <col customWidth="1" min="14084" max="14085" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="14094" max="14094" width="10"/>
-    <col bestFit="1" customWidth="1" min="14095" max="14095" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="14098" max="14098" width="10"/>
-    <col bestFit="1" customWidth="1" min="14102" max="14102" width="18.1796875"/>
-    <col customWidth="1" min="14104" max="14104" width="7"/>
-    <col bestFit="1" customWidth="1" min="14106" max="14106" width="17.36328125"/>
-    <col customWidth="1" min="14337" max="14337" width="43.36328125"/>
-    <col customWidth="1" min="14338" max="14338" width="12.6328125"/>
-    <col customWidth="1" min="14339" max="14339" width="19.6328125"/>
-    <col customWidth="1" min="14340" max="14341" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="14350" max="14350" width="10"/>
-    <col bestFit="1" customWidth="1" min="14351" max="14351" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="14354" max="14354" width="10"/>
-    <col bestFit="1" customWidth="1" min="14358" max="14358" width="18.1796875"/>
-    <col customWidth="1" min="14360" max="14360" width="7"/>
-    <col bestFit="1" customWidth="1" min="14362" max="14362" width="17.36328125"/>
-    <col customWidth="1" min="14593" max="14593" width="43.36328125"/>
-    <col customWidth="1" min="14594" max="14594" width="12.6328125"/>
-    <col customWidth="1" min="14595" max="14595" width="19.6328125"/>
-    <col customWidth="1" min="14596" max="14597" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="14606" max="14606" width="10"/>
-    <col bestFit="1" customWidth="1" min="14607" max="14607" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="14610" max="14610" width="10"/>
-    <col bestFit="1" customWidth="1" min="14614" max="14614" width="18.1796875"/>
-    <col customWidth="1" min="14616" max="14616" width="7"/>
-    <col bestFit="1" customWidth="1" min="14618" max="14618" width="17.36328125"/>
-    <col customWidth="1" min="14849" max="14849" width="43.36328125"/>
-    <col customWidth="1" min="14850" max="14850" width="12.6328125"/>
-    <col customWidth="1" min="14851" max="14851" width="19.6328125"/>
-    <col customWidth="1" min="14852" max="14853" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="14862" max="14862" width="10"/>
-    <col bestFit="1" customWidth="1" min="14863" max="14863" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="14866" max="14866" width="10"/>
-    <col bestFit="1" customWidth="1" min="14870" max="14870" width="18.1796875"/>
-    <col customWidth="1" min="14872" max="14872" width="7"/>
-    <col bestFit="1" customWidth="1" min="14874" max="14874" width="17.36328125"/>
-    <col customWidth="1" min="15105" max="15105" width="43.36328125"/>
-    <col customWidth="1" min="15106" max="15106" width="12.6328125"/>
-    <col customWidth="1" min="15107" max="15107" width="19.6328125"/>
-    <col customWidth="1" min="15108" max="15109" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="15118" max="15118" width="10"/>
-    <col bestFit="1" customWidth="1" min="15119" max="15119" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="15122" max="15122" width="10"/>
-    <col bestFit="1" customWidth="1" min="15126" max="15126" width="18.1796875"/>
-    <col customWidth="1" min="15128" max="15128" width="7"/>
-    <col bestFit="1" customWidth="1" min="15130" max="15130" width="17.36328125"/>
-    <col customWidth="1" min="15361" max="15361" width="43.36328125"/>
-    <col customWidth="1" min="15362" max="15362" width="12.6328125"/>
-    <col customWidth="1" min="15363" max="15363" width="19.6328125"/>
-    <col customWidth="1" min="15364" max="15365" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="15374" max="15374" width="10"/>
-    <col bestFit="1" customWidth="1" min="15375" max="15375" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="15378" max="15378" width="10"/>
-    <col bestFit="1" customWidth="1" min="15382" max="15382" width="18.1796875"/>
-    <col customWidth="1" min="15384" max="15384" width="7"/>
-    <col bestFit="1" customWidth="1" min="15386" max="15386" width="17.36328125"/>
-    <col customWidth="1" min="15617" max="15617" width="43.36328125"/>
-    <col customWidth="1" min="15618" max="15618" width="12.6328125"/>
-    <col customWidth="1" min="15619" max="15619" width="19.6328125"/>
-    <col customWidth="1" min="15620" max="15621" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="15630" max="15630" width="10"/>
-    <col bestFit="1" customWidth="1" min="15631" max="15631" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="15634" max="15634" width="10"/>
-    <col bestFit="1" customWidth="1" min="15638" max="15638" width="18.1796875"/>
-    <col customWidth="1" min="15640" max="15640" width="7"/>
-    <col bestFit="1" customWidth="1" min="15642" max="15642" width="17.36328125"/>
-    <col customWidth="1" min="15873" max="15873" width="43.36328125"/>
-    <col customWidth="1" min="15874" max="15874" width="12.6328125"/>
-    <col customWidth="1" min="15875" max="15875" width="19.6328125"/>
-    <col customWidth="1" min="15876" max="15877" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="15886" max="15886" width="10"/>
-    <col bestFit="1" customWidth="1" min="15887" max="15887" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="15890" max="15890" width="10"/>
-    <col bestFit="1" customWidth="1" min="15894" max="15894" width="18.1796875"/>
-    <col customWidth="1" min="15896" max="15896" width="7"/>
-    <col bestFit="1" customWidth="1" min="15898" max="15898" width="17.36328125"/>
-    <col customWidth="1" min="16129" max="16129" width="43.36328125"/>
-    <col customWidth="1" min="16130" max="16130" width="12.6328125"/>
-    <col customWidth="1" min="16131" max="16131" width="19.6328125"/>
-    <col customWidth="1" min="16132" max="16133" width="19.36328125"/>
-    <col bestFit="1" customWidth="1" min="16142" max="16142" width="10"/>
-    <col bestFit="1" customWidth="1" min="16143" max="16143" width="17.36328125"/>
-    <col bestFit="1" customWidth="1" min="16146" max="16146" width="10"/>
-    <col bestFit="1" customWidth="1" min="16150" max="16150" width="18.1796875"/>
-    <col customWidth="1" min="16152" max="16152" width="7"/>
-    <col bestFit="1" customWidth="1" min="16154" max="16154" width="17.36328125"/>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="5" width="19.36328125" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="26" max="26" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.36328125" customWidth="1"/>
+    <col min="258" max="258" width="12.6328125" customWidth="1"/>
+    <col min="259" max="259" width="19.6328125" customWidth="1"/>
+    <col min="260" max="261" width="19.36328125" customWidth="1"/>
+    <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="7" customWidth="1"/>
+    <col min="282" max="282" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.36328125" customWidth="1"/>
+    <col min="514" max="514" width="12.6328125" customWidth="1"/>
+    <col min="515" max="515" width="19.6328125" customWidth="1"/>
+    <col min="516" max="517" width="19.36328125" customWidth="1"/>
+    <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="7" customWidth="1"/>
+    <col min="538" max="538" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.36328125" customWidth="1"/>
+    <col min="770" max="770" width="12.6328125" customWidth="1"/>
+    <col min="771" max="771" width="19.6328125" customWidth="1"/>
+    <col min="772" max="773" width="19.36328125" customWidth="1"/>
+    <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="7" customWidth="1"/>
+    <col min="794" max="794" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.36328125" customWidth="1"/>
+    <col min="1026" max="1026" width="12.6328125" customWidth="1"/>
+    <col min="1027" max="1027" width="19.6328125" customWidth="1"/>
+    <col min="1028" max="1029" width="19.36328125" customWidth="1"/>
+    <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1048" max="1048" width="7" customWidth="1"/>
+    <col min="1050" max="1050" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.36328125" customWidth="1"/>
+    <col min="1282" max="1282" width="12.6328125" customWidth="1"/>
+    <col min="1283" max="1283" width="19.6328125" customWidth="1"/>
+    <col min="1284" max="1285" width="19.36328125" customWidth="1"/>
+    <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1304" max="1304" width="7" customWidth="1"/>
+    <col min="1306" max="1306" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.36328125" customWidth="1"/>
+    <col min="1538" max="1538" width="12.6328125" customWidth="1"/>
+    <col min="1539" max="1539" width="19.6328125" customWidth="1"/>
+    <col min="1540" max="1541" width="19.36328125" customWidth="1"/>
+    <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1560" max="1560" width="7" customWidth="1"/>
+    <col min="1562" max="1562" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.36328125" customWidth="1"/>
+    <col min="1794" max="1794" width="12.6328125" customWidth="1"/>
+    <col min="1795" max="1795" width="19.6328125" customWidth="1"/>
+    <col min="1796" max="1797" width="19.36328125" customWidth="1"/>
+    <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1816" max="1816" width="7" customWidth="1"/>
+    <col min="1818" max="1818" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.36328125" customWidth="1"/>
+    <col min="2050" max="2050" width="12.6328125" customWidth="1"/>
+    <col min="2051" max="2051" width="19.6328125" customWidth="1"/>
+    <col min="2052" max="2053" width="19.36328125" customWidth="1"/>
+    <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2072" max="2072" width="7" customWidth="1"/>
+    <col min="2074" max="2074" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.36328125" customWidth="1"/>
+    <col min="2306" max="2306" width="12.6328125" customWidth="1"/>
+    <col min="2307" max="2307" width="19.6328125" customWidth="1"/>
+    <col min="2308" max="2309" width="19.36328125" customWidth="1"/>
+    <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2328" max="2328" width="7" customWidth="1"/>
+    <col min="2330" max="2330" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.36328125" customWidth="1"/>
+    <col min="2562" max="2562" width="12.6328125" customWidth="1"/>
+    <col min="2563" max="2563" width="19.6328125" customWidth="1"/>
+    <col min="2564" max="2565" width="19.36328125" customWidth="1"/>
+    <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2584" max="2584" width="7" customWidth="1"/>
+    <col min="2586" max="2586" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.36328125" customWidth="1"/>
+    <col min="2818" max="2818" width="12.6328125" customWidth="1"/>
+    <col min="2819" max="2819" width="19.6328125" customWidth="1"/>
+    <col min="2820" max="2821" width="19.36328125" customWidth="1"/>
+    <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2840" max="2840" width="7" customWidth="1"/>
+    <col min="2842" max="2842" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.36328125" customWidth="1"/>
+    <col min="3074" max="3074" width="12.6328125" customWidth="1"/>
+    <col min="3075" max="3075" width="19.6328125" customWidth="1"/>
+    <col min="3076" max="3077" width="19.36328125" customWidth="1"/>
+    <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3096" max="3096" width="7" customWidth="1"/>
+    <col min="3098" max="3098" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.36328125" customWidth="1"/>
+    <col min="3330" max="3330" width="12.6328125" customWidth="1"/>
+    <col min="3331" max="3331" width="19.6328125" customWidth="1"/>
+    <col min="3332" max="3333" width="19.36328125" customWidth="1"/>
+    <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3352" max="3352" width="7" customWidth="1"/>
+    <col min="3354" max="3354" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.36328125" customWidth="1"/>
+    <col min="3586" max="3586" width="12.6328125" customWidth="1"/>
+    <col min="3587" max="3587" width="19.6328125" customWidth="1"/>
+    <col min="3588" max="3589" width="19.36328125" customWidth="1"/>
+    <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3608" max="3608" width="7" customWidth="1"/>
+    <col min="3610" max="3610" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.36328125" customWidth="1"/>
+    <col min="3842" max="3842" width="12.6328125" customWidth="1"/>
+    <col min="3843" max="3843" width="19.6328125" customWidth="1"/>
+    <col min="3844" max="3845" width="19.36328125" customWidth="1"/>
+    <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3864" max="3864" width="7" customWidth="1"/>
+    <col min="3866" max="3866" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.36328125" customWidth="1"/>
+    <col min="4098" max="4098" width="12.6328125" customWidth="1"/>
+    <col min="4099" max="4099" width="19.6328125" customWidth="1"/>
+    <col min="4100" max="4101" width="19.36328125" customWidth="1"/>
+    <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4120" max="4120" width="7" customWidth="1"/>
+    <col min="4122" max="4122" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.36328125" customWidth="1"/>
+    <col min="4354" max="4354" width="12.6328125" customWidth="1"/>
+    <col min="4355" max="4355" width="19.6328125" customWidth="1"/>
+    <col min="4356" max="4357" width="19.36328125" customWidth="1"/>
+    <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4376" max="4376" width="7" customWidth="1"/>
+    <col min="4378" max="4378" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.36328125" customWidth="1"/>
+    <col min="4610" max="4610" width="12.6328125" customWidth="1"/>
+    <col min="4611" max="4611" width="19.6328125" customWidth="1"/>
+    <col min="4612" max="4613" width="19.36328125" customWidth="1"/>
+    <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4632" max="4632" width="7" customWidth="1"/>
+    <col min="4634" max="4634" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.36328125" customWidth="1"/>
+    <col min="4866" max="4866" width="12.6328125" customWidth="1"/>
+    <col min="4867" max="4867" width="19.6328125" customWidth="1"/>
+    <col min="4868" max="4869" width="19.36328125" customWidth="1"/>
+    <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4888" max="4888" width="7" customWidth="1"/>
+    <col min="4890" max="4890" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.36328125" customWidth="1"/>
+    <col min="5122" max="5122" width="12.6328125" customWidth="1"/>
+    <col min="5123" max="5123" width="19.6328125" customWidth="1"/>
+    <col min="5124" max="5125" width="19.36328125" customWidth="1"/>
+    <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5144" max="5144" width="7" customWidth="1"/>
+    <col min="5146" max="5146" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.36328125" customWidth="1"/>
+    <col min="5378" max="5378" width="12.6328125" customWidth="1"/>
+    <col min="5379" max="5379" width="19.6328125" customWidth="1"/>
+    <col min="5380" max="5381" width="19.36328125" customWidth="1"/>
+    <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5400" max="5400" width="7" customWidth="1"/>
+    <col min="5402" max="5402" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.36328125" customWidth="1"/>
+    <col min="5634" max="5634" width="12.6328125" customWidth="1"/>
+    <col min="5635" max="5635" width="19.6328125" customWidth="1"/>
+    <col min="5636" max="5637" width="19.36328125" customWidth="1"/>
+    <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5656" max="5656" width="7" customWidth="1"/>
+    <col min="5658" max="5658" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.36328125" customWidth="1"/>
+    <col min="5890" max="5890" width="12.6328125" customWidth="1"/>
+    <col min="5891" max="5891" width="19.6328125" customWidth="1"/>
+    <col min="5892" max="5893" width="19.36328125" customWidth="1"/>
+    <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5912" max="5912" width="7" customWidth="1"/>
+    <col min="5914" max="5914" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.36328125" customWidth="1"/>
+    <col min="6146" max="6146" width="12.6328125" customWidth="1"/>
+    <col min="6147" max="6147" width="19.6328125" customWidth="1"/>
+    <col min="6148" max="6149" width="19.36328125" customWidth="1"/>
+    <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6168" max="6168" width="7" customWidth="1"/>
+    <col min="6170" max="6170" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.36328125" customWidth="1"/>
+    <col min="6402" max="6402" width="12.6328125" customWidth="1"/>
+    <col min="6403" max="6403" width="19.6328125" customWidth="1"/>
+    <col min="6404" max="6405" width="19.36328125" customWidth="1"/>
+    <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6424" max="6424" width="7" customWidth="1"/>
+    <col min="6426" max="6426" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.36328125" customWidth="1"/>
+    <col min="6658" max="6658" width="12.6328125" customWidth="1"/>
+    <col min="6659" max="6659" width="19.6328125" customWidth="1"/>
+    <col min="6660" max="6661" width="19.36328125" customWidth="1"/>
+    <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6680" max="6680" width="7" customWidth="1"/>
+    <col min="6682" max="6682" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.36328125" customWidth="1"/>
+    <col min="6914" max="6914" width="12.6328125" customWidth="1"/>
+    <col min="6915" max="6915" width="19.6328125" customWidth="1"/>
+    <col min="6916" max="6917" width="19.36328125" customWidth="1"/>
+    <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6936" max="6936" width="7" customWidth="1"/>
+    <col min="6938" max="6938" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.36328125" customWidth="1"/>
+    <col min="7170" max="7170" width="12.6328125" customWidth="1"/>
+    <col min="7171" max="7171" width="19.6328125" customWidth="1"/>
+    <col min="7172" max="7173" width="19.36328125" customWidth="1"/>
+    <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7192" max="7192" width="7" customWidth="1"/>
+    <col min="7194" max="7194" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.36328125" customWidth="1"/>
+    <col min="7426" max="7426" width="12.6328125" customWidth="1"/>
+    <col min="7427" max="7427" width="19.6328125" customWidth="1"/>
+    <col min="7428" max="7429" width="19.36328125" customWidth="1"/>
+    <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7448" max="7448" width="7" customWidth="1"/>
+    <col min="7450" max="7450" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.36328125" customWidth="1"/>
+    <col min="7682" max="7682" width="12.6328125" customWidth="1"/>
+    <col min="7683" max="7683" width="19.6328125" customWidth="1"/>
+    <col min="7684" max="7685" width="19.36328125" customWidth="1"/>
+    <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7704" max="7704" width="7" customWidth="1"/>
+    <col min="7706" max="7706" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.36328125" customWidth="1"/>
+    <col min="7938" max="7938" width="12.6328125" customWidth="1"/>
+    <col min="7939" max="7939" width="19.6328125" customWidth="1"/>
+    <col min="7940" max="7941" width="19.36328125" customWidth="1"/>
+    <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7960" max="7960" width="7" customWidth="1"/>
+    <col min="7962" max="7962" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.36328125" customWidth="1"/>
+    <col min="8194" max="8194" width="12.6328125" customWidth="1"/>
+    <col min="8195" max="8195" width="19.6328125" customWidth="1"/>
+    <col min="8196" max="8197" width="19.36328125" customWidth="1"/>
+    <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8216" max="8216" width="7" customWidth="1"/>
+    <col min="8218" max="8218" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.36328125" customWidth="1"/>
+    <col min="8450" max="8450" width="12.6328125" customWidth="1"/>
+    <col min="8451" max="8451" width="19.6328125" customWidth="1"/>
+    <col min="8452" max="8453" width="19.36328125" customWidth="1"/>
+    <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8472" max="8472" width="7" customWidth="1"/>
+    <col min="8474" max="8474" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.36328125" customWidth="1"/>
+    <col min="8706" max="8706" width="12.6328125" customWidth="1"/>
+    <col min="8707" max="8707" width="19.6328125" customWidth="1"/>
+    <col min="8708" max="8709" width="19.36328125" customWidth="1"/>
+    <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8728" max="8728" width="7" customWidth="1"/>
+    <col min="8730" max="8730" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.36328125" customWidth="1"/>
+    <col min="8962" max="8962" width="12.6328125" customWidth="1"/>
+    <col min="8963" max="8963" width="19.6328125" customWidth="1"/>
+    <col min="8964" max="8965" width="19.36328125" customWidth="1"/>
+    <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8984" max="8984" width="7" customWidth="1"/>
+    <col min="8986" max="8986" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.36328125" customWidth="1"/>
+    <col min="9218" max="9218" width="12.6328125" customWidth="1"/>
+    <col min="9219" max="9219" width="19.6328125" customWidth="1"/>
+    <col min="9220" max="9221" width="19.36328125" customWidth="1"/>
+    <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9240" max="9240" width="7" customWidth="1"/>
+    <col min="9242" max="9242" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.36328125" customWidth="1"/>
+    <col min="9474" max="9474" width="12.6328125" customWidth="1"/>
+    <col min="9475" max="9475" width="19.6328125" customWidth="1"/>
+    <col min="9476" max="9477" width="19.36328125" customWidth="1"/>
+    <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9496" max="9496" width="7" customWidth="1"/>
+    <col min="9498" max="9498" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.36328125" customWidth="1"/>
+    <col min="9730" max="9730" width="12.6328125" customWidth="1"/>
+    <col min="9731" max="9731" width="19.6328125" customWidth="1"/>
+    <col min="9732" max="9733" width="19.36328125" customWidth="1"/>
+    <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9752" max="9752" width="7" customWidth="1"/>
+    <col min="9754" max="9754" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.36328125" customWidth="1"/>
+    <col min="9986" max="9986" width="12.6328125" customWidth="1"/>
+    <col min="9987" max="9987" width="19.6328125" customWidth="1"/>
+    <col min="9988" max="9989" width="19.36328125" customWidth="1"/>
+    <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10008" max="10008" width="7" customWidth="1"/>
+    <col min="10010" max="10010" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.36328125" customWidth="1"/>
+    <col min="10242" max="10242" width="12.6328125" customWidth="1"/>
+    <col min="10243" max="10243" width="19.6328125" customWidth="1"/>
+    <col min="10244" max="10245" width="19.36328125" customWidth="1"/>
+    <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10264" max="10264" width="7" customWidth="1"/>
+    <col min="10266" max="10266" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.36328125" customWidth="1"/>
+    <col min="10498" max="10498" width="12.6328125" customWidth="1"/>
+    <col min="10499" max="10499" width="19.6328125" customWidth="1"/>
+    <col min="10500" max="10501" width="19.36328125" customWidth="1"/>
+    <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10520" max="10520" width="7" customWidth="1"/>
+    <col min="10522" max="10522" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.36328125" customWidth="1"/>
+    <col min="10754" max="10754" width="12.6328125" customWidth="1"/>
+    <col min="10755" max="10755" width="19.6328125" customWidth="1"/>
+    <col min="10756" max="10757" width="19.36328125" customWidth="1"/>
+    <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10776" max="10776" width="7" customWidth="1"/>
+    <col min="10778" max="10778" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.36328125" customWidth="1"/>
+    <col min="11010" max="11010" width="12.6328125" customWidth="1"/>
+    <col min="11011" max="11011" width="19.6328125" customWidth="1"/>
+    <col min="11012" max="11013" width="19.36328125" customWidth="1"/>
+    <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11032" max="11032" width="7" customWidth="1"/>
+    <col min="11034" max="11034" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.36328125" customWidth="1"/>
+    <col min="11266" max="11266" width="12.6328125" customWidth="1"/>
+    <col min="11267" max="11267" width="19.6328125" customWidth="1"/>
+    <col min="11268" max="11269" width="19.36328125" customWidth="1"/>
+    <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11288" max="11288" width="7" customWidth="1"/>
+    <col min="11290" max="11290" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.36328125" customWidth="1"/>
+    <col min="11522" max="11522" width="12.6328125" customWidth="1"/>
+    <col min="11523" max="11523" width="19.6328125" customWidth="1"/>
+    <col min="11524" max="11525" width="19.36328125" customWidth="1"/>
+    <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11544" max="11544" width="7" customWidth="1"/>
+    <col min="11546" max="11546" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.36328125" customWidth="1"/>
+    <col min="11778" max="11778" width="12.6328125" customWidth="1"/>
+    <col min="11779" max="11779" width="19.6328125" customWidth="1"/>
+    <col min="11780" max="11781" width="19.36328125" customWidth="1"/>
+    <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11800" max="11800" width="7" customWidth="1"/>
+    <col min="11802" max="11802" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.36328125" customWidth="1"/>
+    <col min="12034" max="12034" width="12.6328125" customWidth="1"/>
+    <col min="12035" max="12035" width="19.6328125" customWidth="1"/>
+    <col min="12036" max="12037" width="19.36328125" customWidth="1"/>
+    <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12056" max="12056" width="7" customWidth="1"/>
+    <col min="12058" max="12058" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.36328125" customWidth="1"/>
+    <col min="12290" max="12290" width="12.6328125" customWidth="1"/>
+    <col min="12291" max="12291" width="19.6328125" customWidth="1"/>
+    <col min="12292" max="12293" width="19.36328125" customWidth="1"/>
+    <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12312" max="12312" width="7" customWidth="1"/>
+    <col min="12314" max="12314" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.36328125" customWidth="1"/>
+    <col min="12546" max="12546" width="12.6328125" customWidth="1"/>
+    <col min="12547" max="12547" width="19.6328125" customWidth="1"/>
+    <col min="12548" max="12549" width="19.36328125" customWidth="1"/>
+    <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12568" max="12568" width="7" customWidth="1"/>
+    <col min="12570" max="12570" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.36328125" customWidth="1"/>
+    <col min="12802" max="12802" width="12.6328125" customWidth="1"/>
+    <col min="12803" max="12803" width="19.6328125" customWidth="1"/>
+    <col min="12804" max="12805" width="19.36328125" customWidth="1"/>
+    <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12824" max="12824" width="7" customWidth="1"/>
+    <col min="12826" max="12826" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.36328125" customWidth="1"/>
+    <col min="13058" max="13058" width="12.6328125" customWidth="1"/>
+    <col min="13059" max="13059" width="19.6328125" customWidth="1"/>
+    <col min="13060" max="13061" width="19.36328125" customWidth="1"/>
+    <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13080" max="13080" width="7" customWidth="1"/>
+    <col min="13082" max="13082" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.36328125" customWidth="1"/>
+    <col min="13314" max="13314" width="12.6328125" customWidth="1"/>
+    <col min="13315" max="13315" width="19.6328125" customWidth="1"/>
+    <col min="13316" max="13317" width="19.36328125" customWidth="1"/>
+    <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13336" max="13336" width="7" customWidth="1"/>
+    <col min="13338" max="13338" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.36328125" customWidth="1"/>
+    <col min="13570" max="13570" width="12.6328125" customWidth="1"/>
+    <col min="13571" max="13571" width="19.6328125" customWidth="1"/>
+    <col min="13572" max="13573" width="19.36328125" customWidth="1"/>
+    <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13592" max="13592" width="7" customWidth="1"/>
+    <col min="13594" max="13594" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.36328125" customWidth="1"/>
+    <col min="13826" max="13826" width="12.6328125" customWidth="1"/>
+    <col min="13827" max="13827" width="19.6328125" customWidth="1"/>
+    <col min="13828" max="13829" width="19.36328125" customWidth="1"/>
+    <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13848" max="13848" width="7" customWidth="1"/>
+    <col min="13850" max="13850" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.36328125" customWidth="1"/>
+    <col min="14082" max="14082" width="12.6328125" customWidth="1"/>
+    <col min="14083" max="14083" width="19.6328125" customWidth="1"/>
+    <col min="14084" max="14085" width="19.36328125" customWidth="1"/>
+    <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14104" max="14104" width="7" customWidth="1"/>
+    <col min="14106" max="14106" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.36328125" customWidth="1"/>
+    <col min="14338" max="14338" width="12.6328125" customWidth="1"/>
+    <col min="14339" max="14339" width="19.6328125" customWidth="1"/>
+    <col min="14340" max="14341" width="19.36328125" customWidth="1"/>
+    <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14360" max="14360" width="7" customWidth="1"/>
+    <col min="14362" max="14362" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.36328125" customWidth="1"/>
+    <col min="14594" max="14594" width="12.6328125" customWidth="1"/>
+    <col min="14595" max="14595" width="19.6328125" customWidth="1"/>
+    <col min="14596" max="14597" width="19.36328125" customWidth="1"/>
+    <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14616" max="14616" width="7" customWidth="1"/>
+    <col min="14618" max="14618" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.36328125" customWidth="1"/>
+    <col min="14850" max="14850" width="12.6328125" customWidth="1"/>
+    <col min="14851" max="14851" width="19.6328125" customWidth="1"/>
+    <col min="14852" max="14853" width="19.36328125" customWidth="1"/>
+    <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14872" max="14872" width="7" customWidth="1"/>
+    <col min="14874" max="14874" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.36328125" customWidth="1"/>
+    <col min="15106" max="15106" width="12.6328125" customWidth="1"/>
+    <col min="15107" max="15107" width="19.6328125" customWidth="1"/>
+    <col min="15108" max="15109" width="19.36328125" customWidth="1"/>
+    <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15128" max="15128" width="7" customWidth="1"/>
+    <col min="15130" max="15130" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.36328125" customWidth="1"/>
+    <col min="15362" max="15362" width="12.6328125" customWidth="1"/>
+    <col min="15363" max="15363" width="19.6328125" customWidth="1"/>
+    <col min="15364" max="15365" width="19.36328125" customWidth="1"/>
+    <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15384" max="15384" width="7" customWidth="1"/>
+    <col min="15386" max="15386" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.36328125" customWidth="1"/>
+    <col min="15618" max="15618" width="12.6328125" customWidth="1"/>
+    <col min="15619" max="15619" width="19.6328125" customWidth="1"/>
+    <col min="15620" max="15621" width="19.36328125" customWidth="1"/>
+    <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15640" max="15640" width="7" customWidth="1"/>
+    <col min="15642" max="15642" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.36328125" customWidth="1"/>
+    <col min="15874" max="15874" width="12.6328125" customWidth="1"/>
+    <col min="15875" max="15875" width="19.6328125" customWidth="1"/>
+    <col min="15876" max="15877" width="19.36328125" customWidth="1"/>
+    <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15896" max="15896" width="7" customWidth="1"/>
+    <col min="15898" max="15898" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.36328125" customWidth="1"/>
+    <col min="16130" max="16130" width="12.6328125" customWidth="1"/>
+    <col min="16131" max="16131" width="19.6328125" customWidth="1"/>
+    <col min="16132" max="16133" width="19.36328125" customWidth="1"/>
+    <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16152" max="16152" width="7" customWidth="1"/>
+    <col min="16154" max="16154" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4452,7 +4193,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -4476,7 +4217,7 @@
         <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>24</v>
@@ -4485,45 +4226,45 @@
         <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -4532,7 +4273,7 @@
         <v>12000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
@@ -4541,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I3" si="6">2771.2/0.962</f>
+        <f t="shared" ref="I2:I3" si="0">2771.2/0.962</f>
         <v>2880.6652806652805</v>
       </c>
       <c r="J2" s="2">
@@ -4551,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:L3" si="7">-284.2/0.962</f>
+        <f t="shared" ref="L2:L3" si="1">-284.2/0.962</f>
         <v>-295.42619542619542</v>
       </c>
       <c r="M2" s="2">
@@ -4588,24 +4329,24 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="X2" s="13">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="Y2" s="13">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D3" s="2">
         <v>12000</v>
@@ -4614,7 +4355,7 @@
         <v>10000000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
@@ -4623,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2880.6652806652805</v>
       </c>
       <c r="J3" s="2">
@@ -4633,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>-295.42619542619542</v>
       </c>
       <c r="M3" s="2">
@@ -4670,24 +4411,24 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="X3" s="13">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="Y3" s="13">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -4696,7 +4437,7 @@
         <v>10000000000</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>31</v>
@@ -4750,24 +4491,24 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="X4" s="13">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="Y4" s="13">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -4776,7 +4517,7 @@
         <v>10000000000</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>31</v>
@@ -4785,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="13">
-        <v>117.90000000000001</v>
+        <v>117.9</v>
       </c>
       <c r="J5" s="13">
         <v>1</v>
@@ -4809,7 +4550,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="13">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="R5" s="13">
         <v>0</v>
@@ -4827,27 +4568,27 @@
         <v>917</v>
       </c>
       <c r="W5" s="13">
-        <v>2.1099999999999999</v>
+        <v>2.11</v>
       </c>
       <c r="X5" s="13">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="Y5" s="13">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -4856,7 +4597,7 @@
         <v>10000000000</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>31</v>
@@ -4865,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="13">
-        <v>117.90000000000001</v>
+        <v>117.9</v>
       </c>
       <c r="J6" s="13">
         <v>1</v>
@@ -4889,7 +4630,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="13">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="R6" s="13">
         <v>4</v>
@@ -4910,24 +4651,24 @@
         <v>2</v>
       </c>
       <c r="X6" s="13">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="Y6" s="13">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -4936,7 +4677,7 @@
         <v>10000000000</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>31</v>
@@ -4969,16 +4710,16 @@
         <v>6</v>
       </c>
       <c r="Q7" s="13">
-        <v>27.300000000000001</v>
+        <v>27.3</v>
       </c>
       <c r="R7" s="13">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="S7" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="T7" s="13">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="U7" s="13">
         <v>105</v>
@@ -4987,27 +4728,27 @@
         <v>1125</v>
       </c>
       <c r="W7" s="13">
-        <v>2.0899999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="X7" s="13">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="Y7" s="13">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -5016,7 +4757,7 @@
         <v>10000000000</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>31</v>
@@ -5049,7 +4790,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="13">
-        <v>19.699999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="R8" s="13">
         <v>5</v>
@@ -5067,46 +4808,46 @@
         <v>760</v>
       </c>
       <c r="W8" s="13">
-        <v>2.1400000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="X8" s="13">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="Y8" s="13">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView topLeftCell="U1" zoomScale="250" workbookViewId="0">
-      <selection activeCell="AD2" activeCellId="0" sqref="AD2"/>
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.6328125"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="16.08984375"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="15.6328125"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="17.90625"/>
-    <col customWidth="1" min="21" max="21" width="14.36328125"/>
-    <col customWidth="1" min="22" max="22" width="12.6328125"/>
-    <col customWidth="1" min="23" max="23" width="10.453125"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.36328125" customWidth="1"/>
+    <col min="22" max="22" width="12.6328125" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5207,7 +4948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -5230,19 +4971,19 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="H2" s="2">
-        <v>3.9100000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="I2" s="2">
-        <v>0.0080999999999999996</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="J2" s="8">
-        <v>57.979999999999997</v>
+        <v>57.98</v>
       </c>
       <c r="K2" s="8">
-        <v>86.969999999999999</v>
+        <v>86.97</v>
       </c>
       <c r="L2" s="8">
-        <v>28.989999999999998</v>
+        <v>28.99</v>
       </c>
       <c r="M2" s="8">
         <v>8000</v>
@@ -5287,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="2">
-        <f t="shared" ref="Z2:Z3" si="3">2050/0.962</f>
+        <f t="shared" ref="Z2:Z3" si="0">2050/0.962</f>
         <v>2130.9771309771309</v>
       </c>
       <c r="AA2" s="2">
@@ -5312,7 +5053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -5335,19 +5076,19 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="H3" s="2">
-        <v>0.89000000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="I3" s="2">
-        <v>0.019900000000000001</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="J3" s="8">
-        <v>88.200000000000003</v>
+        <v>88.2</v>
       </c>
       <c r="K3" s="8">
         <v>147.12</v>
       </c>
       <c r="L3" s="8">
-        <v>33.100000000000001</v>
+        <v>33.1</v>
       </c>
       <c r="M3" s="8">
         <v>39000</v>
@@ -5356,7 +5097,7 @@
         <v>196</v>
       </c>
       <c r="O3" s="8">
-        <v>0.91000000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="P3" s="8">
         <v>0</v>
@@ -5392,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2130.9771309771309</v>
       </c>
       <c r="AA3" s="2">
@@ -5418,30 +5159,30 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.453125"/>
-    <col customWidth="1" min="3" max="3" width="9.453125"/>
-    <col customWidth="1" min="4" max="5" width="10.453125"/>
-    <col customWidth="1" min="8" max="8" width="10.453125"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5488,7 +5229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -5537,31 +5278,31 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.6328125"/>
-    <col customWidth="1" min="2" max="2" width="13.36328125"/>
-    <col customWidth="1" min="3" max="3" width="17.6328125"/>
-    <col customWidth="1" min="4" max="5" width="16.453125"/>
-    <col customWidth="1" min="12" max="12" width="22.6328125"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="5" width="16.453125" customWidth="1"/>
+    <col min="12" max="12" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5608,7 +5349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -5655,7 +5396,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -5702,7 +5443,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -5727,7 +5468,7 @@
       </c>
       <c r="H4" s="2">
         <f>0.014/0.902</f>
-        <v>0.015521064301552106</v>
+        <v>1.5521064301552106E-2</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -5750,30 +5491,30 @@
       <c r="O4" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="0" sqref="A2:O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.36328125"/>
-    <col customWidth="1" min="3" max="3" width="17"/>
-    <col customWidth="1" min="4" max="5" width="17.6328125"/>
-    <col customWidth="1" min="8" max="8" width="10.453125"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="5" width="17.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5820,7 +5561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -5865,7 +5606,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
@@ -5911,31 +5652,31 @@
       <c r="O3" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.453125"/>
-    <col customWidth="1" min="3" max="3" width="16.453125"/>
-    <col customWidth="1" min="4" max="5" width="15.453125"/>
-    <col customWidth="1" min="6" max="6" width="14"/>
-    <col customWidth="1" min="12" max="12" width="17.6328125"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5982,7 +5723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -6005,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H3" si="4">13.2/0.962</f>
+        <f t="shared" ref="H2:H3" si="0">13.2/0.962</f>
         <v>13.721413721413722</v>
       </c>
       <c r="I2" s="2">
@@ -6028,7 +5769,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -6051,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13.721413721413722</v>
       </c>
       <c r="I3" s="2">
@@ -6077,29 +5818,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="205" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28"/>
-    <col customWidth="1" min="3" max="5" width="9.36328125"/>
-    <col customWidth="1" min="15" max="15" width="13.6328125"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="3" max="5" width="9.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6146,7 +5887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -6193,29 +5934,29 @@
       <c r="O2" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="13.00390625"/>
-    <col bestFit="1" customWidth="1" min="13" max="13" width="38"/>
-    <col bestFit="1" customWidth="1" min="14" max="14" width="12.54296875"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -6259,7 +6000,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -6282,36 +6023,33 @@
         <v>0.33269598</v>
       </c>
       <c r="H2">
-        <v>0.0072911599999999997</v>
+        <v>7.2911599999999997E-3</v>
       </c>
       <c r="I2">
-        <v>-0.00049938000000000001</v>
+        <v>-4.9938000000000001E-4</v>
       </c>
       <c r="J2">
-        <v>0.01598983</v>
+        <v>1.598983E-2</v>
       </c>
       <c r="K2">
-        <v>-0.00028254000000000002</v>
+        <v>-2.8254000000000002E-4</v>
       </c>
       <c r="L2">
-        <v>0.00052346000000000001</v>
+        <v>5.2346000000000001E-4</v>
       </c>
       <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>0.17149273000000001</v>
@@ -6326,51 +6064,47 @@
         <v>-0.29861976000000001</v>
       </c>
       <c r="H3">
-        <v>0.029960759999999999</v>
+        <v>2.9960759999999999E-2</v>
       </c>
       <c r="I3">
-        <v>-0.00080124999999999999</v>
+        <v>-8.0124999999999999E-4</v>
       </c>
       <c r="J3">
-        <v>0.017362679999999998</v>
+        <v>1.7362679999999998E-2</v>
       </c>
       <c r="K3">
-        <v>-0.00032605999999999998</v>
+        <v>-3.2605999999999998E-4</v>
       </c>
       <c r="L3">
-        <v>0.00063139000000000001</v>
+        <v>6.3139000000000001E-4</v>
       </c>
       <c r="M3" t="s">
         <v>89</v>
       </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.6328125"/>
-    <col customWidth="1" min="4" max="4" width="17.36328125"/>
-    <col customWidth="1" min="5" max="6" width="24"/>
-    <col bestFit="1" customWidth="1" min="16" max="16" width="33.36328125"/>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="6" width="24" customWidth="1"/>
+    <col min="16" max="16" width="33.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6378,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -6420,15 +6154,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
-        <v>0.46999999999999997</v>
+        <v>0.47</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>
@@ -6467,18 +6201,18 @@
         <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C3" s="2">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -6522,15 +6256,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1">
+    <row r="4" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C4" s="2">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -6572,17 +6306,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K23" s="12"/>
     </row>
-    <row r="25">
+    <row r="25" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K25" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8910E4A9-CC62-9943-8E8B-989CE5EBAFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA15C9-7812-3348-8A96-256344D6B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="30240" windowHeight="19640" tabRatio="993" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9080" yWindow="29560" windowWidth="30240" windowHeight="18880" tabRatio="993" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -50,8 +50,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B4F5AB91-6F7C-483D-A592-89102691FFFB}</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{26363D1B-78CF-2241-AFD8-CE7730A47A45}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="249">
   <si>
     <t>Description</t>
   </si>
@@ -762,6 +789,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Assumptions</t>
+  </si>
+  <si>
+    <t>coal-fired furnace</t>
+  </si>
+  <si>
+    <t>electrical boiler</t>
+  </si>
+  <si>
+    <t>wood-furnace</t>
+  </si>
+  <si>
+    <t>BO4</t>
+  </si>
+  <si>
+    <t>BO5</t>
+  </si>
+  <si>
+    <t>BO6</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>biomass boiler</t>
+  </si>
+  <si>
+    <t>BO7</t>
+  </si>
+  <si>
+    <t>biomass</t>
   </si>
 </sst>
 </file>
@@ -773,7 +836,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -817,8 +880,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,8 +912,14 @@
         <bgColor indexed="40"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -974,6 +1055,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3C3C3C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3C3C3C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3C3C3C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -982,7 +1087,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,16 +1207,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2433,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFF6F14-A874-CB45-A2C1-8C31AFCB2875}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -6110,11 +6221,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6807,11 +6918,56 @@
         <v>158</v>
       </c>
     </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7337,7 +7493,7 @@
       <c r="A8" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -7408,7 +7564,7 @@
       <c r="A9" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -7479,7 +7635,7 @@
       <c r="A10" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -7550,7 +7706,7 @@
       <c r="A11" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -8019,10 +8175,10 @@
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="12">
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -8087,10 +8243,10 @@
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="11">
         <v>0.4</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -8157,10 +8313,10 @@
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="11">
         <v>0.4</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -8227,10 +8383,10 @@
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="11">
         <v>0.4</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -8297,10 +8453,10 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="11">
         <v>0.4</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -8367,10 +8523,10 @@
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="11">
         <v>0.4</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -8449,7 +8605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA15C9-7812-3348-8A96-256344D6B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F9543-0846-F64D-B3A7-63803A5C102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="29560" windowWidth="30240" windowHeight="18880" tabRatio="993" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9080" yWindow="29560" windowWidth="30240" windowHeight="18880" tabRatio="993" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="254">
   <si>
     <t>Description</t>
   </si>
@@ -825,6 +825,21 @@
   </si>
   <si>
     <t>biomass</t>
+  </si>
+  <si>
+    <t>District substation heat exchanger</t>
+  </si>
+  <si>
+    <t>HEX2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
   </si>
 </sst>
 </file>
@@ -1213,16 +1228,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7789,7 +7804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -8071,7 +8086,58 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C5" s="9"/>
+      <c r="A5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>500</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3381</v>
+      </c>
+      <c r="M5" s="2">
+        <v>229.8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8605,7 +8671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\DE\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F9543-0846-F64D-B3A7-63803A5C102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F277F-3B9F-4C58-94EA-ED845C2124DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="29560" windowWidth="30240" windowHeight="18880" tabRatio="993" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -50,35 +50,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={B4F5AB91-6F7C-483D-A592-89102691FFFB}</author>
-  </authors>
-  <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{26363D1B-78CF-2241-AFD8-CE7730A47A45}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="255">
   <si>
     <t>Description</t>
   </si>
@@ -840,6 +813,9 @@
   </si>
   <si>
     <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass flow rates</t>
   </si>
 </sst>
 </file>
@@ -851,7 +827,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -892,12 +868,6 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1222,7 +1192,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1246,7 +1216,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1686,29 +1656,29 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="17" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="23" width="10.5" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="17" width="12.453125" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" customWidth="1"/>
+    <col min="21" max="23" width="10.453125" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" customWidth="1"/>
+    <col min="25" max="25" width="12.6328125" customWidth="1"/>
+    <col min="27" max="27" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1959,7 +1929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2127,7 +2097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +2181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2295,7 +2265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +2349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2463,7 +2433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2563,16 +2533,16 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2589,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>235</v>
       </c>
@@ -2665,7 +2635,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
@@ -2729,21 +2699,21 @@
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2808,7 +2778,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -2873,7 +2843,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -2938,10 +2908,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O9" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O11" s="10"/>
     </row>
   </sheetData>
@@ -2957,26 +2927,26 @@
       <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="4" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3017,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>200</v>
       </c>
@@ -3117,7 +3087,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>200</v>
       </c>
@@ -3187,7 +3157,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>199</v>
       </c>
@@ -3258,7 +3228,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
@@ -3329,7 +3299,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>199</v>
       </c>
@@ -3400,7 +3370,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>199</v>
       </c>
@@ -3471,7 +3441,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -3543,7 +3513,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -3615,7 +3585,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
@@ -3687,7 +3657,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>197</v>
       </c>
@@ -3775,651 +3745,651 @@
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="5" width="19.36328125" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43.33203125" customWidth="1"/>
-    <col min="258" max="258" width="12.6640625" customWidth="1"/>
-    <col min="259" max="259" width="19.6640625" customWidth="1"/>
-    <col min="260" max="261" width="19.33203125" customWidth="1"/>
+    <col min="26" max="26" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.36328125" customWidth="1"/>
+    <col min="258" max="258" width="12.6328125" customWidth="1"/>
+    <col min="259" max="259" width="19.6328125" customWidth="1"/>
+    <col min="260" max="261" width="19.36328125" customWidth="1"/>
     <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="7" customWidth="1"/>
-    <col min="282" max="282" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="43.33203125" customWidth="1"/>
-    <col min="514" max="514" width="12.6640625" customWidth="1"/>
-    <col min="515" max="515" width="19.6640625" customWidth="1"/>
-    <col min="516" max="517" width="19.33203125" customWidth="1"/>
+    <col min="282" max="282" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.36328125" customWidth="1"/>
+    <col min="514" max="514" width="12.6328125" customWidth="1"/>
+    <col min="515" max="515" width="19.6328125" customWidth="1"/>
+    <col min="516" max="517" width="19.36328125" customWidth="1"/>
     <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="536" max="536" width="7" customWidth="1"/>
-    <col min="538" max="538" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="43.33203125" customWidth="1"/>
-    <col min="770" max="770" width="12.6640625" customWidth="1"/>
-    <col min="771" max="771" width="19.6640625" customWidth="1"/>
-    <col min="772" max="773" width="19.33203125" customWidth="1"/>
+    <col min="538" max="538" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.36328125" customWidth="1"/>
+    <col min="770" max="770" width="12.6328125" customWidth="1"/>
+    <col min="771" max="771" width="19.6328125" customWidth="1"/>
+    <col min="772" max="773" width="19.36328125" customWidth="1"/>
     <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="792" max="792" width="7" customWidth="1"/>
-    <col min="794" max="794" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="43.33203125" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6640625" customWidth="1"/>
-    <col min="1027" max="1027" width="19.6640625" customWidth="1"/>
-    <col min="1028" max="1029" width="19.33203125" customWidth="1"/>
+    <col min="794" max="794" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.36328125" customWidth="1"/>
+    <col min="1026" max="1026" width="12.6328125" customWidth="1"/>
+    <col min="1027" max="1027" width="19.6328125" customWidth="1"/>
+    <col min="1028" max="1029" width="19.36328125" customWidth="1"/>
     <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1046" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1048" max="1048" width="7" customWidth="1"/>
-    <col min="1050" max="1050" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="43.33203125" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6640625" customWidth="1"/>
-    <col min="1283" max="1283" width="19.6640625" customWidth="1"/>
-    <col min="1284" max="1285" width="19.33203125" customWidth="1"/>
+    <col min="1050" max="1050" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.36328125" customWidth="1"/>
+    <col min="1282" max="1282" width="12.6328125" customWidth="1"/>
+    <col min="1283" max="1283" width="19.6328125" customWidth="1"/>
+    <col min="1284" max="1285" width="19.36328125" customWidth="1"/>
     <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1302" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1304" max="1304" width="7" customWidth="1"/>
-    <col min="1306" max="1306" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="43.33203125" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6640625" customWidth="1"/>
-    <col min="1539" max="1539" width="19.6640625" customWidth="1"/>
-    <col min="1540" max="1541" width="19.33203125" customWidth="1"/>
+    <col min="1306" max="1306" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.36328125" customWidth="1"/>
+    <col min="1538" max="1538" width="12.6328125" customWidth="1"/>
+    <col min="1539" max="1539" width="19.6328125" customWidth="1"/>
+    <col min="1540" max="1541" width="19.36328125" customWidth="1"/>
     <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1558" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1560" max="1560" width="7" customWidth="1"/>
-    <col min="1562" max="1562" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="43.33203125" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6640625" customWidth="1"/>
-    <col min="1795" max="1795" width="19.6640625" customWidth="1"/>
-    <col min="1796" max="1797" width="19.33203125" customWidth="1"/>
+    <col min="1562" max="1562" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.36328125" customWidth="1"/>
+    <col min="1794" max="1794" width="12.6328125" customWidth="1"/>
+    <col min="1795" max="1795" width="19.6328125" customWidth="1"/>
+    <col min="1796" max="1797" width="19.36328125" customWidth="1"/>
     <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
-    <col min="1814" max="1814" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1816" max="1816" width="7" customWidth="1"/>
-    <col min="1818" max="1818" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="43.33203125" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6640625" customWidth="1"/>
-    <col min="2051" max="2051" width="19.6640625" customWidth="1"/>
-    <col min="2052" max="2053" width="19.33203125" customWidth="1"/>
+    <col min="1818" max="1818" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.36328125" customWidth="1"/>
+    <col min="2050" max="2050" width="12.6328125" customWidth="1"/>
+    <col min="2051" max="2051" width="19.6328125" customWidth="1"/>
+    <col min="2052" max="2053" width="19.36328125" customWidth="1"/>
     <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2070" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2072" max="2072" width="7" customWidth="1"/>
-    <col min="2074" max="2074" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="43.33203125" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6640625" customWidth="1"/>
-    <col min="2307" max="2307" width="19.6640625" customWidth="1"/>
-    <col min="2308" max="2309" width="19.33203125" customWidth="1"/>
+    <col min="2074" max="2074" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.36328125" customWidth="1"/>
+    <col min="2306" max="2306" width="12.6328125" customWidth="1"/>
+    <col min="2307" max="2307" width="19.6328125" customWidth="1"/>
+    <col min="2308" max="2309" width="19.36328125" customWidth="1"/>
     <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2326" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2328" max="2328" width="7" customWidth="1"/>
-    <col min="2330" max="2330" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="43.33203125" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6640625" customWidth="1"/>
-    <col min="2563" max="2563" width="19.6640625" customWidth="1"/>
-    <col min="2564" max="2565" width="19.33203125" customWidth="1"/>
+    <col min="2330" max="2330" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.36328125" customWidth="1"/>
+    <col min="2562" max="2562" width="12.6328125" customWidth="1"/>
+    <col min="2563" max="2563" width="19.6328125" customWidth="1"/>
+    <col min="2564" max="2565" width="19.36328125" customWidth="1"/>
     <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2582" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2584" max="2584" width="7" customWidth="1"/>
-    <col min="2586" max="2586" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="43.33203125" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6640625" customWidth="1"/>
-    <col min="2819" max="2819" width="19.6640625" customWidth="1"/>
-    <col min="2820" max="2821" width="19.33203125" customWidth="1"/>
+    <col min="2586" max="2586" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.36328125" customWidth="1"/>
+    <col min="2818" max="2818" width="12.6328125" customWidth="1"/>
+    <col min="2819" max="2819" width="19.6328125" customWidth="1"/>
+    <col min="2820" max="2821" width="19.36328125" customWidth="1"/>
     <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
-    <col min="2838" max="2838" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2840" max="2840" width="7" customWidth="1"/>
-    <col min="2842" max="2842" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="43.33203125" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6640625" customWidth="1"/>
-    <col min="3075" max="3075" width="19.6640625" customWidth="1"/>
-    <col min="3076" max="3077" width="19.33203125" customWidth="1"/>
+    <col min="2842" max="2842" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.36328125" customWidth="1"/>
+    <col min="3074" max="3074" width="12.6328125" customWidth="1"/>
+    <col min="3075" max="3075" width="19.6328125" customWidth="1"/>
+    <col min="3076" max="3077" width="19.36328125" customWidth="1"/>
     <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3094" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3096" max="3096" width="7" customWidth="1"/>
-    <col min="3098" max="3098" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="43.33203125" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6640625" customWidth="1"/>
-    <col min="3331" max="3331" width="19.6640625" customWidth="1"/>
-    <col min="3332" max="3333" width="19.33203125" customWidth="1"/>
+    <col min="3098" max="3098" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.36328125" customWidth="1"/>
+    <col min="3330" max="3330" width="12.6328125" customWidth="1"/>
+    <col min="3331" max="3331" width="19.6328125" customWidth="1"/>
+    <col min="3332" max="3333" width="19.36328125" customWidth="1"/>
     <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3350" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3352" max="3352" width="7" customWidth="1"/>
-    <col min="3354" max="3354" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="43.33203125" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6640625" customWidth="1"/>
-    <col min="3587" max="3587" width="19.6640625" customWidth="1"/>
-    <col min="3588" max="3589" width="19.33203125" customWidth="1"/>
+    <col min="3354" max="3354" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.36328125" customWidth="1"/>
+    <col min="3586" max="3586" width="12.6328125" customWidth="1"/>
+    <col min="3587" max="3587" width="19.6328125" customWidth="1"/>
+    <col min="3588" max="3589" width="19.36328125" customWidth="1"/>
     <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3606" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3608" max="3608" width="7" customWidth="1"/>
-    <col min="3610" max="3610" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="43.33203125" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6640625" customWidth="1"/>
-    <col min="3843" max="3843" width="19.6640625" customWidth="1"/>
-    <col min="3844" max="3845" width="19.33203125" customWidth="1"/>
+    <col min="3610" max="3610" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.36328125" customWidth="1"/>
+    <col min="3842" max="3842" width="12.6328125" customWidth="1"/>
+    <col min="3843" max="3843" width="19.6328125" customWidth="1"/>
+    <col min="3844" max="3845" width="19.36328125" customWidth="1"/>
     <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
-    <col min="3862" max="3862" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3864" max="3864" width="7" customWidth="1"/>
-    <col min="3866" max="3866" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="43.33203125" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6640625" customWidth="1"/>
-    <col min="4099" max="4099" width="19.6640625" customWidth="1"/>
-    <col min="4100" max="4101" width="19.33203125" customWidth="1"/>
+    <col min="3866" max="3866" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.36328125" customWidth="1"/>
+    <col min="4098" max="4098" width="12.6328125" customWidth="1"/>
+    <col min="4099" max="4099" width="19.6328125" customWidth="1"/>
+    <col min="4100" max="4101" width="19.36328125" customWidth="1"/>
     <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4118" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4120" max="4120" width="7" customWidth="1"/>
-    <col min="4122" max="4122" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="43.33203125" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6640625" customWidth="1"/>
-    <col min="4355" max="4355" width="19.6640625" customWidth="1"/>
-    <col min="4356" max="4357" width="19.33203125" customWidth="1"/>
+    <col min="4122" max="4122" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.36328125" customWidth="1"/>
+    <col min="4354" max="4354" width="12.6328125" customWidth="1"/>
+    <col min="4355" max="4355" width="19.6328125" customWidth="1"/>
+    <col min="4356" max="4357" width="19.36328125" customWidth="1"/>
     <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4374" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4376" max="4376" width="7" customWidth="1"/>
-    <col min="4378" max="4378" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="43.33203125" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6640625" customWidth="1"/>
-    <col min="4611" max="4611" width="19.6640625" customWidth="1"/>
-    <col min="4612" max="4613" width="19.33203125" customWidth="1"/>
+    <col min="4378" max="4378" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.36328125" customWidth="1"/>
+    <col min="4610" max="4610" width="12.6328125" customWidth="1"/>
+    <col min="4611" max="4611" width="19.6328125" customWidth="1"/>
+    <col min="4612" max="4613" width="19.36328125" customWidth="1"/>
     <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4630" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4632" max="4632" width="7" customWidth="1"/>
-    <col min="4634" max="4634" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="43.33203125" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6640625" customWidth="1"/>
-    <col min="4867" max="4867" width="19.6640625" customWidth="1"/>
-    <col min="4868" max="4869" width="19.33203125" customWidth="1"/>
+    <col min="4634" max="4634" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.36328125" customWidth="1"/>
+    <col min="4866" max="4866" width="12.6328125" customWidth="1"/>
+    <col min="4867" max="4867" width="19.6328125" customWidth="1"/>
+    <col min="4868" max="4869" width="19.36328125" customWidth="1"/>
     <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
-    <col min="4886" max="4886" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4888" max="4888" width="7" customWidth="1"/>
-    <col min="4890" max="4890" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="43.33203125" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6640625" customWidth="1"/>
-    <col min="5123" max="5123" width="19.6640625" customWidth="1"/>
-    <col min="5124" max="5125" width="19.33203125" customWidth="1"/>
+    <col min="4890" max="4890" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.36328125" customWidth="1"/>
+    <col min="5122" max="5122" width="12.6328125" customWidth="1"/>
+    <col min="5123" max="5123" width="19.6328125" customWidth="1"/>
+    <col min="5124" max="5125" width="19.36328125" customWidth="1"/>
     <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5142" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5144" max="5144" width="7" customWidth="1"/>
-    <col min="5146" max="5146" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="43.33203125" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6640625" customWidth="1"/>
-    <col min="5379" max="5379" width="19.6640625" customWidth="1"/>
-    <col min="5380" max="5381" width="19.33203125" customWidth="1"/>
+    <col min="5146" max="5146" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.36328125" customWidth="1"/>
+    <col min="5378" max="5378" width="12.6328125" customWidth="1"/>
+    <col min="5379" max="5379" width="19.6328125" customWidth="1"/>
+    <col min="5380" max="5381" width="19.36328125" customWidth="1"/>
     <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5398" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5400" max="5400" width="7" customWidth="1"/>
-    <col min="5402" max="5402" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="43.33203125" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6640625" customWidth="1"/>
-    <col min="5635" max="5635" width="19.6640625" customWidth="1"/>
-    <col min="5636" max="5637" width="19.33203125" customWidth="1"/>
+    <col min="5402" max="5402" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.36328125" customWidth="1"/>
+    <col min="5634" max="5634" width="12.6328125" customWidth="1"/>
+    <col min="5635" max="5635" width="19.6328125" customWidth="1"/>
+    <col min="5636" max="5637" width="19.36328125" customWidth="1"/>
     <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5654" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5656" max="5656" width="7" customWidth="1"/>
-    <col min="5658" max="5658" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="43.33203125" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6640625" customWidth="1"/>
-    <col min="5891" max="5891" width="19.6640625" customWidth="1"/>
-    <col min="5892" max="5893" width="19.33203125" customWidth="1"/>
+    <col min="5658" max="5658" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.36328125" customWidth="1"/>
+    <col min="5890" max="5890" width="12.6328125" customWidth="1"/>
+    <col min="5891" max="5891" width="19.6328125" customWidth="1"/>
+    <col min="5892" max="5893" width="19.36328125" customWidth="1"/>
     <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
-    <col min="5910" max="5910" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5912" max="5912" width="7" customWidth="1"/>
-    <col min="5914" max="5914" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="43.33203125" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6640625" customWidth="1"/>
-    <col min="6147" max="6147" width="19.6640625" customWidth="1"/>
-    <col min="6148" max="6149" width="19.33203125" customWidth="1"/>
+    <col min="5914" max="5914" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.36328125" customWidth="1"/>
+    <col min="6146" max="6146" width="12.6328125" customWidth="1"/>
+    <col min="6147" max="6147" width="19.6328125" customWidth="1"/>
+    <col min="6148" max="6149" width="19.36328125" customWidth="1"/>
     <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6166" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6168" max="6168" width="7" customWidth="1"/>
-    <col min="6170" max="6170" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="43.33203125" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6640625" customWidth="1"/>
-    <col min="6403" max="6403" width="19.6640625" customWidth="1"/>
-    <col min="6404" max="6405" width="19.33203125" customWidth="1"/>
+    <col min="6170" max="6170" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.36328125" customWidth="1"/>
+    <col min="6402" max="6402" width="12.6328125" customWidth="1"/>
+    <col min="6403" max="6403" width="19.6328125" customWidth="1"/>
+    <col min="6404" max="6405" width="19.36328125" customWidth="1"/>
     <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6422" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6424" max="6424" width="7" customWidth="1"/>
-    <col min="6426" max="6426" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="43.33203125" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6640625" customWidth="1"/>
-    <col min="6659" max="6659" width="19.6640625" customWidth="1"/>
-    <col min="6660" max="6661" width="19.33203125" customWidth="1"/>
+    <col min="6426" max="6426" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.36328125" customWidth="1"/>
+    <col min="6658" max="6658" width="12.6328125" customWidth="1"/>
+    <col min="6659" max="6659" width="19.6328125" customWidth="1"/>
+    <col min="6660" max="6661" width="19.36328125" customWidth="1"/>
     <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6678" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6680" max="6680" width="7" customWidth="1"/>
-    <col min="6682" max="6682" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="43.33203125" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6640625" customWidth="1"/>
-    <col min="6915" max="6915" width="19.6640625" customWidth="1"/>
-    <col min="6916" max="6917" width="19.33203125" customWidth="1"/>
+    <col min="6682" max="6682" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.36328125" customWidth="1"/>
+    <col min="6914" max="6914" width="12.6328125" customWidth="1"/>
+    <col min="6915" max="6915" width="19.6328125" customWidth="1"/>
+    <col min="6916" max="6917" width="19.36328125" customWidth="1"/>
     <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
-    <col min="6934" max="6934" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6936" max="6936" width="7" customWidth="1"/>
-    <col min="6938" max="6938" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="43.33203125" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6640625" customWidth="1"/>
-    <col min="7171" max="7171" width="19.6640625" customWidth="1"/>
-    <col min="7172" max="7173" width="19.33203125" customWidth="1"/>
+    <col min="6938" max="6938" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.36328125" customWidth="1"/>
+    <col min="7170" max="7170" width="12.6328125" customWidth="1"/>
+    <col min="7171" max="7171" width="19.6328125" customWidth="1"/>
+    <col min="7172" max="7173" width="19.36328125" customWidth="1"/>
     <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7190" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7192" max="7192" width="7" customWidth="1"/>
-    <col min="7194" max="7194" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="43.33203125" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6640625" customWidth="1"/>
-    <col min="7427" max="7427" width="19.6640625" customWidth="1"/>
-    <col min="7428" max="7429" width="19.33203125" customWidth="1"/>
+    <col min="7194" max="7194" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.36328125" customWidth="1"/>
+    <col min="7426" max="7426" width="12.6328125" customWidth="1"/>
+    <col min="7427" max="7427" width="19.6328125" customWidth="1"/>
+    <col min="7428" max="7429" width="19.36328125" customWidth="1"/>
     <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7446" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7448" max="7448" width="7" customWidth="1"/>
-    <col min="7450" max="7450" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="43.33203125" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6640625" customWidth="1"/>
-    <col min="7683" max="7683" width="19.6640625" customWidth="1"/>
-    <col min="7684" max="7685" width="19.33203125" customWidth="1"/>
+    <col min="7450" max="7450" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.36328125" customWidth="1"/>
+    <col min="7682" max="7682" width="12.6328125" customWidth="1"/>
+    <col min="7683" max="7683" width="19.6328125" customWidth="1"/>
+    <col min="7684" max="7685" width="19.36328125" customWidth="1"/>
     <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7702" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7704" max="7704" width="7" customWidth="1"/>
-    <col min="7706" max="7706" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="43.33203125" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6640625" customWidth="1"/>
-    <col min="7939" max="7939" width="19.6640625" customWidth="1"/>
-    <col min="7940" max="7941" width="19.33203125" customWidth="1"/>
+    <col min="7706" max="7706" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.36328125" customWidth="1"/>
+    <col min="7938" max="7938" width="12.6328125" customWidth="1"/>
+    <col min="7939" max="7939" width="19.6328125" customWidth="1"/>
+    <col min="7940" max="7941" width="19.36328125" customWidth="1"/>
     <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
-    <col min="7958" max="7958" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7960" max="7960" width="7" customWidth="1"/>
-    <col min="7962" max="7962" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="43.33203125" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6640625" customWidth="1"/>
-    <col min="8195" max="8195" width="19.6640625" customWidth="1"/>
-    <col min="8196" max="8197" width="19.33203125" customWidth="1"/>
+    <col min="7962" max="7962" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.36328125" customWidth="1"/>
+    <col min="8194" max="8194" width="12.6328125" customWidth="1"/>
+    <col min="8195" max="8195" width="19.6328125" customWidth="1"/>
+    <col min="8196" max="8197" width="19.36328125" customWidth="1"/>
     <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8214" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8216" max="8216" width="7" customWidth="1"/>
-    <col min="8218" max="8218" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="43.33203125" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6640625" customWidth="1"/>
-    <col min="8451" max="8451" width="19.6640625" customWidth="1"/>
-    <col min="8452" max="8453" width="19.33203125" customWidth="1"/>
+    <col min="8218" max="8218" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.36328125" customWidth="1"/>
+    <col min="8450" max="8450" width="12.6328125" customWidth="1"/>
+    <col min="8451" max="8451" width="19.6328125" customWidth="1"/>
+    <col min="8452" max="8453" width="19.36328125" customWidth="1"/>
     <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8470" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8472" max="8472" width="7" customWidth="1"/>
-    <col min="8474" max="8474" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="43.33203125" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6640625" customWidth="1"/>
-    <col min="8707" max="8707" width="19.6640625" customWidth="1"/>
-    <col min="8708" max="8709" width="19.33203125" customWidth="1"/>
+    <col min="8474" max="8474" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.36328125" customWidth="1"/>
+    <col min="8706" max="8706" width="12.6328125" customWidth="1"/>
+    <col min="8707" max="8707" width="19.6328125" customWidth="1"/>
+    <col min="8708" max="8709" width="19.36328125" customWidth="1"/>
     <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8726" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8728" max="8728" width="7" customWidth="1"/>
-    <col min="8730" max="8730" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="43.33203125" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6640625" customWidth="1"/>
-    <col min="8963" max="8963" width="19.6640625" customWidth="1"/>
-    <col min="8964" max="8965" width="19.33203125" customWidth="1"/>
+    <col min="8730" max="8730" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.36328125" customWidth="1"/>
+    <col min="8962" max="8962" width="12.6328125" customWidth="1"/>
+    <col min="8963" max="8963" width="19.6328125" customWidth="1"/>
+    <col min="8964" max="8965" width="19.36328125" customWidth="1"/>
     <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
-    <col min="8982" max="8982" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8984" max="8984" width="7" customWidth="1"/>
-    <col min="8986" max="8986" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="43.33203125" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6640625" customWidth="1"/>
-    <col min="9219" max="9219" width="19.6640625" customWidth="1"/>
-    <col min="9220" max="9221" width="19.33203125" customWidth="1"/>
+    <col min="8986" max="8986" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.36328125" customWidth="1"/>
+    <col min="9218" max="9218" width="12.6328125" customWidth="1"/>
+    <col min="9219" max="9219" width="19.6328125" customWidth="1"/>
+    <col min="9220" max="9221" width="19.36328125" customWidth="1"/>
     <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9238" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9240" max="9240" width="7" customWidth="1"/>
-    <col min="9242" max="9242" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="43.33203125" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6640625" customWidth="1"/>
-    <col min="9475" max="9475" width="19.6640625" customWidth="1"/>
-    <col min="9476" max="9477" width="19.33203125" customWidth="1"/>
+    <col min="9242" max="9242" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.36328125" customWidth="1"/>
+    <col min="9474" max="9474" width="12.6328125" customWidth="1"/>
+    <col min="9475" max="9475" width="19.6328125" customWidth="1"/>
+    <col min="9476" max="9477" width="19.36328125" customWidth="1"/>
     <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9494" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9496" max="9496" width="7" customWidth="1"/>
-    <col min="9498" max="9498" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="43.33203125" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6640625" customWidth="1"/>
-    <col min="9731" max="9731" width="19.6640625" customWidth="1"/>
-    <col min="9732" max="9733" width="19.33203125" customWidth="1"/>
+    <col min="9498" max="9498" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.36328125" customWidth="1"/>
+    <col min="9730" max="9730" width="12.6328125" customWidth="1"/>
+    <col min="9731" max="9731" width="19.6328125" customWidth="1"/>
+    <col min="9732" max="9733" width="19.36328125" customWidth="1"/>
     <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9750" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9752" max="9752" width="7" customWidth="1"/>
-    <col min="9754" max="9754" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="43.33203125" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6640625" customWidth="1"/>
-    <col min="9987" max="9987" width="19.6640625" customWidth="1"/>
-    <col min="9988" max="9989" width="19.33203125" customWidth="1"/>
+    <col min="9754" max="9754" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.36328125" customWidth="1"/>
+    <col min="9986" max="9986" width="12.6328125" customWidth="1"/>
+    <col min="9987" max="9987" width="19.6328125" customWidth="1"/>
+    <col min="9988" max="9989" width="19.36328125" customWidth="1"/>
     <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10006" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10008" max="10008" width="7" customWidth="1"/>
-    <col min="10010" max="10010" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="43.33203125" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6640625" customWidth="1"/>
-    <col min="10243" max="10243" width="19.6640625" customWidth="1"/>
-    <col min="10244" max="10245" width="19.33203125" customWidth="1"/>
+    <col min="10010" max="10010" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.36328125" customWidth="1"/>
+    <col min="10242" max="10242" width="12.6328125" customWidth="1"/>
+    <col min="10243" max="10243" width="19.6328125" customWidth="1"/>
+    <col min="10244" max="10245" width="19.36328125" customWidth="1"/>
     <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10262" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10264" max="10264" width="7" customWidth="1"/>
-    <col min="10266" max="10266" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="43.33203125" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6640625" customWidth="1"/>
-    <col min="10499" max="10499" width="19.6640625" customWidth="1"/>
-    <col min="10500" max="10501" width="19.33203125" customWidth="1"/>
+    <col min="10266" max="10266" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.36328125" customWidth="1"/>
+    <col min="10498" max="10498" width="12.6328125" customWidth="1"/>
+    <col min="10499" max="10499" width="19.6328125" customWidth="1"/>
+    <col min="10500" max="10501" width="19.36328125" customWidth="1"/>
     <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10518" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10520" max="10520" width="7" customWidth="1"/>
-    <col min="10522" max="10522" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="43.33203125" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6640625" customWidth="1"/>
-    <col min="10755" max="10755" width="19.6640625" customWidth="1"/>
-    <col min="10756" max="10757" width="19.33203125" customWidth="1"/>
+    <col min="10522" max="10522" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.36328125" customWidth="1"/>
+    <col min="10754" max="10754" width="12.6328125" customWidth="1"/>
+    <col min="10755" max="10755" width="19.6328125" customWidth="1"/>
+    <col min="10756" max="10757" width="19.36328125" customWidth="1"/>
     <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
-    <col min="10774" max="10774" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10776" max="10776" width="7" customWidth="1"/>
-    <col min="10778" max="10778" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="43.33203125" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6640625" customWidth="1"/>
-    <col min="11011" max="11011" width="19.6640625" customWidth="1"/>
-    <col min="11012" max="11013" width="19.33203125" customWidth="1"/>
+    <col min="10778" max="10778" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.36328125" customWidth="1"/>
+    <col min="11010" max="11010" width="12.6328125" customWidth="1"/>
+    <col min="11011" max="11011" width="19.6328125" customWidth="1"/>
+    <col min="11012" max="11013" width="19.36328125" customWidth="1"/>
     <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11030" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11032" max="11032" width="7" customWidth="1"/>
-    <col min="11034" max="11034" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="43.33203125" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6640625" customWidth="1"/>
-    <col min="11267" max="11267" width="19.6640625" customWidth="1"/>
-    <col min="11268" max="11269" width="19.33203125" customWidth="1"/>
+    <col min="11034" max="11034" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.36328125" customWidth="1"/>
+    <col min="11266" max="11266" width="12.6328125" customWidth="1"/>
+    <col min="11267" max="11267" width="19.6328125" customWidth="1"/>
+    <col min="11268" max="11269" width="19.36328125" customWidth="1"/>
     <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11286" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11288" max="11288" width="7" customWidth="1"/>
-    <col min="11290" max="11290" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="43.33203125" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6640625" customWidth="1"/>
-    <col min="11523" max="11523" width="19.6640625" customWidth="1"/>
-    <col min="11524" max="11525" width="19.33203125" customWidth="1"/>
+    <col min="11290" max="11290" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.36328125" customWidth="1"/>
+    <col min="11522" max="11522" width="12.6328125" customWidth="1"/>
+    <col min="11523" max="11523" width="19.6328125" customWidth="1"/>
+    <col min="11524" max="11525" width="19.36328125" customWidth="1"/>
     <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11542" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11544" max="11544" width="7" customWidth="1"/>
-    <col min="11546" max="11546" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="43.33203125" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6640625" customWidth="1"/>
-    <col min="11779" max="11779" width="19.6640625" customWidth="1"/>
-    <col min="11780" max="11781" width="19.33203125" customWidth="1"/>
+    <col min="11546" max="11546" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.36328125" customWidth="1"/>
+    <col min="11778" max="11778" width="12.6328125" customWidth="1"/>
+    <col min="11779" max="11779" width="19.6328125" customWidth="1"/>
+    <col min="11780" max="11781" width="19.36328125" customWidth="1"/>
     <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
-    <col min="11798" max="11798" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11800" max="11800" width="7" customWidth="1"/>
-    <col min="11802" max="11802" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="43.33203125" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6640625" customWidth="1"/>
-    <col min="12035" max="12035" width="19.6640625" customWidth="1"/>
-    <col min="12036" max="12037" width="19.33203125" customWidth="1"/>
+    <col min="11802" max="11802" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.36328125" customWidth="1"/>
+    <col min="12034" max="12034" width="12.6328125" customWidth="1"/>
+    <col min="12035" max="12035" width="19.6328125" customWidth="1"/>
+    <col min="12036" max="12037" width="19.36328125" customWidth="1"/>
     <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12054" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12056" max="12056" width="7" customWidth="1"/>
-    <col min="12058" max="12058" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="43.33203125" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6640625" customWidth="1"/>
-    <col min="12291" max="12291" width="19.6640625" customWidth="1"/>
-    <col min="12292" max="12293" width="19.33203125" customWidth="1"/>
+    <col min="12058" max="12058" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.36328125" customWidth="1"/>
+    <col min="12290" max="12290" width="12.6328125" customWidth="1"/>
+    <col min="12291" max="12291" width="19.6328125" customWidth="1"/>
+    <col min="12292" max="12293" width="19.36328125" customWidth="1"/>
     <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12310" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12312" max="12312" width="7" customWidth="1"/>
-    <col min="12314" max="12314" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="43.33203125" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6640625" customWidth="1"/>
-    <col min="12547" max="12547" width="19.6640625" customWidth="1"/>
-    <col min="12548" max="12549" width="19.33203125" customWidth="1"/>
+    <col min="12314" max="12314" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.36328125" customWidth="1"/>
+    <col min="12546" max="12546" width="12.6328125" customWidth="1"/>
+    <col min="12547" max="12547" width="19.6328125" customWidth="1"/>
+    <col min="12548" max="12549" width="19.36328125" customWidth="1"/>
     <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12566" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12568" max="12568" width="7" customWidth="1"/>
-    <col min="12570" max="12570" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="43.33203125" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6640625" customWidth="1"/>
-    <col min="12803" max="12803" width="19.6640625" customWidth="1"/>
-    <col min="12804" max="12805" width="19.33203125" customWidth="1"/>
+    <col min="12570" max="12570" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.36328125" customWidth="1"/>
+    <col min="12802" max="12802" width="12.6328125" customWidth="1"/>
+    <col min="12803" max="12803" width="19.6328125" customWidth="1"/>
+    <col min="12804" max="12805" width="19.36328125" customWidth="1"/>
     <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
-    <col min="12822" max="12822" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12824" max="12824" width="7" customWidth="1"/>
-    <col min="12826" max="12826" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="43.33203125" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6640625" customWidth="1"/>
-    <col min="13059" max="13059" width="19.6640625" customWidth="1"/>
-    <col min="13060" max="13061" width="19.33203125" customWidth="1"/>
+    <col min="12826" max="12826" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.36328125" customWidth="1"/>
+    <col min="13058" max="13058" width="12.6328125" customWidth="1"/>
+    <col min="13059" max="13059" width="19.6328125" customWidth="1"/>
+    <col min="13060" max="13061" width="19.36328125" customWidth="1"/>
     <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13078" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13080" max="13080" width="7" customWidth="1"/>
-    <col min="13082" max="13082" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="43.33203125" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6640625" customWidth="1"/>
-    <col min="13315" max="13315" width="19.6640625" customWidth="1"/>
-    <col min="13316" max="13317" width="19.33203125" customWidth="1"/>
+    <col min="13082" max="13082" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.36328125" customWidth="1"/>
+    <col min="13314" max="13314" width="12.6328125" customWidth="1"/>
+    <col min="13315" max="13315" width="19.6328125" customWidth="1"/>
+    <col min="13316" max="13317" width="19.36328125" customWidth="1"/>
     <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13334" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13336" max="13336" width="7" customWidth="1"/>
-    <col min="13338" max="13338" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="43.33203125" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6640625" customWidth="1"/>
-    <col min="13571" max="13571" width="19.6640625" customWidth="1"/>
-    <col min="13572" max="13573" width="19.33203125" customWidth="1"/>
+    <col min="13338" max="13338" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.36328125" customWidth="1"/>
+    <col min="13570" max="13570" width="12.6328125" customWidth="1"/>
+    <col min="13571" max="13571" width="19.6328125" customWidth="1"/>
+    <col min="13572" max="13573" width="19.36328125" customWidth="1"/>
     <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13590" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13592" max="13592" width="7" customWidth="1"/>
-    <col min="13594" max="13594" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="43.33203125" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6640625" customWidth="1"/>
-    <col min="13827" max="13827" width="19.6640625" customWidth="1"/>
-    <col min="13828" max="13829" width="19.33203125" customWidth="1"/>
+    <col min="13594" max="13594" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.36328125" customWidth="1"/>
+    <col min="13826" max="13826" width="12.6328125" customWidth="1"/>
+    <col min="13827" max="13827" width="19.6328125" customWidth="1"/>
+    <col min="13828" max="13829" width="19.36328125" customWidth="1"/>
     <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
-    <col min="13846" max="13846" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13848" max="13848" width="7" customWidth="1"/>
-    <col min="13850" max="13850" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="43.33203125" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6640625" customWidth="1"/>
-    <col min="14083" max="14083" width="19.6640625" customWidth="1"/>
-    <col min="14084" max="14085" width="19.33203125" customWidth="1"/>
+    <col min="13850" max="13850" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.36328125" customWidth="1"/>
+    <col min="14082" max="14082" width="12.6328125" customWidth="1"/>
+    <col min="14083" max="14083" width="19.6328125" customWidth="1"/>
+    <col min="14084" max="14085" width="19.36328125" customWidth="1"/>
     <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14102" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14104" max="14104" width="7" customWidth="1"/>
-    <col min="14106" max="14106" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="43.33203125" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6640625" customWidth="1"/>
-    <col min="14339" max="14339" width="19.6640625" customWidth="1"/>
-    <col min="14340" max="14341" width="19.33203125" customWidth="1"/>
+    <col min="14106" max="14106" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.36328125" customWidth="1"/>
+    <col min="14338" max="14338" width="12.6328125" customWidth="1"/>
+    <col min="14339" max="14339" width="19.6328125" customWidth="1"/>
+    <col min="14340" max="14341" width="19.36328125" customWidth="1"/>
     <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14358" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14360" max="14360" width="7" customWidth="1"/>
-    <col min="14362" max="14362" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="43.33203125" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6640625" customWidth="1"/>
-    <col min="14595" max="14595" width="19.6640625" customWidth="1"/>
-    <col min="14596" max="14597" width="19.33203125" customWidth="1"/>
+    <col min="14362" max="14362" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.36328125" customWidth="1"/>
+    <col min="14594" max="14594" width="12.6328125" customWidth="1"/>
+    <col min="14595" max="14595" width="19.6328125" customWidth="1"/>
+    <col min="14596" max="14597" width="19.36328125" customWidth="1"/>
     <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14614" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14616" max="14616" width="7" customWidth="1"/>
-    <col min="14618" max="14618" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="43.33203125" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6640625" customWidth="1"/>
-    <col min="14851" max="14851" width="19.6640625" customWidth="1"/>
-    <col min="14852" max="14853" width="19.33203125" customWidth="1"/>
+    <col min="14618" max="14618" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.36328125" customWidth="1"/>
+    <col min="14850" max="14850" width="12.6328125" customWidth="1"/>
+    <col min="14851" max="14851" width="19.6328125" customWidth="1"/>
+    <col min="14852" max="14853" width="19.36328125" customWidth="1"/>
     <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
-    <col min="14870" max="14870" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14872" max="14872" width="7" customWidth="1"/>
-    <col min="14874" max="14874" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="43.33203125" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6640625" customWidth="1"/>
-    <col min="15107" max="15107" width="19.6640625" customWidth="1"/>
-    <col min="15108" max="15109" width="19.33203125" customWidth="1"/>
+    <col min="14874" max="14874" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.36328125" customWidth="1"/>
+    <col min="15106" max="15106" width="12.6328125" customWidth="1"/>
+    <col min="15107" max="15107" width="19.6328125" customWidth="1"/>
+    <col min="15108" max="15109" width="19.36328125" customWidth="1"/>
     <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15126" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15128" max="15128" width="7" customWidth="1"/>
-    <col min="15130" max="15130" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="43.33203125" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6640625" customWidth="1"/>
-    <col min="15363" max="15363" width="19.6640625" customWidth="1"/>
-    <col min="15364" max="15365" width="19.33203125" customWidth="1"/>
+    <col min="15130" max="15130" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.36328125" customWidth="1"/>
+    <col min="15362" max="15362" width="12.6328125" customWidth="1"/>
+    <col min="15363" max="15363" width="19.6328125" customWidth="1"/>
+    <col min="15364" max="15365" width="19.36328125" customWidth="1"/>
     <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15382" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15384" max="15384" width="7" customWidth="1"/>
-    <col min="15386" max="15386" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="43.33203125" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6640625" customWidth="1"/>
-    <col min="15619" max="15619" width="19.6640625" customWidth="1"/>
-    <col min="15620" max="15621" width="19.33203125" customWidth="1"/>
+    <col min="15386" max="15386" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.36328125" customWidth="1"/>
+    <col min="15618" max="15618" width="12.6328125" customWidth="1"/>
+    <col min="15619" max="15619" width="19.6328125" customWidth="1"/>
+    <col min="15620" max="15621" width="19.36328125" customWidth="1"/>
     <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15638" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15640" max="15640" width="7" customWidth="1"/>
-    <col min="15642" max="15642" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="43.33203125" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6640625" customWidth="1"/>
-    <col min="15875" max="15875" width="19.6640625" customWidth="1"/>
-    <col min="15876" max="15877" width="19.33203125" customWidth="1"/>
+    <col min="15642" max="15642" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.36328125" customWidth="1"/>
+    <col min="15874" max="15874" width="12.6328125" customWidth="1"/>
+    <col min="15875" max="15875" width="19.6328125" customWidth="1"/>
+    <col min="15876" max="15877" width="19.36328125" customWidth="1"/>
     <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
-    <col min="15894" max="15894" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15896" max="15896" width="7" customWidth="1"/>
-    <col min="15898" max="15898" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="43.33203125" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6640625" customWidth="1"/>
-    <col min="16131" max="16131" width="19.6640625" customWidth="1"/>
-    <col min="16132" max="16133" width="19.33203125" customWidth="1"/>
+    <col min="15898" max="15898" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.36328125" customWidth="1"/>
+    <col min="16130" max="16130" width="12.6328125" customWidth="1"/>
+    <col min="16131" max="16131" width="19.6328125" customWidth="1"/>
+    <col min="16132" max="16133" width="19.36328125" customWidth="1"/>
     <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16150" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="16152" max="16152" width="7" customWidth="1"/>
-    <col min="16154" max="16154" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16154" max="16154" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -4581,7 +4551,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -4663,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -4743,7 +4713,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -4823,7 +4793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -4903,7 +4873,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -4983,7 +4953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -5079,23 +5049,23 @@
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.83203125"/>
+    <col min="13" max="21" width="8.81640625"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5166,7 +5136,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>217</v>
       </c>
@@ -5239,7 +5209,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>218</v>
       </c>
@@ -5311,7 +5281,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>219</v>
       </c>
@@ -5384,7 +5354,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="42"/>
       <c r="U7" s="42"/>
     </row>
@@ -5402,16 +5372,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>97</v>
       </c>
@@ -5506,7 +5476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -5554,7 +5524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -5602,7 +5572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -5666,16 +5636,16 @@
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+    <col min="15" max="15" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5722,7 +5692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5784,20 +5754,20 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="14.36328125" customWidth="1"/>
+    <col min="22" max="22" width="12.6328125" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5898,7 +5868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -6003,7 +5973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -6124,15 +6094,15 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6179,7 +6149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6236,24 +6206,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="11" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="11" width="16.453125" customWidth="1"/>
+    <col min="18" max="18" width="22.6328125" customWidth="1"/>
     <col min="22" max="22" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6321,7 +6291,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
@@ -6389,7 +6359,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -6457,7 +6427,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
@@ -6525,7 +6495,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -6593,7 +6563,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -6661,7 +6631,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -6729,7 +6699,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
@@ -6797,7 +6767,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>167</v>
       </c>
@@ -6865,7 +6835,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -6933,7 +6903,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>237</v>
       </c>
@@ -6944,7 +6914,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="43" t="s">
         <v>238</v>
       </c>
@@ -6955,7 +6925,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>239</v>
       </c>
@@ -6966,7 +6936,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="47" t="s">
         <v>246</v>
       </c>
@@ -6982,7 +6952,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6994,20 +6963,20 @@
       <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.5" customWidth="1"/>
+    <col min="6" max="7" width="17.6328125" customWidth="1"/>
+    <col min="8" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.6328125" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="72.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7078,7 +7047,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
@@ -7149,7 +7118,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>179</v>
       </c>
@@ -7220,7 +7189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>179</v>
       </c>
@@ -7291,7 +7260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>178</v>
       </c>
@@ -7362,7 +7331,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>178</v>
       </c>
@@ -7433,7 +7402,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>178</v>
       </c>
@@ -7504,7 +7473,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>183</v>
       </c>
@@ -7575,7 +7544,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>183</v>
       </c>
@@ -7646,7 +7615,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>184</v>
       </c>
@@ -7717,7 +7686,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>186</v>
       </c>
@@ -7789,7 +7758,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
@@ -7804,23 +7773,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="10" width="15.83203125" customWidth="1"/>
+    <col min="7" max="10" width="15.81640625" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="111.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="111.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7885,7 +7854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -7952,7 +7921,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -8018,7 +7987,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -8085,7 +8054,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
@@ -8155,21 +8124,21 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8237,7 +8206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -8305,7 +8274,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -8375,7 +8344,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -8445,7 +8414,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -8515,7 +8484,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -8585,7 +8554,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -8653,10 +8622,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P15" s="10"/>
     </row>
   </sheetData>
@@ -8671,24 +8640,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8789,7 +8758,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
@@ -8881,16 +8850,16 @@
         <v>1.5</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.72199999999999998</v>
+        <v>3.23</v>
       </c>
       <c r="AF2" s="2">
-        <v>0.33300000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -8991,7 +8960,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
@@ -9083,16 +9052,16 @@
         <v>1.5</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.72199999999999998</v>
+        <v>3.75</v>
       </c>
       <c r="AF4" s="2">
-        <v>0.33300000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -9193,7 +9162,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -9285,16 +9254,16 @@
         <v>4.38</v>
       </c>
       <c r="AE6" s="2">
-        <v>68</v>
+        <v>646</v>
       </c>
       <c r="AF6" s="2">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
@@ -9409,23 +9378,23 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9493,7 +9462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -9561,7 +9530,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -9629,7 +9598,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -9697,7 +9666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -9765,7 +9734,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9773,7 +9742,7 @@
       <c r="K6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>

--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F9543-0846-F64D-B3A7-63803A5C102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C75A12-3934-4F8D-A3E9-E9D82B54BB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="29560" windowWidth="30240" windowHeight="18880" tabRatio="993" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15460" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -50,33 +50,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={B4F5AB91-6F7C-483D-A592-89102691FFFB}</author>
-  </authors>
-  <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{26363D1B-78CF-2241-AFD8-CE7730A47A45}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="254">
   <si>
@@ -851,7 +824,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -892,12 +865,6 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1222,7 +1189,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,7 +1201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1246,7 +1213,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1683,32 +1650,32 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="17" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="23" width="10.5" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="17" width="12.453125" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" customWidth="1"/>
+    <col min="21" max="23" width="10.453125" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" customWidth="1"/>
+    <col min="25" max="25" width="12.6328125" customWidth="1"/>
+    <col min="27" max="27" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1959,7 +1926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2127,7 +2094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +2178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2295,7 +2262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +2346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2463,7 +2430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2563,16 +2530,16 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2586,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>235</v>
       </c>
@@ -2665,7 +2632,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
@@ -2729,21 +2696,21 @@
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2808,7 +2775,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -2873,7 +2840,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -2938,10 +2905,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O9" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O11" s="10"/>
     </row>
   </sheetData>
@@ -2957,26 +2924,26 @@
       <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="4" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3014,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>200</v>
       </c>
@@ -3117,7 +3084,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>200</v>
       </c>
@@ -3187,7 +3154,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>199</v>
       </c>
@@ -3258,7 +3225,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
@@ -3329,7 +3296,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>199</v>
       </c>
@@ -3400,7 +3367,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>199</v>
       </c>
@@ -3471,7 +3438,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -3543,7 +3510,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -3615,7 +3582,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
@@ -3687,7 +3654,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>197</v>
       </c>
@@ -3775,651 +3742,651 @@
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="5" width="19.36328125" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43.33203125" customWidth="1"/>
-    <col min="258" max="258" width="12.6640625" customWidth="1"/>
-    <col min="259" max="259" width="19.6640625" customWidth="1"/>
-    <col min="260" max="261" width="19.33203125" customWidth="1"/>
+    <col min="26" max="26" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.36328125" customWidth="1"/>
+    <col min="258" max="258" width="12.6328125" customWidth="1"/>
+    <col min="259" max="259" width="19.6328125" customWidth="1"/>
+    <col min="260" max="261" width="19.36328125" customWidth="1"/>
     <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="7" customWidth="1"/>
-    <col min="282" max="282" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="43.33203125" customWidth="1"/>
-    <col min="514" max="514" width="12.6640625" customWidth="1"/>
-    <col min="515" max="515" width="19.6640625" customWidth="1"/>
-    <col min="516" max="517" width="19.33203125" customWidth="1"/>
+    <col min="282" max="282" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.36328125" customWidth="1"/>
+    <col min="514" max="514" width="12.6328125" customWidth="1"/>
+    <col min="515" max="515" width="19.6328125" customWidth="1"/>
+    <col min="516" max="517" width="19.36328125" customWidth="1"/>
     <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="536" max="536" width="7" customWidth="1"/>
-    <col min="538" max="538" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="43.33203125" customWidth="1"/>
-    <col min="770" max="770" width="12.6640625" customWidth="1"/>
-    <col min="771" max="771" width="19.6640625" customWidth="1"/>
-    <col min="772" max="773" width="19.33203125" customWidth="1"/>
+    <col min="538" max="538" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.36328125" customWidth="1"/>
+    <col min="770" max="770" width="12.6328125" customWidth="1"/>
+    <col min="771" max="771" width="19.6328125" customWidth="1"/>
+    <col min="772" max="773" width="19.36328125" customWidth="1"/>
     <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="792" max="792" width="7" customWidth="1"/>
-    <col min="794" max="794" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="43.33203125" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6640625" customWidth="1"/>
-    <col min="1027" max="1027" width="19.6640625" customWidth="1"/>
-    <col min="1028" max="1029" width="19.33203125" customWidth="1"/>
+    <col min="794" max="794" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.36328125" customWidth="1"/>
+    <col min="1026" max="1026" width="12.6328125" customWidth="1"/>
+    <col min="1027" max="1027" width="19.6328125" customWidth="1"/>
+    <col min="1028" max="1029" width="19.36328125" customWidth="1"/>
     <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1046" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1048" max="1048" width="7" customWidth="1"/>
-    <col min="1050" max="1050" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="43.33203125" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6640625" customWidth="1"/>
-    <col min="1283" max="1283" width="19.6640625" customWidth="1"/>
-    <col min="1284" max="1285" width="19.33203125" customWidth="1"/>
+    <col min="1050" max="1050" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.36328125" customWidth="1"/>
+    <col min="1282" max="1282" width="12.6328125" customWidth="1"/>
+    <col min="1283" max="1283" width="19.6328125" customWidth="1"/>
+    <col min="1284" max="1285" width="19.36328125" customWidth="1"/>
     <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1302" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1304" max="1304" width="7" customWidth="1"/>
-    <col min="1306" max="1306" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="43.33203125" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6640625" customWidth="1"/>
-    <col min="1539" max="1539" width="19.6640625" customWidth="1"/>
-    <col min="1540" max="1541" width="19.33203125" customWidth="1"/>
+    <col min="1306" max="1306" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.36328125" customWidth="1"/>
+    <col min="1538" max="1538" width="12.6328125" customWidth="1"/>
+    <col min="1539" max="1539" width="19.6328125" customWidth="1"/>
+    <col min="1540" max="1541" width="19.36328125" customWidth="1"/>
     <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1558" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1560" max="1560" width="7" customWidth="1"/>
-    <col min="1562" max="1562" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="43.33203125" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6640625" customWidth="1"/>
-    <col min="1795" max="1795" width="19.6640625" customWidth="1"/>
-    <col min="1796" max="1797" width="19.33203125" customWidth="1"/>
+    <col min="1562" max="1562" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.36328125" customWidth="1"/>
+    <col min="1794" max="1794" width="12.6328125" customWidth="1"/>
+    <col min="1795" max="1795" width="19.6328125" customWidth="1"/>
+    <col min="1796" max="1797" width="19.36328125" customWidth="1"/>
     <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
-    <col min="1814" max="1814" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1816" max="1816" width="7" customWidth="1"/>
-    <col min="1818" max="1818" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="43.33203125" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6640625" customWidth="1"/>
-    <col min="2051" max="2051" width="19.6640625" customWidth="1"/>
-    <col min="2052" max="2053" width="19.33203125" customWidth="1"/>
+    <col min="1818" max="1818" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.36328125" customWidth="1"/>
+    <col min="2050" max="2050" width="12.6328125" customWidth="1"/>
+    <col min="2051" max="2051" width="19.6328125" customWidth="1"/>
+    <col min="2052" max="2053" width="19.36328125" customWidth="1"/>
     <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2070" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2072" max="2072" width="7" customWidth="1"/>
-    <col min="2074" max="2074" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="43.33203125" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6640625" customWidth="1"/>
-    <col min="2307" max="2307" width="19.6640625" customWidth="1"/>
-    <col min="2308" max="2309" width="19.33203125" customWidth="1"/>
+    <col min="2074" max="2074" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.36328125" customWidth="1"/>
+    <col min="2306" max="2306" width="12.6328125" customWidth="1"/>
+    <col min="2307" max="2307" width="19.6328125" customWidth="1"/>
+    <col min="2308" max="2309" width="19.36328125" customWidth="1"/>
     <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2326" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2328" max="2328" width="7" customWidth="1"/>
-    <col min="2330" max="2330" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="43.33203125" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6640625" customWidth="1"/>
-    <col min="2563" max="2563" width="19.6640625" customWidth="1"/>
-    <col min="2564" max="2565" width="19.33203125" customWidth="1"/>
+    <col min="2330" max="2330" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.36328125" customWidth="1"/>
+    <col min="2562" max="2562" width="12.6328125" customWidth="1"/>
+    <col min="2563" max="2563" width="19.6328125" customWidth="1"/>
+    <col min="2564" max="2565" width="19.36328125" customWidth="1"/>
     <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2582" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2584" max="2584" width="7" customWidth="1"/>
-    <col min="2586" max="2586" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="43.33203125" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6640625" customWidth="1"/>
-    <col min="2819" max="2819" width="19.6640625" customWidth="1"/>
-    <col min="2820" max="2821" width="19.33203125" customWidth="1"/>
+    <col min="2586" max="2586" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.36328125" customWidth="1"/>
+    <col min="2818" max="2818" width="12.6328125" customWidth="1"/>
+    <col min="2819" max="2819" width="19.6328125" customWidth="1"/>
+    <col min="2820" max="2821" width="19.36328125" customWidth="1"/>
     <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
-    <col min="2838" max="2838" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2840" max="2840" width="7" customWidth="1"/>
-    <col min="2842" max="2842" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="43.33203125" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6640625" customWidth="1"/>
-    <col min="3075" max="3075" width="19.6640625" customWidth="1"/>
-    <col min="3076" max="3077" width="19.33203125" customWidth="1"/>
+    <col min="2842" max="2842" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.36328125" customWidth="1"/>
+    <col min="3074" max="3074" width="12.6328125" customWidth="1"/>
+    <col min="3075" max="3075" width="19.6328125" customWidth="1"/>
+    <col min="3076" max="3077" width="19.36328125" customWidth="1"/>
     <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3094" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3096" max="3096" width="7" customWidth="1"/>
-    <col min="3098" max="3098" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="43.33203125" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6640625" customWidth="1"/>
-    <col min="3331" max="3331" width="19.6640625" customWidth="1"/>
-    <col min="3332" max="3333" width="19.33203125" customWidth="1"/>
+    <col min="3098" max="3098" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.36328125" customWidth="1"/>
+    <col min="3330" max="3330" width="12.6328125" customWidth="1"/>
+    <col min="3331" max="3331" width="19.6328125" customWidth="1"/>
+    <col min="3332" max="3333" width="19.36328125" customWidth="1"/>
     <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3350" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3352" max="3352" width="7" customWidth="1"/>
-    <col min="3354" max="3354" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="43.33203125" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6640625" customWidth="1"/>
-    <col min="3587" max="3587" width="19.6640625" customWidth="1"/>
-    <col min="3588" max="3589" width="19.33203125" customWidth="1"/>
+    <col min="3354" max="3354" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.36328125" customWidth="1"/>
+    <col min="3586" max="3586" width="12.6328125" customWidth="1"/>
+    <col min="3587" max="3587" width="19.6328125" customWidth="1"/>
+    <col min="3588" max="3589" width="19.36328125" customWidth="1"/>
     <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3606" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3608" max="3608" width="7" customWidth="1"/>
-    <col min="3610" max="3610" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="43.33203125" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6640625" customWidth="1"/>
-    <col min="3843" max="3843" width="19.6640625" customWidth="1"/>
-    <col min="3844" max="3845" width="19.33203125" customWidth="1"/>
+    <col min="3610" max="3610" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.36328125" customWidth="1"/>
+    <col min="3842" max="3842" width="12.6328125" customWidth="1"/>
+    <col min="3843" max="3843" width="19.6328125" customWidth="1"/>
+    <col min="3844" max="3845" width="19.36328125" customWidth="1"/>
     <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
-    <col min="3862" max="3862" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3864" max="3864" width="7" customWidth="1"/>
-    <col min="3866" max="3866" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="43.33203125" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6640625" customWidth="1"/>
-    <col min="4099" max="4099" width="19.6640625" customWidth="1"/>
-    <col min="4100" max="4101" width="19.33203125" customWidth="1"/>
+    <col min="3866" max="3866" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.36328125" customWidth="1"/>
+    <col min="4098" max="4098" width="12.6328125" customWidth="1"/>
+    <col min="4099" max="4099" width="19.6328125" customWidth="1"/>
+    <col min="4100" max="4101" width="19.36328125" customWidth="1"/>
     <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4118" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4120" max="4120" width="7" customWidth="1"/>
-    <col min="4122" max="4122" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="43.33203125" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6640625" customWidth="1"/>
-    <col min="4355" max="4355" width="19.6640625" customWidth="1"/>
-    <col min="4356" max="4357" width="19.33203125" customWidth="1"/>
+    <col min="4122" max="4122" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.36328125" customWidth="1"/>
+    <col min="4354" max="4354" width="12.6328125" customWidth="1"/>
+    <col min="4355" max="4355" width="19.6328125" customWidth="1"/>
+    <col min="4356" max="4357" width="19.36328125" customWidth="1"/>
     <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4374" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4376" max="4376" width="7" customWidth="1"/>
-    <col min="4378" max="4378" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="43.33203125" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6640625" customWidth="1"/>
-    <col min="4611" max="4611" width="19.6640625" customWidth="1"/>
-    <col min="4612" max="4613" width="19.33203125" customWidth="1"/>
+    <col min="4378" max="4378" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.36328125" customWidth="1"/>
+    <col min="4610" max="4610" width="12.6328125" customWidth="1"/>
+    <col min="4611" max="4611" width="19.6328125" customWidth="1"/>
+    <col min="4612" max="4613" width="19.36328125" customWidth="1"/>
     <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4630" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4632" max="4632" width="7" customWidth="1"/>
-    <col min="4634" max="4634" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="43.33203125" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6640625" customWidth="1"/>
-    <col min="4867" max="4867" width="19.6640625" customWidth="1"/>
-    <col min="4868" max="4869" width="19.33203125" customWidth="1"/>
+    <col min="4634" max="4634" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.36328125" customWidth="1"/>
+    <col min="4866" max="4866" width="12.6328125" customWidth="1"/>
+    <col min="4867" max="4867" width="19.6328125" customWidth="1"/>
+    <col min="4868" max="4869" width="19.36328125" customWidth="1"/>
     <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
-    <col min="4886" max="4886" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4888" max="4888" width="7" customWidth="1"/>
-    <col min="4890" max="4890" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="43.33203125" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6640625" customWidth="1"/>
-    <col min="5123" max="5123" width="19.6640625" customWidth="1"/>
-    <col min="5124" max="5125" width="19.33203125" customWidth="1"/>
+    <col min="4890" max="4890" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.36328125" customWidth="1"/>
+    <col min="5122" max="5122" width="12.6328125" customWidth="1"/>
+    <col min="5123" max="5123" width="19.6328125" customWidth="1"/>
+    <col min="5124" max="5125" width="19.36328125" customWidth="1"/>
     <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5142" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5144" max="5144" width="7" customWidth="1"/>
-    <col min="5146" max="5146" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="43.33203125" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6640625" customWidth="1"/>
-    <col min="5379" max="5379" width="19.6640625" customWidth="1"/>
-    <col min="5380" max="5381" width="19.33203125" customWidth="1"/>
+    <col min="5146" max="5146" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.36328125" customWidth="1"/>
+    <col min="5378" max="5378" width="12.6328125" customWidth="1"/>
+    <col min="5379" max="5379" width="19.6328125" customWidth="1"/>
+    <col min="5380" max="5381" width="19.36328125" customWidth="1"/>
     <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5398" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5400" max="5400" width="7" customWidth="1"/>
-    <col min="5402" max="5402" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="43.33203125" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6640625" customWidth="1"/>
-    <col min="5635" max="5635" width="19.6640625" customWidth="1"/>
-    <col min="5636" max="5637" width="19.33203125" customWidth="1"/>
+    <col min="5402" max="5402" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.36328125" customWidth="1"/>
+    <col min="5634" max="5634" width="12.6328125" customWidth="1"/>
+    <col min="5635" max="5635" width="19.6328125" customWidth="1"/>
+    <col min="5636" max="5637" width="19.36328125" customWidth="1"/>
     <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5654" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5656" max="5656" width="7" customWidth="1"/>
-    <col min="5658" max="5658" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="43.33203125" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6640625" customWidth="1"/>
-    <col min="5891" max="5891" width="19.6640625" customWidth="1"/>
-    <col min="5892" max="5893" width="19.33203125" customWidth="1"/>
+    <col min="5658" max="5658" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.36328125" customWidth="1"/>
+    <col min="5890" max="5890" width="12.6328125" customWidth="1"/>
+    <col min="5891" max="5891" width="19.6328125" customWidth="1"/>
+    <col min="5892" max="5893" width="19.36328125" customWidth="1"/>
     <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
-    <col min="5910" max="5910" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5912" max="5912" width="7" customWidth="1"/>
-    <col min="5914" max="5914" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="43.33203125" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6640625" customWidth="1"/>
-    <col min="6147" max="6147" width="19.6640625" customWidth="1"/>
-    <col min="6148" max="6149" width="19.33203125" customWidth="1"/>
+    <col min="5914" max="5914" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.36328125" customWidth="1"/>
+    <col min="6146" max="6146" width="12.6328125" customWidth="1"/>
+    <col min="6147" max="6147" width="19.6328125" customWidth="1"/>
+    <col min="6148" max="6149" width="19.36328125" customWidth="1"/>
     <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6166" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6168" max="6168" width="7" customWidth="1"/>
-    <col min="6170" max="6170" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="43.33203125" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6640625" customWidth="1"/>
-    <col min="6403" max="6403" width="19.6640625" customWidth="1"/>
-    <col min="6404" max="6405" width="19.33203125" customWidth="1"/>
+    <col min="6170" max="6170" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.36328125" customWidth="1"/>
+    <col min="6402" max="6402" width="12.6328125" customWidth="1"/>
+    <col min="6403" max="6403" width="19.6328125" customWidth="1"/>
+    <col min="6404" max="6405" width="19.36328125" customWidth="1"/>
     <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6422" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6424" max="6424" width="7" customWidth="1"/>
-    <col min="6426" max="6426" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="43.33203125" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6640625" customWidth="1"/>
-    <col min="6659" max="6659" width="19.6640625" customWidth="1"/>
-    <col min="6660" max="6661" width="19.33203125" customWidth="1"/>
+    <col min="6426" max="6426" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.36328125" customWidth="1"/>
+    <col min="6658" max="6658" width="12.6328125" customWidth="1"/>
+    <col min="6659" max="6659" width="19.6328125" customWidth="1"/>
+    <col min="6660" max="6661" width="19.36328125" customWidth="1"/>
     <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6678" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6680" max="6680" width="7" customWidth="1"/>
-    <col min="6682" max="6682" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="43.33203125" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6640625" customWidth="1"/>
-    <col min="6915" max="6915" width="19.6640625" customWidth="1"/>
-    <col min="6916" max="6917" width="19.33203125" customWidth="1"/>
+    <col min="6682" max="6682" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.36328125" customWidth="1"/>
+    <col min="6914" max="6914" width="12.6328125" customWidth="1"/>
+    <col min="6915" max="6915" width="19.6328125" customWidth="1"/>
+    <col min="6916" max="6917" width="19.36328125" customWidth="1"/>
     <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
-    <col min="6934" max="6934" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6936" max="6936" width="7" customWidth="1"/>
-    <col min="6938" max="6938" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="43.33203125" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6640625" customWidth="1"/>
-    <col min="7171" max="7171" width="19.6640625" customWidth="1"/>
-    <col min="7172" max="7173" width="19.33203125" customWidth="1"/>
+    <col min="6938" max="6938" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.36328125" customWidth="1"/>
+    <col min="7170" max="7170" width="12.6328125" customWidth="1"/>
+    <col min="7171" max="7171" width="19.6328125" customWidth="1"/>
+    <col min="7172" max="7173" width="19.36328125" customWidth="1"/>
     <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7190" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7192" max="7192" width="7" customWidth="1"/>
-    <col min="7194" max="7194" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="43.33203125" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6640625" customWidth="1"/>
-    <col min="7427" max="7427" width="19.6640625" customWidth="1"/>
-    <col min="7428" max="7429" width="19.33203125" customWidth="1"/>
+    <col min="7194" max="7194" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.36328125" customWidth="1"/>
+    <col min="7426" max="7426" width="12.6328125" customWidth="1"/>
+    <col min="7427" max="7427" width="19.6328125" customWidth="1"/>
+    <col min="7428" max="7429" width="19.36328125" customWidth="1"/>
     <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7446" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7448" max="7448" width="7" customWidth="1"/>
-    <col min="7450" max="7450" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="43.33203125" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6640625" customWidth="1"/>
-    <col min="7683" max="7683" width="19.6640625" customWidth="1"/>
-    <col min="7684" max="7685" width="19.33203125" customWidth="1"/>
+    <col min="7450" max="7450" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.36328125" customWidth="1"/>
+    <col min="7682" max="7682" width="12.6328125" customWidth="1"/>
+    <col min="7683" max="7683" width="19.6328125" customWidth="1"/>
+    <col min="7684" max="7685" width="19.36328125" customWidth="1"/>
     <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7702" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7704" max="7704" width="7" customWidth="1"/>
-    <col min="7706" max="7706" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="43.33203125" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6640625" customWidth="1"/>
-    <col min="7939" max="7939" width="19.6640625" customWidth="1"/>
-    <col min="7940" max="7941" width="19.33203125" customWidth="1"/>
+    <col min="7706" max="7706" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.36328125" customWidth="1"/>
+    <col min="7938" max="7938" width="12.6328125" customWidth="1"/>
+    <col min="7939" max="7939" width="19.6328125" customWidth="1"/>
+    <col min="7940" max="7941" width="19.36328125" customWidth="1"/>
     <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
-    <col min="7958" max="7958" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7960" max="7960" width="7" customWidth="1"/>
-    <col min="7962" max="7962" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="43.33203125" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6640625" customWidth="1"/>
-    <col min="8195" max="8195" width="19.6640625" customWidth="1"/>
-    <col min="8196" max="8197" width="19.33203125" customWidth="1"/>
+    <col min="7962" max="7962" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.36328125" customWidth="1"/>
+    <col min="8194" max="8194" width="12.6328125" customWidth="1"/>
+    <col min="8195" max="8195" width="19.6328125" customWidth="1"/>
+    <col min="8196" max="8197" width="19.36328125" customWidth="1"/>
     <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8214" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8216" max="8216" width="7" customWidth="1"/>
-    <col min="8218" max="8218" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="43.33203125" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6640625" customWidth="1"/>
-    <col min="8451" max="8451" width="19.6640625" customWidth="1"/>
-    <col min="8452" max="8453" width="19.33203125" customWidth="1"/>
+    <col min="8218" max="8218" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.36328125" customWidth="1"/>
+    <col min="8450" max="8450" width="12.6328125" customWidth="1"/>
+    <col min="8451" max="8451" width="19.6328125" customWidth="1"/>
+    <col min="8452" max="8453" width="19.36328125" customWidth="1"/>
     <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8470" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8472" max="8472" width="7" customWidth="1"/>
-    <col min="8474" max="8474" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="43.33203125" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6640625" customWidth="1"/>
-    <col min="8707" max="8707" width="19.6640625" customWidth="1"/>
-    <col min="8708" max="8709" width="19.33203125" customWidth="1"/>
+    <col min="8474" max="8474" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.36328125" customWidth="1"/>
+    <col min="8706" max="8706" width="12.6328125" customWidth="1"/>
+    <col min="8707" max="8707" width="19.6328125" customWidth="1"/>
+    <col min="8708" max="8709" width="19.36328125" customWidth="1"/>
     <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8726" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8728" max="8728" width="7" customWidth="1"/>
-    <col min="8730" max="8730" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="43.33203125" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6640625" customWidth="1"/>
-    <col min="8963" max="8963" width="19.6640625" customWidth="1"/>
-    <col min="8964" max="8965" width="19.33203125" customWidth="1"/>
+    <col min="8730" max="8730" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.36328125" customWidth="1"/>
+    <col min="8962" max="8962" width="12.6328125" customWidth="1"/>
+    <col min="8963" max="8963" width="19.6328125" customWidth="1"/>
+    <col min="8964" max="8965" width="19.36328125" customWidth="1"/>
     <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
-    <col min="8982" max="8982" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8984" max="8984" width="7" customWidth="1"/>
-    <col min="8986" max="8986" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="43.33203125" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6640625" customWidth="1"/>
-    <col min="9219" max="9219" width="19.6640625" customWidth="1"/>
-    <col min="9220" max="9221" width="19.33203125" customWidth="1"/>
+    <col min="8986" max="8986" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.36328125" customWidth="1"/>
+    <col min="9218" max="9218" width="12.6328125" customWidth="1"/>
+    <col min="9219" max="9219" width="19.6328125" customWidth="1"/>
+    <col min="9220" max="9221" width="19.36328125" customWidth="1"/>
     <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9238" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9240" max="9240" width="7" customWidth="1"/>
-    <col min="9242" max="9242" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="43.33203125" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6640625" customWidth="1"/>
-    <col min="9475" max="9475" width="19.6640625" customWidth="1"/>
-    <col min="9476" max="9477" width="19.33203125" customWidth="1"/>
+    <col min="9242" max="9242" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.36328125" customWidth="1"/>
+    <col min="9474" max="9474" width="12.6328125" customWidth="1"/>
+    <col min="9475" max="9475" width="19.6328125" customWidth="1"/>
+    <col min="9476" max="9477" width="19.36328125" customWidth="1"/>
     <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9494" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9496" max="9496" width="7" customWidth="1"/>
-    <col min="9498" max="9498" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="43.33203125" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6640625" customWidth="1"/>
-    <col min="9731" max="9731" width="19.6640625" customWidth="1"/>
-    <col min="9732" max="9733" width="19.33203125" customWidth="1"/>
+    <col min="9498" max="9498" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.36328125" customWidth="1"/>
+    <col min="9730" max="9730" width="12.6328125" customWidth="1"/>
+    <col min="9731" max="9731" width="19.6328125" customWidth="1"/>
+    <col min="9732" max="9733" width="19.36328125" customWidth="1"/>
     <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9750" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9752" max="9752" width="7" customWidth="1"/>
-    <col min="9754" max="9754" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="43.33203125" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6640625" customWidth="1"/>
-    <col min="9987" max="9987" width="19.6640625" customWidth="1"/>
-    <col min="9988" max="9989" width="19.33203125" customWidth="1"/>
+    <col min="9754" max="9754" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.36328125" customWidth="1"/>
+    <col min="9986" max="9986" width="12.6328125" customWidth="1"/>
+    <col min="9987" max="9987" width="19.6328125" customWidth="1"/>
+    <col min="9988" max="9989" width="19.36328125" customWidth="1"/>
     <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10006" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10008" max="10008" width="7" customWidth="1"/>
-    <col min="10010" max="10010" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="43.33203125" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6640625" customWidth="1"/>
-    <col min="10243" max="10243" width="19.6640625" customWidth="1"/>
-    <col min="10244" max="10245" width="19.33203125" customWidth="1"/>
+    <col min="10010" max="10010" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.36328125" customWidth="1"/>
+    <col min="10242" max="10242" width="12.6328125" customWidth="1"/>
+    <col min="10243" max="10243" width="19.6328125" customWidth="1"/>
+    <col min="10244" max="10245" width="19.36328125" customWidth="1"/>
     <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10262" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10264" max="10264" width="7" customWidth="1"/>
-    <col min="10266" max="10266" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="43.33203125" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6640625" customWidth="1"/>
-    <col min="10499" max="10499" width="19.6640625" customWidth="1"/>
-    <col min="10500" max="10501" width="19.33203125" customWidth="1"/>
+    <col min="10266" max="10266" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.36328125" customWidth="1"/>
+    <col min="10498" max="10498" width="12.6328125" customWidth="1"/>
+    <col min="10499" max="10499" width="19.6328125" customWidth="1"/>
+    <col min="10500" max="10501" width="19.36328125" customWidth="1"/>
     <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10518" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10520" max="10520" width="7" customWidth="1"/>
-    <col min="10522" max="10522" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="43.33203125" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6640625" customWidth="1"/>
-    <col min="10755" max="10755" width="19.6640625" customWidth="1"/>
-    <col min="10756" max="10757" width="19.33203125" customWidth="1"/>
+    <col min="10522" max="10522" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.36328125" customWidth="1"/>
+    <col min="10754" max="10754" width="12.6328125" customWidth="1"/>
+    <col min="10755" max="10755" width="19.6328125" customWidth="1"/>
+    <col min="10756" max="10757" width="19.36328125" customWidth="1"/>
     <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
-    <col min="10774" max="10774" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10776" max="10776" width="7" customWidth="1"/>
-    <col min="10778" max="10778" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="43.33203125" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6640625" customWidth="1"/>
-    <col min="11011" max="11011" width="19.6640625" customWidth="1"/>
-    <col min="11012" max="11013" width="19.33203125" customWidth="1"/>
+    <col min="10778" max="10778" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.36328125" customWidth="1"/>
+    <col min="11010" max="11010" width="12.6328125" customWidth="1"/>
+    <col min="11011" max="11011" width="19.6328125" customWidth="1"/>
+    <col min="11012" max="11013" width="19.36328125" customWidth="1"/>
     <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11030" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11032" max="11032" width="7" customWidth="1"/>
-    <col min="11034" max="11034" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="43.33203125" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6640625" customWidth="1"/>
-    <col min="11267" max="11267" width="19.6640625" customWidth="1"/>
-    <col min="11268" max="11269" width="19.33203125" customWidth="1"/>
+    <col min="11034" max="11034" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.36328125" customWidth="1"/>
+    <col min="11266" max="11266" width="12.6328125" customWidth="1"/>
+    <col min="11267" max="11267" width="19.6328125" customWidth="1"/>
+    <col min="11268" max="11269" width="19.36328125" customWidth="1"/>
     <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11286" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11288" max="11288" width="7" customWidth="1"/>
-    <col min="11290" max="11290" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="43.33203125" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6640625" customWidth="1"/>
-    <col min="11523" max="11523" width="19.6640625" customWidth="1"/>
-    <col min="11524" max="11525" width="19.33203125" customWidth="1"/>
+    <col min="11290" max="11290" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.36328125" customWidth="1"/>
+    <col min="11522" max="11522" width="12.6328125" customWidth="1"/>
+    <col min="11523" max="11523" width="19.6328125" customWidth="1"/>
+    <col min="11524" max="11525" width="19.36328125" customWidth="1"/>
     <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11542" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11544" max="11544" width="7" customWidth="1"/>
-    <col min="11546" max="11546" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="43.33203125" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6640625" customWidth="1"/>
-    <col min="11779" max="11779" width="19.6640625" customWidth="1"/>
-    <col min="11780" max="11781" width="19.33203125" customWidth="1"/>
+    <col min="11546" max="11546" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.36328125" customWidth="1"/>
+    <col min="11778" max="11778" width="12.6328125" customWidth="1"/>
+    <col min="11779" max="11779" width="19.6328125" customWidth="1"/>
+    <col min="11780" max="11781" width="19.36328125" customWidth="1"/>
     <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
-    <col min="11798" max="11798" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11800" max="11800" width="7" customWidth="1"/>
-    <col min="11802" max="11802" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="43.33203125" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6640625" customWidth="1"/>
-    <col min="12035" max="12035" width="19.6640625" customWidth="1"/>
-    <col min="12036" max="12037" width="19.33203125" customWidth="1"/>
+    <col min="11802" max="11802" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.36328125" customWidth="1"/>
+    <col min="12034" max="12034" width="12.6328125" customWidth="1"/>
+    <col min="12035" max="12035" width="19.6328125" customWidth="1"/>
+    <col min="12036" max="12037" width="19.36328125" customWidth="1"/>
     <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12054" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12056" max="12056" width="7" customWidth="1"/>
-    <col min="12058" max="12058" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="43.33203125" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6640625" customWidth="1"/>
-    <col min="12291" max="12291" width="19.6640625" customWidth="1"/>
-    <col min="12292" max="12293" width="19.33203125" customWidth="1"/>
+    <col min="12058" max="12058" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.36328125" customWidth="1"/>
+    <col min="12290" max="12290" width="12.6328125" customWidth="1"/>
+    <col min="12291" max="12291" width="19.6328125" customWidth="1"/>
+    <col min="12292" max="12293" width="19.36328125" customWidth="1"/>
     <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12310" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12312" max="12312" width="7" customWidth="1"/>
-    <col min="12314" max="12314" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="43.33203125" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6640625" customWidth="1"/>
-    <col min="12547" max="12547" width="19.6640625" customWidth="1"/>
-    <col min="12548" max="12549" width="19.33203125" customWidth="1"/>
+    <col min="12314" max="12314" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.36328125" customWidth="1"/>
+    <col min="12546" max="12546" width="12.6328125" customWidth="1"/>
+    <col min="12547" max="12547" width="19.6328125" customWidth="1"/>
+    <col min="12548" max="12549" width="19.36328125" customWidth="1"/>
     <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12566" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12568" max="12568" width="7" customWidth="1"/>
-    <col min="12570" max="12570" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="43.33203125" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6640625" customWidth="1"/>
-    <col min="12803" max="12803" width="19.6640625" customWidth="1"/>
-    <col min="12804" max="12805" width="19.33203125" customWidth="1"/>
+    <col min="12570" max="12570" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.36328125" customWidth="1"/>
+    <col min="12802" max="12802" width="12.6328125" customWidth="1"/>
+    <col min="12803" max="12803" width="19.6328125" customWidth="1"/>
+    <col min="12804" max="12805" width="19.36328125" customWidth="1"/>
     <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
-    <col min="12822" max="12822" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12824" max="12824" width="7" customWidth="1"/>
-    <col min="12826" max="12826" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="43.33203125" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6640625" customWidth="1"/>
-    <col min="13059" max="13059" width="19.6640625" customWidth="1"/>
-    <col min="13060" max="13061" width="19.33203125" customWidth="1"/>
+    <col min="12826" max="12826" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.36328125" customWidth="1"/>
+    <col min="13058" max="13058" width="12.6328125" customWidth="1"/>
+    <col min="13059" max="13059" width="19.6328125" customWidth="1"/>
+    <col min="13060" max="13061" width="19.36328125" customWidth="1"/>
     <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13078" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13080" max="13080" width="7" customWidth="1"/>
-    <col min="13082" max="13082" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="43.33203125" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6640625" customWidth="1"/>
-    <col min="13315" max="13315" width="19.6640625" customWidth="1"/>
-    <col min="13316" max="13317" width="19.33203125" customWidth="1"/>
+    <col min="13082" max="13082" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.36328125" customWidth="1"/>
+    <col min="13314" max="13314" width="12.6328125" customWidth="1"/>
+    <col min="13315" max="13315" width="19.6328125" customWidth="1"/>
+    <col min="13316" max="13317" width="19.36328125" customWidth="1"/>
     <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13334" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13336" max="13336" width="7" customWidth="1"/>
-    <col min="13338" max="13338" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="43.33203125" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6640625" customWidth="1"/>
-    <col min="13571" max="13571" width="19.6640625" customWidth="1"/>
-    <col min="13572" max="13573" width="19.33203125" customWidth="1"/>
+    <col min="13338" max="13338" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.36328125" customWidth="1"/>
+    <col min="13570" max="13570" width="12.6328125" customWidth="1"/>
+    <col min="13571" max="13571" width="19.6328125" customWidth="1"/>
+    <col min="13572" max="13573" width="19.36328125" customWidth="1"/>
     <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13590" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13592" max="13592" width="7" customWidth="1"/>
-    <col min="13594" max="13594" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="43.33203125" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6640625" customWidth="1"/>
-    <col min="13827" max="13827" width="19.6640625" customWidth="1"/>
-    <col min="13828" max="13829" width="19.33203125" customWidth="1"/>
+    <col min="13594" max="13594" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.36328125" customWidth="1"/>
+    <col min="13826" max="13826" width="12.6328125" customWidth="1"/>
+    <col min="13827" max="13827" width="19.6328125" customWidth="1"/>
+    <col min="13828" max="13829" width="19.36328125" customWidth="1"/>
     <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
-    <col min="13846" max="13846" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13848" max="13848" width="7" customWidth="1"/>
-    <col min="13850" max="13850" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="43.33203125" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6640625" customWidth="1"/>
-    <col min="14083" max="14083" width="19.6640625" customWidth="1"/>
-    <col min="14084" max="14085" width="19.33203125" customWidth="1"/>
+    <col min="13850" max="13850" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.36328125" customWidth="1"/>
+    <col min="14082" max="14082" width="12.6328125" customWidth="1"/>
+    <col min="14083" max="14083" width="19.6328125" customWidth="1"/>
+    <col min="14084" max="14085" width="19.36328125" customWidth="1"/>
     <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14102" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14104" max="14104" width="7" customWidth="1"/>
-    <col min="14106" max="14106" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="43.33203125" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6640625" customWidth="1"/>
-    <col min="14339" max="14339" width="19.6640625" customWidth="1"/>
-    <col min="14340" max="14341" width="19.33203125" customWidth="1"/>
+    <col min="14106" max="14106" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.36328125" customWidth="1"/>
+    <col min="14338" max="14338" width="12.6328125" customWidth="1"/>
+    <col min="14339" max="14339" width="19.6328125" customWidth="1"/>
+    <col min="14340" max="14341" width="19.36328125" customWidth="1"/>
     <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14358" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14360" max="14360" width="7" customWidth="1"/>
-    <col min="14362" max="14362" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="43.33203125" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6640625" customWidth="1"/>
-    <col min="14595" max="14595" width="19.6640625" customWidth="1"/>
-    <col min="14596" max="14597" width="19.33203125" customWidth="1"/>
+    <col min="14362" max="14362" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.36328125" customWidth="1"/>
+    <col min="14594" max="14594" width="12.6328125" customWidth="1"/>
+    <col min="14595" max="14595" width="19.6328125" customWidth="1"/>
+    <col min="14596" max="14597" width="19.36328125" customWidth="1"/>
     <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14614" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14616" max="14616" width="7" customWidth="1"/>
-    <col min="14618" max="14618" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="43.33203125" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6640625" customWidth="1"/>
-    <col min="14851" max="14851" width="19.6640625" customWidth="1"/>
-    <col min="14852" max="14853" width="19.33203125" customWidth="1"/>
+    <col min="14618" max="14618" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.36328125" customWidth="1"/>
+    <col min="14850" max="14850" width="12.6328125" customWidth="1"/>
+    <col min="14851" max="14851" width="19.6328125" customWidth="1"/>
+    <col min="14852" max="14853" width="19.36328125" customWidth="1"/>
     <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
-    <col min="14870" max="14870" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14872" max="14872" width="7" customWidth="1"/>
-    <col min="14874" max="14874" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="43.33203125" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6640625" customWidth="1"/>
-    <col min="15107" max="15107" width="19.6640625" customWidth="1"/>
-    <col min="15108" max="15109" width="19.33203125" customWidth="1"/>
+    <col min="14874" max="14874" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.36328125" customWidth="1"/>
+    <col min="15106" max="15106" width="12.6328125" customWidth="1"/>
+    <col min="15107" max="15107" width="19.6328125" customWidth="1"/>
+    <col min="15108" max="15109" width="19.36328125" customWidth="1"/>
     <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15126" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15128" max="15128" width="7" customWidth="1"/>
-    <col min="15130" max="15130" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="43.33203125" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6640625" customWidth="1"/>
-    <col min="15363" max="15363" width="19.6640625" customWidth="1"/>
-    <col min="15364" max="15365" width="19.33203125" customWidth="1"/>
+    <col min="15130" max="15130" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.36328125" customWidth="1"/>
+    <col min="15362" max="15362" width="12.6328125" customWidth="1"/>
+    <col min="15363" max="15363" width="19.6328125" customWidth="1"/>
+    <col min="15364" max="15365" width="19.36328125" customWidth="1"/>
     <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15382" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15384" max="15384" width="7" customWidth="1"/>
-    <col min="15386" max="15386" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="43.33203125" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6640625" customWidth="1"/>
-    <col min="15619" max="15619" width="19.6640625" customWidth="1"/>
-    <col min="15620" max="15621" width="19.33203125" customWidth="1"/>
+    <col min="15386" max="15386" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.36328125" customWidth="1"/>
+    <col min="15618" max="15618" width="12.6328125" customWidth="1"/>
+    <col min="15619" max="15619" width="19.6328125" customWidth="1"/>
+    <col min="15620" max="15621" width="19.36328125" customWidth="1"/>
     <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15638" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15640" max="15640" width="7" customWidth="1"/>
-    <col min="15642" max="15642" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="43.33203125" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6640625" customWidth="1"/>
-    <col min="15875" max="15875" width="19.6640625" customWidth="1"/>
-    <col min="15876" max="15877" width="19.33203125" customWidth="1"/>
+    <col min="15642" max="15642" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.36328125" customWidth="1"/>
+    <col min="15874" max="15874" width="12.6328125" customWidth="1"/>
+    <col min="15875" max="15875" width="19.6328125" customWidth="1"/>
+    <col min="15876" max="15877" width="19.36328125" customWidth="1"/>
     <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
-    <col min="15894" max="15894" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15896" max="15896" width="7" customWidth="1"/>
-    <col min="15898" max="15898" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="43.33203125" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6640625" customWidth="1"/>
-    <col min="16131" max="16131" width="19.6640625" customWidth="1"/>
-    <col min="16132" max="16133" width="19.33203125" customWidth="1"/>
+    <col min="15898" max="15898" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.36328125" customWidth="1"/>
+    <col min="16130" max="16130" width="12.6328125" customWidth="1"/>
+    <col min="16131" max="16131" width="19.6328125" customWidth="1"/>
+    <col min="16132" max="16133" width="19.36328125" customWidth="1"/>
     <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16150" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="16152" max="16152" width="7" customWidth="1"/>
-    <col min="16154" max="16154" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16154" max="16154" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -4581,7 +4548,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -4663,7 +4630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -4743,7 +4710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -4823,7 +4790,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -4903,7 +4870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -4983,7 +4950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -5079,23 +5046,23 @@
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.83203125"/>
+    <col min="13" max="21" width="8.81640625"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5166,7 +5133,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>217</v>
       </c>
@@ -5239,7 +5206,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>218</v>
       </c>
@@ -5311,7 +5278,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>219</v>
       </c>
@@ -5384,7 +5351,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="42"/>
       <c r="U7" s="42"/>
     </row>
@@ -5402,16 +5369,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>97</v>
       </c>
@@ -5506,7 +5473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -5554,7 +5521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -5602,7 +5569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -5666,16 +5633,16 @@
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+    <col min="15" max="15" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5722,7 +5689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5780,24 +5747,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="14.36328125" customWidth="1"/>
+    <col min="22" max="22" width="12.6328125" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5898,7 +5865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -6003,7 +5970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -6120,19 +6087,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6179,7 +6146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6236,24 +6203,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="11" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="11" width="16.453125" customWidth="1"/>
+    <col min="18" max="18" width="22.6328125" customWidth="1"/>
     <col min="22" max="22" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6321,7 +6288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
@@ -6389,7 +6356,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -6457,7 +6424,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
@@ -6525,7 +6492,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -6593,7 +6560,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -6661,7 +6628,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -6729,7 +6696,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
@@ -6797,7 +6764,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>167</v>
       </c>
@@ -6865,7 +6832,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -6933,7 +6900,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>237</v>
       </c>
@@ -6944,7 +6911,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="43" t="s">
         <v>238</v>
       </c>
@@ -6955,7 +6922,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>239</v>
       </c>
@@ -6966,7 +6933,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="47" t="s">
         <v>246</v>
       </c>
@@ -6982,7 +6949,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6994,20 +6960,20 @@
       <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.5" customWidth="1"/>
+    <col min="6" max="7" width="17.6328125" customWidth="1"/>
+    <col min="8" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.6328125" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="72.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7078,7 +7044,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
@@ -7149,7 +7115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>179</v>
       </c>
@@ -7220,7 +7186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>179</v>
       </c>
@@ -7291,7 +7257,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>178</v>
       </c>
@@ -7362,7 +7328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>178</v>
       </c>
@@ -7433,7 +7399,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>178</v>
       </c>
@@ -7504,7 +7470,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>183</v>
       </c>
@@ -7575,7 +7541,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>183</v>
       </c>
@@ -7646,7 +7612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>184</v>
       </c>
@@ -7717,7 +7683,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>186</v>
       </c>
@@ -7789,7 +7755,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
@@ -7804,23 +7770,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="10" width="15.83203125" customWidth="1"/>
+    <col min="7" max="10" width="15.81640625" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="111.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="111.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7885,7 +7851,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -7952,7 +7918,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -8018,7 +7984,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -8085,7 +8051,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
@@ -8155,21 +8121,21 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8237,7 +8203,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -8305,7 +8271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -8375,7 +8341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -8445,7 +8411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -8515,7 +8481,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -8585,7 +8551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -8653,10 +8619,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P15" s="10"/>
     </row>
   </sheetData>
@@ -8675,20 +8641,20 @@
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8789,7 +8755,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
@@ -8890,7 +8856,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -8991,7 +8957,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
@@ -9092,7 +9058,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -9193,7 +9159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -9294,7 +9260,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
@@ -9409,23 +9375,23 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9493,7 +9459,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -9561,7 +9527,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -9629,7 +9595,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -9697,7 +9663,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -9765,7 +9731,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9773,7 +9739,7 @@
       <c r="K6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>

--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C75A12-3934-4F8D-A3E9-E9D82B54BB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CEF1B-A8E7-41F1-982E-5A9B70AB2C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15460" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="993" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="262">
   <si>
     <t>Description</t>
   </si>
@@ -527,18 +527,12 @@
     <t>BO2</t>
   </si>
   <si>
-    <t>ASHRAE 90.1/2019 - minimum efficiency rating, 10 CFR Appendix A - boiler testing temperatures</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
     <t>gas</t>
   </si>
   <si>
-    <t>gas-cond</t>
-  </si>
-  <si>
     <t>T_flue_gas_design</t>
   </si>
   <si>
@@ -647,9 +641,6 @@
     <t>air-water heat pump</t>
   </si>
   <si>
-    <t>ASHRAE 90.1/2019 - AHRI 1230/2021</t>
-  </si>
-  <si>
     <t>water-source heat pump</t>
   </si>
   <si>
@@ -659,9 +650,6 @@
     <t>cost</t>
   </si>
   <si>
-    <t>ASHRAE 90.1/2019 - AHRI 210.240/2023</t>
-  </si>
-  <si>
     <t>medium_evap_side</t>
   </si>
   <si>
@@ -764,36 +752,24 @@
     <t xml:space="preserve"> Assumptions</t>
   </si>
   <si>
-    <t>coal-fired furnace</t>
-  </si>
-  <si>
     <t>electrical boiler</t>
   </si>
   <si>
     <t>wood-furnace</t>
   </si>
   <si>
-    <t>BO4</t>
-  </si>
-  <si>
     <t>BO5</t>
   </si>
   <si>
     <t>BO6</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
     <t>wood</t>
   </si>
   <si>
-    <t>biomass boiler</t>
-  </si>
-  <si>
     <t>BO7</t>
   </si>
   <si>
@@ -813,6 +789,54 @@
   </si>
   <si>
     <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
+  </si>
+  <si>
+    <t>E230AC</t>
+  </si>
+  <si>
+    <t>Cwod</t>
+  </si>
+  <si>
+    <t>Cdbm</t>
+  </si>
+  <si>
+    <t>KEA Badenwürttemberg Technikkatalog</t>
+  </si>
+  <si>
+    <t>biomass pellet boiler</t>
+  </si>
+  <si>
+    <t>Assumed equal to condensing boiler</t>
+  </si>
+  <si>
+    <t>KEA badenwürttemberg</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2015</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2016</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2017</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2020</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2021</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2022</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2023</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2024</t>
+  </si>
+  <si>
+    <t>1,176 EUR 2022 = 1 USD 2025</t>
   </si>
 </sst>
 </file>
@@ -824,7 +848,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -871,6 +895,11 @@
     <font>
       <sz val="11"/>
       <color indexed="65"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1069,7 +1098,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,6 +1234,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1653,29 +1695,29 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.6328125" customWidth="1"/>
-    <col min="16" max="17" width="12.453125" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" customWidth="1"/>
-    <col min="21" max="23" width="10.453125" customWidth="1"/>
-    <col min="24" max="24" width="14.6328125" customWidth="1"/>
-    <col min="25" max="25" width="12.6328125" customWidth="1"/>
-    <col min="27" max="27" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="23" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1842,7 +1884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1926,7 +1968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2010,7 +2052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2094,7 +2136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2178,7 +2220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2262,7 +2304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2346,7 +2388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,7 +2472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2559,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2530,16 +2572,16 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="5" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2583,15 +2625,15 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -2632,12 +2674,12 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2677,13 +2719,13 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2696,21 +2738,21 @@
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2817,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -2840,7 +2882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -2905,10 +2947,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O9" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O11" s="10"/>
     </row>
   </sheetData>
@@ -2921,29 +2963,28 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+      <selection activeCell="V8" sqref="V8:V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>131</v>
@@ -2975,10 +3016,10 @@
         <v>130</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>17</v>
@@ -3014,15 +3055,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -3034,7 +3075,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="11">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H2" s="11">
         <v>380</v>
@@ -3046,10 +3087,10 @@
         <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>31</v>
@@ -3058,11 +3099,11 @@
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <f>177.8/0.902</f>
-        <v>197.11751662971176</v>
+        <f>1175/1.176/1000</f>
+        <v>0.99914965986394566</v>
       </c>
       <c r="P2" s="2">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -3081,18 +3122,18 @@
       </c>
       <c r="V2" s="14"/>
       <c r="W2" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="17">
         <v>40000</v>
@@ -3104,7 +3145,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="11">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H3" s="11">
         <v>380</v>
@@ -3116,10 +3157,10 @@
         <v>27</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>31</v>
@@ -3128,11 +3169,11 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <f>177.8/0.902</f>
-        <v>197.11751662971176</v>
+        <f>646/1.176/1000</f>
+        <v>0.54931972789115646</v>
       </c>
       <c r="P3" s="2">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -3151,30 +3192,30 @@
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
       </c>
       <c r="E4" s="17">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="11">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H4" s="11">
         <v>380</v>
@@ -3186,10 +3227,10 @@
         <v>27</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>31</v>
@@ -3198,8 +3239,8 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
+        <f>1014/1.176/1000</f>
+        <v>0.86224489795918369</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
@@ -3208,8 +3249,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
         <v>25</v>
@@ -3222,21 +3262,21 @@
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5" s="17">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="17">
         <v>40000</v>
@@ -3245,7 +3285,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="11">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H5" s="11">
         <v>380</v>
@@ -3257,10 +3297,10 @@
         <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>31</v>
@@ -3269,8 +3309,8 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
+        <f>675/1.176/1000</f>
+        <v>0.57397959183673475</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
@@ -3279,8 +3319,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <v>25</v>
@@ -3293,30 +3332,30 @@
       </c>
       <c r="V5" s="14"/>
       <c r="W5" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D6" s="17">
         <v>40000</v>
       </c>
       <c r="E6" s="17">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="11">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H6" s="11">
         <v>380</v>
@@ -3328,10 +3367,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>31</v>
@@ -3340,8 +3379,8 @@
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
+        <f>535/1.176/1000</f>
+        <v>0.45493197278911568</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
@@ -3350,8 +3389,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <v>25</v>
@@ -3364,21 +3402,21 @@
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D7" s="17">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="E7" s="17">
         <v>20000000</v>
@@ -3387,7 +3425,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="11">
-        <v>3.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H7" s="11">
         <v>380</v>
@@ -3399,10 +3437,10 @@
         <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>31</v>
@@ -3411,8 +3449,8 @@
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
+        <f>381/1.176/1000</f>
+        <v>0.32397959183673469</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -3421,8 +3459,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
         <v>25</v>
@@ -3435,30 +3472,30 @@
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
       </c>
       <c r="E8" s="17">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="11">
-        <v>2.2000000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="H8" s="11">
         <v>230</v>
@@ -3470,10 +3507,10 @@
         <v>35</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>31</v>
@@ -3482,8 +3519,8 @@
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
+        <f>1260/1.176/1000</f>
+        <v>1.0714285714285716</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
@@ -3503,25 +3540,23 @@
       <c r="U8" s="2">
         <v>6</v>
       </c>
-      <c r="V8" s="14" t="s">
-        <v>201</v>
-      </c>
+      <c r="V8" s="14"/>
       <c r="W8" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" s="17">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="E9" s="17">
         <v>40000</v>
@@ -3542,10 +3577,10 @@
         <v>35</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>31</v>
@@ -3554,8 +3589,8 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
+        <f>1091/1.176/1000</f>
+        <v>0.92772108843537426</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
@@ -3575,28 +3610,26 @@
       <c r="U9" s="2">
         <v>6</v>
       </c>
-      <c r="V9" s="14" t="s">
-        <v>201</v>
-      </c>
+      <c r="V9" s="14"/>
       <c r="W9" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D10" s="17">
         <v>40000</v>
       </c>
       <c r="E10" s="17">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>30</v>
@@ -3614,10 +3647,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>31</v>
@@ -3626,8 +3659,8 @@
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
+        <f>1004/1.176/1000</f>
+        <v>0.85374149659863952</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
@@ -3647,25 +3680,23 @@
       <c r="U10" s="2">
         <v>6</v>
       </c>
-      <c r="V10" s="14" t="s">
-        <v>201</v>
-      </c>
+      <c r="V10" s="14"/>
       <c r="W10" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D11" s="17">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="E11" s="17">
         <v>10000000</v>
@@ -3686,10 +3717,10 @@
         <v>35</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>31</v>
@@ -3698,8 +3729,8 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
+        <f>885/1.176/1000</f>
+        <v>0.75255102040816324</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
@@ -3719,17 +3750,15 @@
       <c r="U11" s="2">
         <v>6</v>
       </c>
-      <c r="V11" s="14" t="s">
-        <v>201</v>
-      </c>
+      <c r="V11" s="14"/>
       <c r="W11" s="27" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3742,651 +3771,651 @@
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="5" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="26" max="26" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43.36328125" customWidth="1"/>
-    <col min="258" max="258" width="12.6328125" customWidth="1"/>
-    <col min="259" max="259" width="19.6328125" customWidth="1"/>
-    <col min="260" max="261" width="19.36328125" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.42578125" customWidth="1"/>
+    <col min="258" max="258" width="12.5703125" customWidth="1"/>
+    <col min="259" max="259" width="19.5703125" customWidth="1"/>
+    <col min="260" max="261" width="19.42578125" customWidth="1"/>
     <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="7" customWidth="1"/>
-    <col min="282" max="282" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="43.36328125" customWidth="1"/>
-    <col min="514" max="514" width="12.6328125" customWidth="1"/>
-    <col min="515" max="515" width="19.6328125" customWidth="1"/>
-    <col min="516" max="517" width="19.36328125" customWidth="1"/>
+    <col min="282" max="282" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.42578125" customWidth="1"/>
+    <col min="514" max="514" width="12.5703125" customWidth="1"/>
+    <col min="515" max="515" width="19.5703125" customWidth="1"/>
+    <col min="516" max="517" width="19.42578125" customWidth="1"/>
     <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="536" max="536" width="7" customWidth="1"/>
-    <col min="538" max="538" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="43.36328125" customWidth="1"/>
-    <col min="770" max="770" width="12.6328125" customWidth="1"/>
-    <col min="771" max="771" width="19.6328125" customWidth="1"/>
-    <col min="772" max="773" width="19.36328125" customWidth="1"/>
+    <col min="538" max="538" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.42578125" customWidth="1"/>
+    <col min="770" max="770" width="12.5703125" customWidth="1"/>
+    <col min="771" max="771" width="19.5703125" customWidth="1"/>
+    <col min="772" max="773" width="19.42578125" customWidth="1"/>
     <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="792" max="792" width="7" customWidth="1"/>
-    <col min="794" max="794" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="43.36328125" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6328125" customWidth="1"/>
-    <col min="1027" max="1027" width="19.6328125" customWidth="1"/>
-    <col min="1028" max="1029" width="19.36328125" customWidth="1"/>
+    <col min="794" max="794" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.42578125" customWidth="1"/>
+    <col min="1026" max="1026" width="12.5703125" customWidth="1"/>
+    <col min="1027" max="1027" width="19.5703125" customWidth="1"/>
+    <col min="1028" max="1029" width="19.42578125" customWidth="1"/>
     <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1046" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="1048" max="1048" width="7" customWidth="1"/>
-    <col min="1050" max="1050" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="43.36328125" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6328125" customWidth="1"/>
-    <col min="1283" max="1283" width="19.6328125" customWidth="1"/>
-    <col min="1284" max="1285" width="19.36328125" customWidth="1"/>
+    <col min="1050" max="1050" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.42578125" customWidth="1"/>
+    <col min="1282" max="1282" width="12.5703125" customWidth="1"/>
+    <col min="1283" max="1283" width="19.5703125" customWidth="1"/>
+    <col min="1284" max="1285" width="19.42578125" customWidth="1"/>
     <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1302" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="1304" max="1304" width="7" customWidth="1"/>
-    <col min="1306" max="1306" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="43.36328125" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6328125" customWidth="1"/>
-    <col min="1539" max="1539" width="19.6328125" customWidth="1"/>
-    <col min="1540" max="1541" width="19.36328125" customWidth="1"/>
+    <col min="1306" max="1306" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.42578125" customWidth="1"/>
+    <col min="1538" max="1538" width="12.5703125" customWidth="1"/>
+    <col min="1539" max="1539" width="19.5703125" customWidth="1"/>
+    <col min="1540" max="1541" width="19.42578125" customWidth="1"/>
     <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1558" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="1560" max="1560" width="7" customWidth="1"/>
-    <col min="1562" max="1562" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="43.36328125" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6328125" customWidth="1"/>
-    <col min="1795" max="1795" width="19.6328125" customWidth="1"/>
-    <col min="1796" max="1797" width="19.36328125" customWidth="1"/>
+    <col min="1562" max="1562" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.42578125" customWidth="1"/>
+    <col min="1794" max="1794" width="12.5703125" customWidth="1"/>
+    <col min="1795" max="1795" width="19.5703125" customWidth="1"/>
+    <col min="1796" max="1797" width="19.42578125" customWidth="1"/>
     <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
-    <col min="1814" max="1814" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="1816" max="1816" width="7" customWidth="1"/>
-    <col min="1818" max="1818" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="43.36328125" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6328125" customWidth="1"/>
-    <col min="2051" max="2051" width="19.6328125" customWidth="1"/>
-    <col min="2052" max="2053" width="19.36328125" customWidth="1"/>
+    <col min="1818" max="1818" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.42578125" customWidth="1"/>
+    <col min="2050" max="2050" width="12.5703125" customWidth="1"/>
+    <col min="2051" max="2051" width="19.5703125" customWidth="1"/>
+    <col min="2052" max="2053" width="19.42578125" customWidth="1"/>
     <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2070" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2072" max="2072" width="7" customWidth="1"/>
-    <col min="2074" max="2074" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="43.36328125" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6328125" customWidth="1"/>
-    <col min="2307" max="2307" width="19.6328125" customWidth="1"/>
-    <col min="2308" max="2309" width="19.36328125" customWidth="1"/>
+    <col min="2074" max="2074" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.42578125" customWidth="1"/>
+    <col min="2306" max="2306" width="12.5703125" customWidth="1"/>
+    <col min="2307" max="2307" width="19.5703125" customWidth="1"/>
+    <col min="2308" max="2309" width="19.42578125" customWidth="1"/>
     <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2326" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2328" max="2328" width="7" customWidth="1"/>
-    <col min="2330" max="2330" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="43.36328125" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6328125" customWidth="1"/>
-    <col min="2563" max="2563" width="19.6328125" customWidth="1"/>
-    <col min="2564" max="2565" width="19.36328125" customWidth="1"/>
+    <col min="2330" max="2330" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.42578125" customWidth="1"/>
+    <col min="2562" max="2562" width="12.5703125" customWidth="1"/>
+    <col min="2563" max="2563" width="19.5703125" customWidth="1"/>
+    <col min="2564" max="2565" width="19.42578125" customWidth="1"/>
     <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2582" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2584" max="2584" width="7" customWidth="1"/>
-    <col min="2586" max="2586" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="43.36328125" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6328125" customWidth="1"/>
-    <col min="2819" max="2819" width="19.6328125" customWidth="1"/>
-    <col min="2820" max="2821" width="19.36328125" customWidth="1"/>
+    <col min="2586" max="2586" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.42578125" customWidth="1"/>
+    <col min="2818" max="2818" width="12.5703125" customWidth="1"/>
+    <col min="2819" max="2819" width="19.5703125" customWidth="1"/>
+    <col min="2820" max="2821" width="19.42578125" customWidth="1"/>
     <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
-    <col min="2838" max="2838" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2840" max="2840" width="7" customWidth="1"/>
-    <col min="2842" max="2842" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="43.36328125" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6328125" customWidth="1"/>
-    <col min="3075" max="3075" width="19.6328125" customWidth="1"/>
-    <col min="3076" max="3077" width="19.36328125" customWidth="1"/>
+    <col min="2842" max="2842" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.42578125" customWidth="1"/>
+    <col min="3074" max="3074" width="12.5703125" customWidth="1"/>
+    <col min="3075" max="3075" width="19.5703125" customWidth="1"/>
+    <col min="3076" max="3077" width="19.42578125" customWidth="1"/>
     <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3094" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3096" max="3096" width="7" customWidth="1"/>
-    <col min="3098" max="3098" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="43.36328125" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6328125" customWidth="1"/>
-    <col min="3331" max="3331" width="19.6328125" customWidth="1"/>
-    <col min="3332" max="3333" width="19.36328125" customWidth="1"/>
+    <col min="3098" max="3098" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.42578125" customWidth="1"/>
+    <col min="3330" max="3330" width="12.5703125" customWidth="1"/>
+    <col min="3331" max="3331" width="19.5703125" customWidth="1"/>
+    <col min="3332" max="3333" width="19.42578125" customWidth="1"/>
     <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3350" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3352" max="3352" width="7" customWidth="1"/>
-    <col min="3354" max="3354" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="43.36328125" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6328125" customWidth="1"/>
-    <col min="3587" max="3587" width="19.6328125" customWidth="1"/>
-    <col min="3588" max="3589" width="19.36328125" customWidth="1"/>
+    <col min="3354" max="3354" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.42578125" customWidth="1"/>
+    <col min="3586" max="3586" width="12.5703125" customWidth="1"/>
+    <col min="3587" max="3587" width="19.5703125" customWidth="1"/>
+    <col min="3588" max="3589" width="19.42578125" customWidth="1"/>
     <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3606" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3608" max="3608" width="7" customWidth="1"/>
-    <col min="3610" max="3610" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="43.36328125" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6328125" customWidth="1"/>
-    <col min="3843" max="3843" width="19.6328125" customWidth="1"/>
-    <col min="3844" max="3845" width="19.36328125" customWidth="1"/>
+    <col min="3610" max="3610" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.42578125" customWidth="1"/>
+    <col min="3842" max="3842" width="12.5703125" customWidth="1"/>
+    <col min="3843" max="3843" width="19.5703125" customWidth="1"/>
+    <col min="3844" max="3845" width="19.42578125" customWidth="1"/>
     <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
-    <col min="3862" max="3862" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3864" max="3864" width="7" customWidth="1"/>
-    <col min="3866" max="3866" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="43.36328125" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6328125" customWidth="1"/>
-    <col min="4099" max="4099" width="19.6328125" customWidth="1"/>
-    <col min="4100" max="4101" width="19.36328125" customWidth="1"/>
+    <col min="3866" max="3866" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.42578125" customWidth="1"/>
+    <col min="4098" max="4098" width="12.5703125" customWidth="1"/>
+    <col min="4099" max="4099" width="19.5703125" customWidth="1"/>
+    <col min="4100" max="4101" width="19.42578125" customWidth="1"/>
     <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4118" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4120" max="4120" width="7" customWidth="1"/>
-    <col min="4122" max="4122" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="43.36328125" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6328125" customWidth="1"/>
-    <col min="4355" max="4355" width="19.6328125" customWidth="1"/>
-    <col min="4356" max="4357" width="19.36328125" customWidth="1"/>
+    <col min="4122" max="4122" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.42578125" customWidth="1"/>
+    <col min="4354" max="4354" width="12.5703125" customWidth="1"/>
+    <col min="4355" max="4355" width="19.5703125" customWidth="1"/>
+    <col min="4356" max="4357" width="19.42578125" customWidth="1"/>
     <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4374" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4376" max="4376" width="7" customWidth="1"/>
-    <col min="4378" max="4378" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="43.36328125" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6328125" customWidth="1"/>
-    <col min="4611" max="4611" width="19.6328125" customWidth="1"/>
-    <col min="4612" max="4613" width="19.36328125" customWidth="1"/>
+    <col min="4378" max="4378" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.42578125" customWidth="1"/>
+    <col min="4610" max="4610" width="12.5703125" customWidth="1"/>
+    <col min="4611" max="4611" width="19.5703125" customWidth="1"/>
+    <col min="4612" max="4613" width="19.42578125" customWidth="1"/>
     <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4630" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4632" max="4632" width="7" customWidth="1"/>
-    <col min="4634" max="4634" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="43.36328125" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6328125" customWidth="1"/>
-    <col min="4867" max="4867" width="19.6328125" customWidth="1"/>
-    <col min="4868" max="4869" width="19.36328125" customWidth="1"/>
+    <col min="4634" max="4634" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.42578125" customWidth="1"/>
+    <col min="4866" max="4866" width="12.5703125" customWidth="1"/>
+    <col min="4867" max="4867" width="19.5703125" customWidth="1"/>
+    <col min="4868" max="4869" width="19.42578125" customWidth="1"/>
     <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
-    <col min="4886" max="4886" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4888" max="4888" width="7" customWidth="1"/>
-    <col min="4890" max="4890" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="43.36328125" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6328125" customWidth="1"/>
-    <col min="5123" max="5123" width="19.6328125" customWidth="1"/>
-    <col min="5124" max="5125" width="19.36328125" customWidth="1"/>
+    <col min="4890" max="4890" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.42578125" customWidth="1"/>
+    <col min="5122" max="5122" width="12.5703125" customWidth="1"/>
+    <col min="5123" max="5123" width="19.5703125" customWidth="1"/>
+    <col min="5124" max="5125" width="19.42578125" customWidth="1"/>
     <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5142" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5144" max="5144" width="7" customWidth="1"/>
-    <col min="5146" max="5146" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="43.36328125" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6328125" customWidth="1"/>
-    <col min="5379" max="5379" width="19.6328125" customWidth="1"/>
-    <col min="5380" max="5381" width="19.36328125" customWidth="1"/>
+    <col min="5146" max="5146" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.42578125" customWidth="1"/>
+    <col min="5378" max="5378" width="12.5703125" customWidth="1"/>
+    <col min="5379" max="5379" width="19.5703125" customWidth="1"/>
+    <col min="5380" max="5381" width="19.42578125" customWidth="1"/>
     <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5398" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5400" max="5400" width="7" customWidth="1"/>
-    <col min="5402" max="5402" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="43.36328125" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6328125" customWidth="1"/>
-    <col min="5635" max="5635" width="19.6328125" customWidth="1"/>
-    <col min="5636" max="5637" width="19.36328125" customWidth="1"/>
+    <col min="5402" max="5402" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.42578125" customWidth="1"/>
+    <col min="5634" max="5634" width="12.5703125" customWidth="1"/>
+    <col min="5635" max="5635" width="19.5703125" customWidth="1"/>
+    <col min="5636" max="5637" width="19.42578125" customWidth="1"/>
     <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5654" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5656" max="5656" width="7" customWidth="1"/>
-    <col min="5658" max="5658" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="43.36328125" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6328125" customWidth="1"/>
-    <col min="5891" max="5891" width="19.6328125" customWidth="1"/>
-    <col min="5892" max="5893" width="19.36328125" customWidth="1"/>
+    <col min="5658" max="5658" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.42578125" customWidth="1"/>
+    <col min="5890" max="5890" width="12.5703125" customWidth="1"/>
+    <col min="5891" max="5891" width="19.5703125" customWidth="1"/>
+    <col min="5892" max="5893" width="19.42578125" customWidth="1"/>
     <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
-    <col min="5910" max="5910" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5912" max="5912" width="7" customWidth="1"/>
-    <col min="5914" max="5914" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="43.36328125" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6328125" customWidth="1"/>
-    <col min="6147" max="6147" width="19.6328125" customWidth="1"/>
-    <col min="6148" max="6149" width="19.36328125" customWidth="1"/>
+    <col min="5914" max="5914" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.42578125" customWidth="1"/>
+    <col min="6146" max="6146" width="12.5703125" customWidth="1"/>
+    <col min="6147" max="6147" width="19.5703125" customWidth="1"/>
+    <col min="6148" max="6149" width="19.42578125" customWidth="1"/>
     <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6166" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6168" max="6168" width="7" customWidth="1"/>
-    <col min="6170" max="6170" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="43.36328125" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6328125" customWidth="1"/>
-    <col min="6403" max="6403" width="19.6328125" customWidth="1"/>
-    <col min="6404" max="6405" width="19.36328125" customWidth="1"/>
+    <col min="6170" max="6170" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.42578125" customWidth="1"/>
+    <col min="6402" max="6402" width="12.5703125" customWidth="1"/>
+    <col min="6403" max="6403" width="19.5703125" customWidth="1"/>
+    <col min="6404" max="6405" width="19.42578125" customWidth="1"/>
     <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6422" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6424" max="6424" width="7" customWidth="1"/>
-    <col min="6426" max="6426" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="43.36328125" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6328125" customWidth="1"/>
-    <col min="6659" max="6659" width="19.6328125" customWidth="1"/>
-    <col min="6660" max="6661" width="19.36328125" customWidth="1"/>
+    <col min="6426" max="6426" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.42578125" customWidth="1"/>
+    <col min="6658" max="6658" width="12.5703125" customWidth="1"/>
+    <col min="6659" max="6659" width="19.5703125" customWidth="1"/>
+    <col min="6660" max="6661" width="19.42578125" customWidth="1"/>
     <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6678" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6680" max="6680" width="7" customWidth="1"/>
-    <col min="6682" max="6682" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="43.36328125" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6328125" customWidth="1"/>
-    <col min="6915" max="6915" width="19.6328125" customWidth="1"/>
-    <col min="6916" max="6917" width="19.36328125" customWidth="1"/>
+    <col min="6682" max="6682" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.42578125" customWidth="1"/>
+    <col min="6914" max="6914" width="12.5703125" customWidth="1"/>
+    <col min="6915" max="6915" width="19.5703125" customWidth="1"/>
+    <col min="6916" max="6917" width="19.42578125" customWidth="1"/>
     <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
-    <col min="6934" max="6934" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6936" max="6936" width="7" customWidth="1"/>
-    <col min="6938" max="6938" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="43.36328125" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6328125" customWidth="1"/>
-    <col min="7171" max="7171" width="19.6328125" customWidth="1"/>
-    <col min="7172" max="7173" width="19.36328125" customWidth="1"/>
+    <col min="6938" max="6938" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.42578125" customWidth="1"/>
+    <col min="7170" max="7170" width="12.5703125" customWidth="1"/>
+    <col min="7171" max="7171" width="19.5703125" customWidth="1"/>
+    <col min="7172" max="7173" width="19.42578125" customWidth="1"/>
     <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7190" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7192" max="7192" width="7" customWidth="1"/>
-    <col min="7194" max="7194" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="43.36328125" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6328125" customWidth="1"/>
-    <col min="7427" max="7427" width="19.6328125" customWidth="1"/>
-    <col min="7428" max="7429" width="19.36328125" customWidth="1"/>
+    <col min="7194" max="7194" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.42578125" customWidth="1"/>
+    <col min="7426" max="7426" width="12.5703125" customWidth="1"/>
+    <col min="7427" max="7427" width="19.5703125" customWidth="1"/>
+    <col min="7428" max="7429" width="19.42578125" customWidth="1"/>
     <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7446" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7448" max="7448" width="7" customWidth="1"/>
-    <col min="7450" max="7450" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="43.36328125" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6328125" customWidth="1"/>
-    <col min="7683" max="7683" width="19.6328125" customWidth="1"/>
-    <col min="7684" max="7685" width="19.36328125" customWidth="1"/>
+    <col min="7450" max="7450" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.42578125" customWidth="1"/>
+    <col min="7682" max="7682" width="12.5703125" customWidth="1"/>
+    <col min="7683" max="7683" width="19.5703125" customWidth="1"/>
+    <col min="7684" max="7685" width="19.42578125" customWidth="1"/>
     <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7702" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7704" max="7704" width="7" customWidth="1"/>
-    <col min="7706" max="7706" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="43.36328125" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6328125" customWidth="1"/>
-    <col min="7939" max="7939" width="19.6328125" customWidth="1"/>
-    <col min="7940" max="7941" width="19.36328125" customWidth="1"/>
+    <col min="7706" max="7706" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.42578125" customWidth="1"/>
+    <col min="7938" max="7938" width="12.5703125" customWidth="1"/>
+    <col min="7939" max="7939" width="19.5703125" customWidth="1"/>
+    <col min="7940" max="7941" width="19.42578125" customWidth="1"/>
     <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
-    <col min="7958" max="7958" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7960" max="7960" width="7" customWidth="1"/>
-    <col min="7962" max="7962" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="43.36328125" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6328125" customWidth="1"/>
-    <col min="8195" max="8195" width="19.6328125" customWidth="1"/>
-    <col min="8196" max="8197" width="19.36328125" customWidth="1"/>
+    <col min="7962" max="7962" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.42578125" customWidth="1"/>
+    <col min="8194" max="8194" width="12.5703125" customWidth="1"/>
+    <col min="8195" max="8195" width="19.5703125" customWidth="1"/>
+    <col min="8196" max="8197" width="19.42578125" customWidth="1"/>
     <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8214" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8216" max="8216" width="7" customWidth="1"/>
-    <col min="8218" max="8218" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="43.36328125" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6328125" customWidth="1"/>
-    <col min="8451" max="8451" width="19.6328125" customWidth="1"/>
-    <col min="8452" max="8453" width="19.36328125" customWidth="1"/>
+    <col min="8218" max="8218" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.42578125" customWidth="1"/>
+    <col min="8450" max="8450" width="12.5703125" customWidth="1"/>
+    <col min="8451" max="8451" width="19.5703125" customWidth="1"/>
+    <col min="8452" max="8453" width="19.42578125" customWidth="1"/>
     <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8470" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8472" max="8472" width="7" customWidth="1"/>
-    <col min="8474" max="8474" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="43.36328125" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6328125" customWidth="1"/>
-    <col min="8707" max="8707" width="19.6328125" customWidth="1"/>
-    <col min="8708" max="8709" width="19.36328125" customWidth="1"/>
+    <col min="8474" max="8474" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.42578125" customWidth="1"/>
+    <col min="8706" max="8706" width="12.5703125" customWidth="1"/>
+    <col min="8707" max="8707" width="19.5703125" customWidth="1"/>
+    <col min="8708" max="8709" width="19.42578125" customWidth="1"/>
     <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8726" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8728" max="8728" width="7" customWidth="1"/>
-    <col min="8730" max="8730" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="43.36328125" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6328125" customWidth="1"/>
-    <col min="8963" max="8963" width="19.6328125" customWidth="1"/>
-    <col min="8964" max="8965" width="19.36328125" customWidth="1"/>
+    <col min="8730" max="8730" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.42578125" customWidth="1"/>
+    <col min="8962" max="8962" width="12.5703125" customWidth="1"/>
+    <col min="8963" max="8963" width="19.5703125" customWidth="1"/>
+    <col min="8964" max="8965" width="19.42578125" customWidth="1"/>
     <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
-    <col min="8982" max="8982" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8984" max="8984" width="7" customWidth="1"/>
-    <col min="8986" max="8986" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="43.36328125" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6328125" customWidth="1"/>
-    <col min="9219" max="9219" width="19.6328125" customWidth="1"/>
-    <col min="9220" max="9221" width="19.36328125" customWidth="1"/>
+    <col min="8986" max="8986" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.42578125" customWidth="1"/>
+    <col min="9218" max="9218" width="12.5703125" customWidth="1"/>
+    <col min="9219" max="9219" width="19.5703125" customWidth="1"/>
+    <col min="9220" max="9221" width="19.42578125" customWidth="1"/>
     <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9238" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9240" max="9240" width="7" customWidth="1"/>
-    <col min="9242" max="9242" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="43.36328125" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6328125" customWidth="1"/>
-    <col min="9475" max="9475" width="19.6328125" customWidth="1"/>
-    <col min="9476" max="9477" width="19.36328125" customWidth="1"/>
+    <col min="9242" max="9242" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.42578125" customWidth="1"/>
+    <col min="9474" max="9474" width="12.5703125" customWidth="1"/>
+    <col min="9475" max="9475" width="19.5703125" customWidth="1"/>
+    <col min="9476" max="9477" width="19.42578125" customWidth="1"/>
     <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9494" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9496" max="9496" width="7" customWidth="1"/>
-    <col min="9498" max="9498" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="43.36328125" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6328125" customWidth="1"/>
-    <col min="9731" max="9731" width="19.6328125" customWidth="1"/>
-    <col min="9732" max="9733" width="19.36328125" customWidth="1"/>
+    <col min="9498" max="9498" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.42578125" customWidth="1"/>
+    <col min="9730" max="9730" width="12.5703125" customWidth="1"/>
+    <col min="9731" max="9731" width="19.5703125" customWidth="1"/>
+    <col min="9732" max="9733" width="19.42578125" customWidth="1"/>
     <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9750" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9752" max="9752" width="7" customWidth="1"/>
-    <col min="9754" max="9754" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="43.36328125" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6328125" customWidth="1"/>
-    <col min="9987" max="9987" width="19.6328125" customWidth="1"/>
-    <col min="9988" max="9989" width="19.36328125" customWidth="1"/>
+    <col min="9754" max="9754" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.42578125" customWidth="1"/>
+    <col min="9986" max="9986" width="12.5703125" customWidth="1"/>
+    <col min="9987" max="9987" width="19.5703125" customWidth="1"/>
+    <col min="9988" max="9989" width="19.42578125" customWidth="1"/>
     <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10006" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10008" max="10008" width="7" customWidth="1"/>
-    <col min="10010" max="10010" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="43.36328125" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6328125" customWidth="1"/>
-    <col min="10243" max="10243" width="19.6328125" customWidth="1"/>
-    <col min="10244" max="10245" width="19.36328125" customWidth="1"/>
+    <col min="10010" max="10010" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.42578125" customWidth="1"/>
+    <col min="10242" max="10242" width="12.5703125" customWidth="1"/>
+    <col min="10243" max="10243" width="19.5703125" customWidth="1"/>
+    <col min="10244" max="10245" width="19.42578125" customWidth="1"/>
     <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10262" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10264" max="10264" width="7" customWidth="1"/>
-    <col min="10266" max="10266" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="43.36328125" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6328125" customWidth="1"/>
-    <col min="10499" max="10499" width="19.6328125" customWidth="1"/>
-    <col min="10500" max="10501" width="19.36328125" customWidth="1"/>
+    <col min="10266" max="10266" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.42578125" customWidth="1"/>
+    <col min="10498" max="10498" width="12.5703125" customWidth="1"/>
+    <col min="10499" max="10499" width="19.5703125" customWidth="1"/>
+    <col min="10500" max="10501" width="19.42578125" customWidth="1"/>
     <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10518" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10520" max="10520" width="7" customWidth="1"/>
-    <col min="10522" max="10522" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="43.36328125" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6328125" customWidth="1"/>
-    <col min="10755" max="10755" width="19.6328125" customWidth="1"/>
-    <col min="10756" max="10757" width="19.36328125" customWidth="1"/>
+    <col min="10522" max="10522" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.42578125" customWidth="1"/>
+    <col min="10754" max="10754" width="12.5703125" customWidth="1"/>
+    <col min="10755" max="10755" width="19.5703125" customWidth="1"/>
+    <col min="10756" max="10757" width="19.42578125" customWidth="1"/>
     <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
-    <col min="10774" max="10774" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10776" max="10776" width="7" customWidth="1"/>
-    <col min="10778" max="10778" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="43.36328125" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6328125" customWidth="1"/>
-    <col min="11011" max="11011" width="19.6328125" customWidth="1"/>
-    <col min="11012" max="11013" width="19.36328125" customWidth="1"/>
+    <col min="10778" max="10778" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.42578125" customWidth="1"/>
+    <col min="11010" max="11010" width="12.5703125" customWidth="1"/>
+    <col min="11011" max="11011" width="19.5703125" customWidth="1"/>
+    <col min="11012" max="11013" width="19.42578125" customWidth="1"/>
     <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11030" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11032" max="11032" width="7" customWidth="1"/>
-    <col min="11034" max="11034" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="43.36328125" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6328125" customWidth="1"/>
-    <col min="11267" max="11267" width="19.6328125" customWidth="1"/>
-    <col min="11268" max="11269" width="19.36328125" customWidth="1"/>
+    <col min="11034" max="11034" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.42578125" customWidth="1"/>
+    <col min="11266" max="11266" width="12.5703125" customWidth="1"/>
+    <col min="11267" max="11267" width="19.5703125" customWidth="1"/>
+    <col min="11268" max="11269" width="19.42578125" customWidth="1"/>
     <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11286" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11288" max="11288" width="7" customWidth="1"/>
-    <col min="11290" max="11290" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="43.36328125" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6328125" customWidth="1"/>
-    <col min="11523" max="11523" width="19.6328125" customWidth="1"/>
-    <col min="11524" max="11525" width="19.36328125" customWidth="1"/>
+    <col min="11290" max="11290" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.42578125" customWidth="1"/>
+    <col min="11522" max="11522" width="12.5703125" customWidth="1"/>
+    <col min="11523" max="11523" width="19.5703125" customWidth="1"/>
+    <col min="11524" max="11525" width="19.42578125" customWidth="1"/>
     <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11542" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11544" max="11544" width="7" customWidth="1"/>
-    <col min="11546" max="11546" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="43.36328125" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6328125" customWidth="1"/>
-    <col min="11779" max="11779" width="19.6328125" customWidth="1"/>
-    <col min="11780" max="11781" width="19.36328125" customWidth="1"/>
+    <col min="11546" max="11546" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.42578125" customWidth="1"/>
+    <col min="11778" max="11778" width="12.5703125" customWidth="1"/>
+    <col min="11779" max="11779" width="19.5703125" customWidth="1"/>
+    <col min="11780" max="11781" width="19.42578125" customWidth="1"/>
     <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
-    <col min="11798" max="11798" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11800" max="11800" width="7" customWidth="1"/>
-    <col min="11802" max="11802" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="43.36328125" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6328125" customWidth="1"/>
-    <col min="12035" max="12035" width="19.6328125" customWidth="1"/>
-    <col min="12036" max="12037" width="19.36328125" customWidth="1"/>
+    <col min="11802" max="11802" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.42578125" customWidth="1"/>
+    <col min="12034" max="12034" width="12.5703125" customWidth="1"/>
+    <col min="12035" max="12035" width="19.5703125" customWidth="1"/>
+    <col min="12036" max="12037" width="19.42578125" customWidth="1"/>
     <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12054" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="12056" max="12056" width="7" customWidth="1"/>
-    <col min="12058" max="12058" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="43.36328125" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6328125" customWidth="1"/>
-    <col min="12291" max="12291" width="19.6328125" customWidth="1"/>
-    <col min="12292" max="12293" width="19.36328125" customWidth="1"/>
+    <col min="12058" max="12058" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.42578125" customWidth="1"/>
+    <col min="12290" max="12290" width="12.5703125" customWidth="1"/>
+    <col min="12291" max="12291" width="19.5703125" customWidth="1"/>
+    <col min="12292" max="12293" width="19.42578125" customWidth="1"/>
     <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12310" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="12312" max="12312" width="7" customWidth="1"/>
-    <col min="12314" max="12314" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="43.36328125" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6328125" customWidth="1"/>
-    <col min="12547" max="12547" width="19.6328125" customWidth="1"/>
-    <col min="12548" max="12549" width="19.36328125" customWidth="1"/>
+    <col min="12314" max="12314" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.42578125" customWidth="1"/>
+    <col min="12546" max="12546" width="12.5703125" customWidth="1"/>
+    <col min="12547" max="12547" width="19.5703125" customWidth="1"/>
+    <col min="12548" max="12549" width="19.42578125" customWidth="1"/>
     <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12566" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="12568" max="12568" width="7" customWidth="1"/>
-    <col min="12570" max="12570" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="43.36328125" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6328125" customWidth="1"/>
-    <col min="12803" max="12803" width="19.6328125" customWidth="1"/>
-    <col min="12804" max="12805" width="19.36328125" customWidth="1"/>
+    <col min="12570" max="12570" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.42578125" customWidth="1"/>
+    <col min="12802" max="12802" width="12.5703125" customWidth="1"/>
+    <col min="12803" max="12803" width="19.5703125" customWidth="1"/>
+    <col min="12804" max="12805" width="19.42578125" customWidth="1"/>
     <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
-    <col min="12822" max="12822" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="12824" max="12824" width="7" customWidth="1"/>
-    <col min="12826" max="12826" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="43.36328125" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6328125" customWidth="1"/>
-    <col min="13059" max="13059" width="19.6328125" customWidth="1"/>
-    <col min="13060" max="13061" width="19.36328125" customWidth="1"/>
+    <col min="12826" max="12826" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.42578125" customWidth="1"/>
+    <col min="13058" max="13058" width="12.5703125" customWidth="1"/>
+    <col min="13059" max="13059" width="19.5703125" customWidth="1"/>
+    <col min="13060" max="13061" width="19.42578125" customWidth="1"/>
     <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13078" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13080" max="13080" width="7" customWidth="1"/>
-    <col min="13082" max="13082" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="43.36328125" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6328125" customWidth="1"/>
-    <col min="13315" max="13315" width="19.6328125" customWidth="1"/>
-    <col min="13316" max="13317" width="19.36328125" customWidth="1"/>
+    <col min="13082" max="13082" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.42578125" customWidth="1"/>
+    <col min="13314" max="13314" width="12.5703125" customWidth="1"/>
+    <col min="13315" max="13315" width="19.5703125" customWidth="1"/>
+    <col min="13316" max="13317" width="19.42578125" customWidth="1"/>
     <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13334" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13336" max="13336" width="7" customWidth="1"/>
-    <col min="13338" max="13338" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="43.36328125" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6328125" customWidth="1"/>
-    <col min="13571" max="13571" width="19.6328125" customWidth="1"/>
-    <col min="13572" max="13573" width="19.36328125" customWidth="1"/>
+    <col min="13338" max="13338" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.42578125" customWidth="1"/>
+    <col min="13570" max="13570" width="12.5703125" customWidth="1"/>
+    <col min="13571" max="13571" width="19.5703125" customWidth="1"/>
+    <col min="13572" max="13573" width="19.42578125" customWidth="1"/>
     <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13590" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13592" max="13592" width="7" customWidth="1"/>
-    <col min="13594" max="13594" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="43.36328125" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6328125" customWidth="1"/>
-    <col min="13827" max="13827" width="19.6328125" customWidth="1"/>
-    <col min="13828" max="13829" width="19.36328125" customWidth="1"/>
+    <col min="13594" max="13594" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.42578125" customWidth="1"/>
+    <col min="13826" max="13826" width="12.5703125" customWidth="1"/>
+    <col min="13827" max="13827" width="19.5703125" customWidth="1"/>
+    <col min="13828" max="13829" width="19.42578125" customWidth="1"/>
     <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
-    <col min="13846" max="13846" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13848" max="13848" width="7" customWidth="1"/>
-    <col min="13850" max="13850" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="43.36328125" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6328125" customWidth="1"/>
-    <col min="14083" max="14083" width="19.6328125" customWidth="1"/>
-    <col min="14084" max="14085" width="19.36328125" customWidth="1"/>
+    <col min="13850" max="13850" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.42578125" customWidth="1"/>
+    <col min="14082" max="14082" width="12.5703125" customWidth="1"/>
+    <col min="14083" max="14083" width="19.5703125" customWidth="1"/>
+    <col min="14084" max="14085" width="19.42578125" customWidth="1"/>
     <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14102" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="14104" max="14104" width="7" customWidth="1"/>
-    <col min="14106" max="14106" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="43.36328125" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6328125" customWidth="1"/>
-    <col min="14339" max="14339" width="19.6328125" customWidth="1"/>
-    <col min="14340" max="14341" width="19.36328125" customWidth="1"/>
+    <col min="14106" max="14106" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.42578125" customWidth="1"/>
+    <col min="14338" max="14338" width="12.5703125" customWidth="1"/>
+    <col min="14339" max="14339" width="19.5703125" customWidth="1"/>
+    <col min="14340" max="14341" width="19.42578125" customWidth="1"/>
     <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14358" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="14360" max="14360" width="7" customWidth="1"/>
-    <col min="14362" max="14362" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="43.36328125" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6328125" customWidth="1"/>
-    <col min="14595" max="14595" width="19.6328125" customWidth="1"/>
-    <col min="14596" max="14597" width="19.36328125" customWidth="1"/>
+    <col min="14362" max="14362" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.42578125" customWidth="1"/>
+    <col min="14594" max="14594" width="12.5703125" customWidth="1"/>
+    <col min="14595" max="14595" width="19.5703125" customWidth="1"/>
+    <col min="14596" max="14597" width="19.42578125" customWidth="1"/>
     <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14614" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="14616" max="14616" width="7" customWidth="1"/>
-    <col min="14618" max="14618" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="43.36328125" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6328125" customWidth="1"/>
-    <col min="14851" max="14851" width="19.6328125" customWidth="1"/>
-    <col min="14852" max="14853" width="19.36328125" customWidth="1"/>
+    <col min="14618" max="14618" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.42578125" customWidth="1"/>
+    <col min="14850" max="14850" width="12.5703125" customWidth="1"/>
+    <col min="14851" max="14851" width="19.5703125" customWidth="1"/>
+    <col min="14852" max="14853" width="19.42578125" customWidth="1"/>
     <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
-    <col min="14870" max="14870" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="14872" max="14872" width="7" customWidth="1"/>
-    <col min="14874" max="14874" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="43.36328125" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6328125" customWidth="1"/>
-    <col min="15107" max="15107" width="19.6328125" customWidth="1"/>
-    <col min="15108" max="15109" width="19.36328125" customWidth="1"/>
+    <col min="14874" max="14874" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.42578125" customWidth="1"/>
+    <col min="15106" max="15106" width="12.5703125" customWidth="1"/>
+    <col min="15107" max="15107" width="19.5703125" customWidth="1"/>
+    <col min="15108" max="15109" width="19.42578125" customWidth="1"/>
     <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15126" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="15128" max="15128" width="7" customWidth="1"/>
-    <col min="15130" max="15130" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="43.36328125" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6328125" customWidth="1"/>
-    <col min="15363" max="15363" width="19.6328125" customWidth="1"/>
-    <col min="15364" max="15365" width="19.36328125" customWidth="1"/>
+    <col min="15130" max="15130" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.42578125" customWidth="1"/>
+    <col min="15362" max="15362" width="12.5703125" customWidth="1"/>
+    <col min="15363" max="15363" width="19.5703125" customWidth="1"/>
+    <col min="15364" max="15365" width="19.42578125" customWidth="1"/>
     <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15382" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="15384" max="15384" width="7" customWidth="1"/>
-    <col min="15386" max="15386" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="43.36328125" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6328125" customWidth="1"/>
-    <col min="15619" max="15619" width="19.6328125" customWidth="1"/>
-    <col min="15620" max="15621" width="19.36328125" customWidth="1"/>
+    <col min="15386" max="15386" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.42578125" customWidth="1"/>
+    <col min="15618" max="15618" width="12.5703125" customWidth="1"/>
+    <col min="15619" max="15619" width="19.5703125" customWidth="1"/>
+    <col min="15620" max="15621" width="19.42578125" customWidth="1"/>
     <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15638" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="15640" max="15640" width="7" customWidth="1"/>
-    <col min="15642" max="15642" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="43.36328125" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6328125" customWidth="1"/>
-    <col min="15875" max="15875" width="19.6328125" customWidth="1"/>
-    <col min="15876" max="15877" width="19.36328125" customWidth="1"/>
+    <col min="15642" max="15642" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.42578125" customWidth="1"/>
+    <col min="15874" max="15874" width="12.5703125" customWidth="1"/>
+    <col min="15875" max="15875" width="19.5703125" customWidth="1"/>
+    <col min="15876" max="15877" width="19.42578125" customWidth="1"/>
     <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
-    <col min="15894" max="15894" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="15896" max="15896" width="7" customWidth="1"/>
-    <col min="15898" max="15898" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="43.36328125" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6328125" customWidth="1"/>
-    <col min="16131" max="16131" width="19.6328125" customWidth="1"/>
-    <col min="16132" max="16133" width="19.36328125" customWidth="1"/>
+    <col min="15898" max="15898" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.42578125" customWidth="1"/>
+    <col min="16130" max="16130" width="12.5703125" customWidth="1"/>
+    <col min="16131" max="16131" width="19.5703125" customWidth="1"/>
+    <col min="16132" max="16133" width="19.42578125" customWidth="1"/>
     <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16150" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="16152" max="16152" width="7" customWidth="1"/>
-    <col min="16154" max="16154" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16154" max="16154" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -4548,7 +4577,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -4630,7 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -4710,7 +4739,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -4790,7 +4819,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -4870,7 +4899,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -4950,7 +4979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -5033,7 +5062,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5046,23 +5075,23 @@
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.81640625"/>
+    <col min="13" max="21" width="8.85546875"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.36328125" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5082,22 +5111,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>222</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>226</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -5133,15 +5162,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -5150,7 +5179,7 @@
         <v>25000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -5165,10 +5194,10 @@
         <v>1100</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>31</v>
@@ -5200,21 +5229,21 @@
         <v>5</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D3" s="17">
         <v>5000</v>
@@ -5223,7 +5252,7 @@
         <v>40000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -5238,10 +5267,10 @@
         <v>36000</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>31</v>
@@ -5272,21 +5301,21 @@
         <v>5</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W3" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D4" s="17">
         <v>5000</v>
@@ -5295,7 +5324,7 @@
         <v>100000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -5310,10 +5339,10 @@
         <v>100000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>31</v>
@@ -5345,19 +5374,19 @@
         <v>5</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="U7" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5369,16 +5398,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="21.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5425,7 +5454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>97</v>
       </c>
@@ -5473,7 +5502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -5521,7 +5550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -5569,7 +5598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -5620,7 +5649,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5633,16 +5662,16 @@
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="15" max="15" width="29.6328125" customWidth="1"/>
+    <col min="15" max="15" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5689,7 +5718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,7 +5767,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5751,20 +5780,20 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.36328125" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5865,7 +5894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -5970,7 +5999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -6078,7 +6107,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6087,19 +6116,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="5" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6146,7 +6175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6197,30 +6226,34 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="11" width="16.453125" customWidth="1"/>
-    <col min="18" max="18" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -6252,7 +6285,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -6288,30 +6321,30 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
       </c>
       <c r="F2" s="17">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="22">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="I2" s="2">
         <v>26.5</v>
@@ -6325,13 +6358,12 @@
       <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2">
-        <f>20300/0.902</f>
-        <v>22505.543237250553</v>
-      </c>
-      <c r="N2" s="2">
-        <f>0.275/0.902</f>
-        <v>0.3048780487804878</v>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>260/1.176/1000</f>
+        <v>0.22108843537414966</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
@@ -6351,35 +6383,34 @@
       <c r="T2" s="2">
         <v>5</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U2" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="17">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="F3" s="17">
-        <v>730000</v>
+        <v>30000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="22">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I3" s="2">
         <v>26.5</v>
@@ -6393,13 +6424,12 @@
       <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="2">
-        <f>35100/0.902</f>
-        <v>38913.525498891351</v>
-      </c>
-      <c r="N3" s="2">
-        <f>0.11/0.902</f>
-        <v>0.12195121951219512</v>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>150/1.176/1000</f>
+        <v>0.12755102040816327</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -6419,35 +6449,34 @@
       <c r="T3" s="2">
         <v>5</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U3" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="17">
-        <v>730000</v>
+        <v>30000</v>
       </c>
       <c r="F4" s="17">
-        <v>10000000000</v>
+        <v>60000</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="22">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="I4" s="2">
         <v>26.5</v>
@@ -6461,13 +6490,12 @@
       <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2">
-        <f>84000/0.902</f>
-        <v>93126.385809312633</v>
-      </c>
-      <c r="N4" s="2">
-        <f>0.014/0.902</f>
-        <v>1.5521064301552106E-2</v>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>130/1.176/1000</f>
+        <v>0.11054421768707483</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
@@ -6487,35 +6515,34 @@
       <c r="T4" s="2">
         <v>5</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U4" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" s="17">
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="F5" s="17">
-        <v>90000</v>
+        <v>10000000000</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="22">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="I5" s="2">
         <v>26.5</v>
@@ -6529,13 +6556,12 @@
       <c r="L5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="2">
-        <f>20300/0.902</f>
-        <v>22505.543237250553</v>
-      </c>
-      <c r="N5" s="2">
-        <f>0.275/0.902</f>
-        <v>0.3048780487804878</v>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>125/1.176/1000</f>
+        <v>0.10629251700680273</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -6555,35 +6581,34 @@
       <c r="T5" s="2">
         <v>5</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U5" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="17">
-        <v>90000</v>
+        <v>1</v>
       </c>
       <c r="F6" s="17">
-        <v>730000</v>
+        <v>20000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="22">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="I6" s="2">
         <v>26.5</v>
@@ -6597,13 +6622,12 @@
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="2">
-        <f>35100/0.902</f>
-        <v>38913.525498891351</v>
-      </c>
-      <c r="N6" s="2">
-        <f>0.11/0.902</f>
-        <v>0.12195121951219512</v>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>786/1.176/1000</f>
+        <v>0.66836734693877553</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -6623,35 +6647,37 @@
       <c r="T6" s="2">
         <v>5</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U6" t="s">
+        <v>253</v>
+      </c>
+      <c r="V6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="17">
-        <v>730000</v>
+        <v>20000</v>
       </c>
       <c r="F7" s="17">
-        <v>10000000000</v>
+        <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="22">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="I7" s="2">
         <v>26.5</v>
@@ -6665,13 +6691,12 @@
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="2">
-        <f>84000/0.902</f>
-        <v>93126.385809312633</v>
-      </c>
-      <c r="N7" s="2">
-        <f>0.014/0.902</f>
-        <v>1.5521064301552106E-2</v>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>520/1.176/1000</f>
+        <v>0.44217687074829931</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -6691,35 +6716,37 @@
       <c r="T7" s="2">
         <v>5</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="11" t="s">
+      <c r="U7" t="s">
+        <v>254</v>
+      </c>
+      <c r="V7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="17">
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="F8" s="17">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="22">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I8" s="2">
         <v>26.5</v>
@@ -6728,18 +6755,17 @@
         <v>82</v>
       </c>
       <c r="K8" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="2">
-        <f>20300/0.902</f>
-        <v>22505.543237250553</v>
-      </c>
-      <c r="N8" s="2">
-        <f>0.275/0.902</f>
-        <v>0.3048780487804878</v>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>402/1.176/1000</f>
+        <v>0.3418367346938776</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -6759,35 +6785,37 @@
       <c r="T8" s="2">
         <v>5</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="11" t="s">
+      <c r="U8" t="s">
+        <v>255</v>
+      </c>
+      <c r="V8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="17">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="F9" s="17">
-        <v>730000</v>
+        <v>10000000000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="22">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="I9" s="2">
         <v>26.5</v>
@@ -6796,18 +6824,17 @@
         <v>82</v>
       </c>
       <c r="K9" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="2">
-        <f>35100/0.902</f>
-        <v>38913.525498891351</v>
-      </c>
-      <c r="N9" s="2">
-        <f>0.11/0.902</f>
-        <v>0.12195121951219512</v>
+      <c r="M9" s="53">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>187/1.176/1000</f>
+        <v>0.15901360544217688</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
@@ -6827,35 +6854,37 @@
       <c r="T9" s="2">
         <v>5</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U9" t="s">
+        <v>255</v>
+      </c>
+      <c r="V9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="17">
-        <v>730000</v>
+        <v>1</v>
       </c>
       <c r="F10" s="17">
-        <v>10000000000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="22">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I10" s="2">
         <v>26.5</v>
@@ -6864,18 +6893,17 @@
         <v>82</v>
       </c>
       <c r="K10" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="2">
-        <f>84000/0.902</f>
-        <v>93126.385809312633</v>
-      </c>
-      <c r="N10" s="2">
-        <f>0.014/0.902</f>
-        <v>1.5521064301552106E-2</v>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>260/1.176/1000</f>
+        <v>0.22108843537414966</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -6895,59 +6923,708 @@
       <c r="T10" s="2">
         <v>5</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="U10" t="s">
+        <v>253</v>
+      </c>
+      <c r="V10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="17">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="17">
+        <v>30000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="I11" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>82</v>
+      </c>
+      <c r="K11" s="2">
+        <v>126</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>150/1.176/1000</f>
+        <v>0.12755102040816327</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>20</v>
+      </c>
+      <c r="S11" s="2">
+        <v>5</v>
+      </c>
+      <c r="T11" s="2">
+        <v>5</v>
+      </c>
+      <c r="U11" t="s">
+        <v>254</v>
+      </c>
+      <c r="V11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="17">
+        <v>30000</v>
+      </c>
+      <c r="F12" s="17">
+        <v>60000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="I12" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>82</v>
+      </c>
+      <c r="K12" s="2">
+        <v>126</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>130/1.176/1000</f>
+        <v>0.11054421768707483</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>20</v>
+      </c>
+      <c r="S12" s="2">
+        <v>5</v>
+      </c>
+      <c r="T12" s="2">
+        <v>5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>255</v>
+      </c>
+      <c r="V12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="17">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="I13" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>82</v>
+      </c>
+      <c r="K13" s="2">
+        <v>126</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>125/1.176/1000</f>
+        <v>0.10629251700680273</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>20</v>
+      </c>
+      <c r="S13" s="2">
+        <v>5</v>
+      </c>
+      <c r="T13" s="2">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>255</v>
+      </c>
+      <c r="V13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="49">
+        <v>1</v>
+      </c>
+      <c r="F14" s="49">
+        <v>10000000000</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="50">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>82</v>
+      </c>
+      <c r="K14" s="2">
+        <v>126</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>342/1.176/1000</f>
+        <v>0.29081632653061229</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>20</v>
+      </c>
+      <c r="S14" s="2">
+        <v>6</v>
+      </c>
+      <c r="T14" s="2">
+        <v>5</v>
+      </c>
+      <c r="U14" t="s">
+        <v>255</v>
+      </c>
+      <c r="V14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="49">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49">
+        <v>30000</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="50">
+        <v>0.94</v>
+      </c>
+      <c r="I15" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>82</v>
+      </c>
+      <c r="K15" s="2">
+        <v>126</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>1115/1.176/1000</f>
+        <v>0.94812925170068041</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>20</v>
+      </c>
+      <c r="S15" s="2">
+        <v>6</v>
+      </c>
+      <c r="T15" s="2">
+        <v>5</v>
+      </c>
+      <c r="U15" t="s">
+        <v>256</v>
+      </c>
+      <c r="V15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="49">
+        <v>30000</v>
+      </c>
+      <c r="F16" s="49">
+        <v>60000</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.94</v>
+      </c>
+      <c r="I16" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>82</v>
+      </c>
+      <c r="K16" s="2">
+        <v>126</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>533/1.176/1000</f>
+        <v>0.45323129251700683</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>20</v>
+      </c>
+      <c r="S16" s="2">
+        <v>6</v>
+      </c>
+      <c r="T16" s="2">
+        <v>5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>257</v>
+      </c>
+      <c r="V16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="49">
+        <v>60000</v>
+      </c>
+      <c r="F17" s="49">
+        <v>230000</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="50">
+        <v>0.94</v>
+      </c>
+      <c r="I17" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>82</v>
+      </c>
+      <c r="K17" s="2">
+        <v>126</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>234/1.176/1000</f>
+        <v>0.19897959183673469</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>20</v>
+      </c>
+      <c r="S17" s="2">
+        <v>6</v>
+      </c>
+      <c r="T17" s="2">
+        <v>5</v>
+      </c>
+      <c r="U17" t="s">
+        <v>258</v>
+      </c>
+      <c r="V17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="D18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="49">
+        <v>1</v>
+      </c>
+      <c r="F18" s="49">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="51">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J18" s="2">
+        <v>82</v>
+      </c>
+      <c r="K18" s="2">
+        <v>126</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>744/1.176/1000</f>
+        <v>0.63265306122448983</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>20</v>
+      </c>
+      <c r="S18" s="2">
+        <v>6</v>
+      </c>
+      <c r="T18" s="2">
+        <v>5</v>
+      </c>
+      <c r="U18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="46" t="s">
+      <c r="C19" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" t="s">
         <v>248</v>
+      </c>
+      <c r="E19" s="49">
+        <v>20000</v>
+      </c>
+      <c r="F19" s="49">
+        <v>60000</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="51">
+        <v>0.85</v>
+      </c>
+      <c r="I19" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J19" s="2">
+        <v>82</v>
+      </c>
+      <c r="K19" s="2">
+        <v>126</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>405/1.176/1000</f>
+        <v>0.34438775510204084</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>20</v>
+      </c>
+      <c r="S19" s="2">
+        <v>6</v>
+      </c>
+      <c r="T19" s="2">
+        <v>5</v>
+      </c>
+      <c r="U19" t="s">
+        <v>260</v>
+      </c>
+      <c r="V19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="49">
+        <v>60000</v>
+      </c>
+      <c r="F20" s="49">
+        <v>1000000000</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="51">
+        <v>0.81</v>
+      </c>
+      <c r="I20" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>82</v>
+      </c>
+      <c r="K20" s="2">
+        <v>126</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>304/1.176/1000</f>
+        <v>0.25850340136054423</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="45">
+        <v>20</v>
+      </c>
+      <c r="S20" s="45">
+        <v>6</v>
+      </c>
+      <c r="T20" s="45">
+        <v>5</v>
+      </c>
+      <c r="U20" t="s">
+        <v>261</v>
+      </c>
+      <c r="V20" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6960,20 +7637,20 @@
       <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.6328125" customWidth="1"/>
-    <col min="8" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6328125" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.453125" customWidth="1"/>
+    <col min="6" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6984,7 +7661,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>3</v>
@@ -6996,19 +7673,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K1" s="39" t="s">
         <v>140</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -7044,18 +7721,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="17">
         <v>850000</v>
@@ -7109,24 +7786,24 @@
         <v>5</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="17">
         <v>2600000</v>
@@ -7180,24 +7857,24 @@
         <v>5</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="24">
         <v>3500000</v>
@@ -7251,24 +7928,24 @@
         <v>5</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="25">
         <v>180000</v>
@@ -7322,24 +7999,24 @@
         <v>5</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" s="25">
         <v>280000</v>
@@ -7393,24 +8070,24 @@
         <v>5</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" s="25">
         <v>900000</v>
@@ -7464,24 +8141,24 @@
         <v>5</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W7" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="E8" s="25">
         <v>1000000</v>
@@ -7538,21 +8215,21 @@
         <v>84</v>
       </c>
       <c r="W8" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="B9" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" s="25">
         <v>5000000</v>
@@ -7609,21 +8286,21 @@
         <v>84</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" s="25">
         <v>1000000</v>
@@ -7680,21 +8357,21 @@
         <v>84</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="25">
         <v>30000000</v>
@@ -7752,16 +8429,16 @@
         <v>84</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -7774,19 +8451,19 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="10" width="15.81640625" customWidth="1"/>
+    <col min="7" max="10" width="15.85546875" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="111.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="111.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7806,16 +8483,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>190</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>192</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>17</v>
@@ -7851,7 +8528,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -7859,7 +8536,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -7877,10 +8554,10 @@
         <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>31</v>
@@ -7915,10 +8592,10 @@
         <v>84</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -7926,7 +8603,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="17">
         <v>80000</v>
@@ -7944,10 +8621,10 @@
         <v>160</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>31</v>
@@ -7981,10 +8658,10 @@
         <v>84</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -7992,7 +8669,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="24">
         <v>100000</v>
@@ -8010,10 +8687,10 @@
         <v>160</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>31</v>
@@ -8048,18 +8725,18 @@
         <v>84</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -8068,7 +8745,7 @@
         <v>500</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -8102,13 +8779,13 @@
         <v>5</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -8121,21 +8798,21 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8143,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>2</v>
@@ -8203,7 +8880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -8271,7 +8948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -8341,7 +9018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -8411,7 +9088,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -8481,7 +9158,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -8551,7 +9228,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -8619,16 +9296,16 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P15" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -8641,20 +9318,20 @@
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
-    <col min="11" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8755,7 +9432,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
@@ -8856,7 +9533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -8957,7 +9634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
@@ -9058,7 +9735,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -9159,7 +9836,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -9260,7 +9937,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
@@ -9362,7 +10039,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -9375,23 +10052,23 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9459,7 +10136,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -9527,7 +10204,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -9595,7 +10272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -9663,7 +10340,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -9731,7 +10408,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9739,7 +10416,7 @@
       <c r="K6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -9750,7 +10427,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CEF1B-A8E7-41F1-982E-5A9B70AB2C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC5228D-93AA-466A-9986-2AF12E91CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="993" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="993" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="263">
   <si>
     <t>Description</t>
   </si>
@@ -837,6 +837,9 @@
   </si>
   <si>
     <t>1,176 EUR 2022 = 1 USD 2025</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass-flow rates</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1090,6 +1093,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1098,7 +1110,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,9 +1157,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1243,10 +1252,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1718,85 +1724,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2753,67 +2759,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2985,73 +2991,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="39" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3092,7 +3098,7 @@
       <c r="L2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N2" s="2">
@@ -3121,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="V2" s="14"/>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3162,7 +3168,7 @@
       <c r="L3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="2">
@@ -3191,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="V3" s="14"/>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3232,7 +3238,7 @@
       <c r="L4" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="2">
@@ -3261,7 +3267,7 @@
         <v>6</v>
       </c>
       <c r="V4" s="14"/>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3302,7 +3308,7 @@
       <c r="L5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N5" s="2">
@@ -3331,7 +3337,7 @@
         <v>6</v>
       </c>
       <c r="V5" s="14"/>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3372,7 +3378,7 @@
       <c r="L6" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="2">
@@ -3401,7 +3407,7 @@
         <v>6</v>
       </c>
       <c r="V6" s="14"/>
-      <c r="W6" s="27" t="s">
+      <c r="W6" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3442,7 +3448,7 @@
       <c r="L7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="2">
@@ -3471,7 +3477,7 @@
         <v>6</v>
       </c>
       <c r="V7" s="14"/>
-      <c r="W7" s="27" t="s">
+      <c r="W7" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3512,7 +3518,7 @@
       <c r="L8" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="2">
@@ -3541,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="V8" s="14"/>
-      <c r="W8" s="27" t="s">
+      <c r="W8" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3582,7 +3588,7 @@
       <c r="L9" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="2">
@@ -3611,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="V9" s="14"/>
-      <c r="W9" s="27" t="s">
+      <c r="W9" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3652,7 +3658,7 @@
       <c r="L10" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="2">
@@ -3681,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="V10" s="14"/>
-      <c r="W10" s="27" t="s">
+      <c r="W10" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3722,7 +3728,7 @@
       <c r="L11" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="2">
@@ -3751,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="V11" s="14"/>
-      <c r="W11" s="27" t="s">
+      <c r="W11" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4416,82 +4422,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5092,73 +5098,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="39" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5231,7 +5237,7 @@
       <c r="V2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="26" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5303,7 +5309,7 @@
       <c r="V3" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="26" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5376,13 +5382,13 @@
       <c r="V4" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="26" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="U7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="U7" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5408,54 +5414,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5794,103 +5800,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="36" t="s">
+      <c r="W1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AD1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AE1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6129,49 +6135,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6235,7 +6241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -6343,7 +6349,7 @@
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>0.93</v>
       </c>
       <c r="I2" s="2">
@@ -6409,7 +6415,7 @@
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>0.95</v>
       </c>
       <c r="I3" s="2">
@@ -6475,7 +6481,7 @@
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>0.95</v>
       </c>
       <c r="I4" s="2">
@@ -6541,7 +6547,7 @@
       <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>0.95</v>
       </c>
       <c r="I5" s="2">
@@ -6607,7 +6613,7 @@
       <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>0.92</v>
       </c>
       <c r="I6" s="2">
@@ -6676,7 +6682,7 @@
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>0.93</v>
       </c>
       <c r="I7" s="2">
@@ -6745,7 +6751,7 @@
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>0.93</v>
       </c>
       <c r="I8" s="2">
@@ -6814,7 +6820,7 @@
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>0.93</v>
       </c>
       <c r="I9" s="2">
@@ -6829,7 +6835,7 @@
       <c r="L9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="44">
         <v>0</v>
       </c>
       <c r="N9">
@@ -6883,7 +6889,7 @@
       <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>0.93</v>
       </c>
       <c r="I10" s="2">
@@ -6952,7 +6958,7 @@
       <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>0.95</v>
       </c>
       <c r="I11" s="2">
@@ -7021,7 +7027,7 @@
       <c r="G12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>0.95</v>
       </c>
       <c r="I12" s="2">
@@ -7072,7 +7078,7 @@
       <c r="A13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -7090,7 +7096,7 @@
       <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <v>0.95</v>
       </c>
       <c r="I13" s="2">
@@ -7138,28 +7144,28 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>237</v>
       </c>
       <c r="D14" t="s">
         <v>246</v>
       </c>
-      <c r="E14" s="49">
-        <v>1</v>
-      </c>
-      <c r="F14" s="49">
+      <c r="E14" s="48">
+        <v>1</v>
+      </c>
+      <c r="F14" s="48">
         <v>10000000000</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <v>1</v>
       </c>
       <c r="I14" s="2">
@@ -7207,28 +7213,28 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>238</v>
       </c>
       <c r="D15" t="s">
         <v>247</v>
       </c>
-      <c r="E15" s="49">
-        <v>1</v>
-      </c>
-      <c r="F15" s="49">
+      <c r="E15" s="48">
+        <v>1</v>
+      </c>
+      <c r="F15" s="48">
         <v>30000</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="49">
         <v>0.94</v>
       </c>
       <c r="I15" s="2">
@@ -7276,28 +7282,28 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>238</v>
       </c>
       <c r="D16" t="s">
         <v>247</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="48">
         <v>30000</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="48">
         <v>60000</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <v>0.94</v>
       </c>
       <c r="I16" s="2">
@@ -7345,28 +7351,28 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>238</v>
       </c>
       <c r="D17" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="48">
         <v>60000</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <v>230000</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="49">
         <v>0.94</v>
       </c>
       <c r="I17" s="2">
@@ -7414,28 +7420,28 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>240</v>
       </c>
       <c r="D18" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="49">
-        <v>1</v>
-      </c>
-      <c r="F18" s="49">
+      <c r="E18" s="48">
+        <v>1</v>
+      </c>
+      <c r="F18" s="48">
         <v>20000</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="50">
         <v>0.9</v>
       </c>
       <c r="I18" s="2">
@@ -7483,28 +7489,28 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>240</v>
       </c>
       <c r="D19" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="48">
         <v>20000</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="48">
         <v>60000</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="50">
         <v>0.85</v>
       </c>
       <c r="I19" s="2">
@@ -7552,28 +7558,28 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>240</v>
       </c>
       <c r="D20" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="48">
         <v>60000</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="48">
         <v>1000000000</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="50">
         <v>0.81</v>
       </c>
       <c r="I20" s="2">
@@ -7604,13 +7610,13 @@
       <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="44">
         <v>20</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="44">
         <v>6</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="44">
         <v>5</v>
       </c>
       <c r="U20" t="s">
@@ -7651,73 +7657,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7743,16 +7749,16 @@
       <c r="G2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
         <v>0.4</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <v>0.47</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="33">
         <v>380</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="32">
         <v>100</v>
       </c>
       <c r="L2" s="12">
@@ -7788,7 +7794,7 @@
       <c r="V2" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="30" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7796,31 +7802,31 @@
       <c r="A3" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>162</v>
       </c>
       <c r="E3" s="17">
         <v>2600000</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>3500000</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>0.43</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>0.44</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="34">
         <v>380</v>
       </c>
       <c r="K3" s="12">
@@ -7859,7 +7865,7 @@
       <c r="V3" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="30" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7876,22 +7882,22 @@
       <c r="D4" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>3500000</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>10000000</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>0.45500000000000002</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>0.43</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <v>380</v>
       </c>
       <c r="K4" s="11">
@@ -7930,7 +7936,7 @@
       <c r="V4" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="30" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7947,22 +7953,22 @@
       <c r="D5" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>180000</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>280000</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <v>0.35</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>0.39</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <v>380</v>
       </c>
       <c r="K5" s="11">
@@ -8001,7 +8007,7 @@
       <c r="V5" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="W5" s="30" t="s">
         <v>178</v>
       </c>
     </row>
@@ -8018,22 +8024,22 @@
       <c r="D6" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>280000</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>900000</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>0.39</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>0.4</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="33">
         <v>380</v>
       </c>
       <c r="K6" s="11">
@@ -8072,7 +8078,7 @@
       <c r="V6" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="W6" s="31" t="s">
+      <c r="W6" s="30" t="s">
         <v>178</v>
       </c>
     </row>
@@ -8089,22 +8095,22 @@
       <c r="D7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>900000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>2600000</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="29">
         <v>0.42</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>0.41</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <v>380</v>
       </c>
       <c r="K7" s="11">
@@ -8143,7 +8149,7 @@
       <c r="V7" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="W7" s="31" t="s">
+      <c r="W7" s="30" t="s">
         <v>178</v>
       </c>
     </row>
@@ -8160,22 +8166,22 @@
       <c r="D8" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>1000000</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>5000000</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>0.15</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>0.65</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="33">
         <v>380</v>
       </c>
       <c r="K8" s="11">
@@ -8190,7 +8196,7 @@
       <c r="N8" s="11">
         <v>0</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <v>0.74299999999999999</v>
       </c>
       <c r="P8" s="11">
@@ -8214,7 +8220,7 @@
       <c r="V8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="W8" s="27" t="s">
+      <c r="W8" s="26" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8231,22 +8237,22 @@
       <c r="D9" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>5000000</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>50000000</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>0.17</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>0.67</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <v>380</v>
       </c>
       <c r="K9" s="11">
@@ -8285,7 +8291,7 @@
       <c r="V9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="W9" s="27" t="s">
+      <c r="W9" s="26" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8302,22 +8308,22 @@
       <c r="D10" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>1000000</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>50000000</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>0.18</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>0.8</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="33">
         <v>380</v>
       </c>
       <c r="K10" s="11">
@@ -8332,7 +8338,7 @@
       <c r="N10" s="11">
         <v>0</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="25">
         <v>0.74299999999999999</v>
       </c>
       <c r="P10" s="11">
@@ -8356,7 +8362,7 @@
       <c r="V10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="W10" s="27" t="s">
+      <c r="W10" s="26" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8373,22 +8379,22 @@
       <c r="D11" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>30000000</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>150000000</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>0.62</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="33">
         <v>380</v>
       </c>
       <c r="K11" s="11">
@@ -8428,7 +8434,7 @@
       <c r="V11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="W11" s="27" t="s">
+      <c r="W11" s="26" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8464,67 +8470,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="39" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8591,7 +8597,7 @@
       <c r="T2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="26" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8657,7 +8663,7 @@
       <c r="T3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="26" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8671,10 +8677,10 @@
       <c r="C4" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>100000</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>10000000000</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -8724,7 +8730,7 @@
       <c r="T4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="26" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8813,70 +8819,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8958,7 +8964,7 @@
       <c r="C3" s="11">
         <v>0.4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="17">
@@ -9028,7 +9034,7 @@
       <c r="C4" s="11">
         <v>0.4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E4" s="17">
@@ -9098,7 +9104,7 @@
       <c r="C5" s="11">
         <v>0.4</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E5" s="17">
@@ -9168,7 +9174,7 @@
       <c r="C6" s="11">
         <v>0.4</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E6" s="17">
@@ -9238,7 +9244,7 @@
       <c r="C7" s="11">
         <v>0.4</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E7" s="17">
@@ -9314,8 +9320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9524,13 +9530,13 @@
         <v>1.5</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>128</v>
+        <v>3.23</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>2.14</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -9627,10 +9633,10 @@
       <c r="AE3" s="2">
         <v>81</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="14">
         <v>33</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9725,14 +9731,14 @@
       <c r="AD4" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE4" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>128</v>
+      <c r="AE4" s="14">
+        <v>3.74</v>
+      </c>
+      <c r="AF4" s="51">
+        <v>2.5</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -9829,10 +9835,10 @@
       <c r="AE5" s="2">
         <v>68</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="14">
         <v>14</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AG5" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9927,14 +9933,14 @@
       <c r="AD6" s="2">
         <v>4.38</v>
       </c>
-      <c r="AE6" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>14</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>128</v>
+      <c r="AE6" s="14">
+        <v>646</v>
+      </c>
+      <c r="AF6" s="51">
+        <v>431</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -10031,10 +10037,10 @@
       <c r="AE7" s="2">
         <v>62</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="14">
         <v>10</v>
       </c>
-      <c r="AG7" s="18"/>
+      <c r="AG7" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -10069,70 +10075,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="39" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10155,7 +10161,7 @@
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>1.26E-2</v>
       </c>
       <c r="H2" s="2">
@@ -10223,7 +10229,7 @@
       <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>1.26E-2</v>
       </c>
       <c r="H3" s="12">
@@ -10291,7 +10297,7 @@
       <c r="F4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>3.15E-2</v>
       </c>
       <c r="H4" s="12">
@@ -10359,7 +10365,7 @@
       <c r="F5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>3.15E-2</v>
       </c>
       <c r="H5" s="11">
@@ -10377,7 +10383,7 @@
       <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <v>1457.3</v>
       </c>
       <c r="N5" s="2">
@@ -10422,7 +10428,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="V7" s="21"/>
+      <c r="V7" s="20"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC5228D-93AA-466A-9986-2AF12E91CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD31A90-34DC-0B43-BE62-65915A182A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="993" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="38640" windowHeight="21240" tabRatio="993" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -907,7 +907,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,14 +926,8 @@
         <bgColor indexed="40"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1085,15 +1079,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="59"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="59"/>
       </left>
@@ -1110,7 +1095,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1230,29 +1215,10 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1261,7 +1227,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1701,29 +1667,28 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="17" width="12.42578125" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="23" width="10.42578125" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="10" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="17" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="13.5" customWidth="1"/>
+    <col min="21" max="23" width="10.5" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="12.5" customWidth="1"/>
+    <col min="27" max="27" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1974,7 +1939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2058,7 +2023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,7 +2107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,7 +2191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,7 +2275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2394,7 +2359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2478,7 +2443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2578,16 +2543,16 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2599,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>231</v>
       </c>
@@ -2680,7 +2645,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>231</v>
       </c>
@@ -2744,21 +2709,21 @@
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2788,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -2888,7 +2853,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -2953,10 +2918,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O9" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O11" s="10"/>
     </row>
   </sheetData>
@@ -2972,25 +2937,25 @@
       <selection activeCell="V8" sqref="V8:V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -3061,7 +3026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -3131,7 +3096,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -3201,7 +3166,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -3271,7 +3236,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -3341,7 +3306,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -3411,7 +3376,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>196</v>
       </c>
@@ -3481,7 +3446,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>195</v>
       </c>
@@ -3551,7 +3516,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>195</v>
       </c>
@@ -3621,7 +3586,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>195</v>
       </c>
@@ -3691,7 +3656,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>195</v>
       </c>
@@ -3777,651 +3742,587 @@
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="5" width="19.5" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43.42578125" customWidth="1"/>
-    <col min="258" max="258" width="12.5703125" customWidth="1"/>
-    <col min="259" max="259" width="19.5703125" customWidth="1"/>
-    <col min="260" max="261" width="19.42578125" customWidth="1"/>
+    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.5" customWidth="1"/>
+    <col min="258" max="258" width="12.5" customWidth="1"/>
+    <col min="259" max="261" width="19.5" customWidth="1"/>
     <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.5" bestFit="1" customWidth="1"/>
     <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="7" customWidth="1"/>
-    <col min="282" max="282" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="43.42578125" customWidth="1"/>
-    <col min="514" max="514" width="12.5703125" customWidth="1"/>
-    <col min="515" max="515" width="19.5703125" customWidth="1"/>
-    <col min="516" max="517" width="19.42578125" customWidth="1"/>
+    <col min="282" max="282" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.5" customWidth="1"/>
+    <col min="514" max="514" width="12.5" customWidth="1"/>
+    <col min="515" max="517" width="19.5" customWidth="1"/>
     <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.5" bestFit="1" customWidth="1"/>
     <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="536" max="536" width="7" customWidth="1"/>
-    <col min="538" max="538" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="43.42578125" customWidth="1"/>
-    <col min="770" max="770" width="12.5703125" customWidth="1"/>
-    <col min="771" max="771" width="19.5703125" customWidth="1"/>
-    <col min="772" max="773" width="19.42578125" customWidth="1"/>
+    <col min="538" max="538" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.5" customWidth="1"/>
+    <col min="770" max="770" width="12.5" customWidth="1"/>
+    <col min="771" max="773" width="19.5" customWidth="1"/>
     <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.5" bestFit="1" customWidth="1"/>
     <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="792" max="792" width="7" customWidth="1"/>
-    <col min="794" max="794" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="43.42578125" customWidth="1"/>
-    <col min="1026" max="1026" width="12.5703125" customWidth="1"/>
-    <col min="1027" max="1027" width="19.5703125" customWidth="1"/>
-    <col min="1028" max="1029" width="19.42578125" customWidth="1"/>
+    <col min="794" max="794" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.5" customWidth="1"/>
+    <col min="1026" max="1026" width="12.5" customWidth="1"/>
+    <col min="1027" max="1029" width="19.5" customWidth="1"/>
     <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.5" bestFit="1" customWidth="1"/>
     <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1046" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="1048" max="1048" width="7" customWidth="1"/>
-    <col min="1050" max="1050" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="43.42578125" customWidth="1"/>
-    <col min="1282" max="1282" width="12.5703125" customWidth="1"/>
-    <col min="1283" max="1283" width="19.5703125" customWidth="1"/>
-    <col min="1284" max="1285" width="19.42578125" customWidth="1"/>
+    <col min="1050" max="1050" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.5" customWidth="1"/>
+    <col min="1282" max="1282" width="12.5" customWidth="1"/>
+    <col min="1283" max="1285" width="19.5" customWidth="1"/>
     <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.5" bestFit="1" customWidth="1"/>
     <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1302" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="1304" max="1304" width="7" customWidth="1"/>
-    <col min="1306" max="1306" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="43.42578125" customWidth="1"/>
-    <col min="1538" max="1538" width="12.5703125" customWidth="1"/>
-    <col min="1539" max="1539" width="19.5703125" customWidth="1"/>
-    <col min="1540" max="1541" width="19.42578125" customWidth="1"/>
+    <col min="1306" max="1306" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.5" customWidth="1"/>
+    <col min="1538" max="1538" width="12.5" customWidth="1"/>
+    <col min="1539" max="1541" width="19.5" customWidth="1"/>
     <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.5" bestFit="1" customWidth="1"/>
     <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1558" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="1560" max="1560" width="7" customWidth="1"/>
-    <col min="1562" max="1562" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="43.42578125" customWidth="1"/>
-    <col min="1794" max="1794" width="12.5703125" customWidth="1"/>
-    <col min="1795" max="1795" width="19.5703125" customWidth="1"/>
-    <col min="1796" max="1797" width="19.42578125" customWidth="1"/>
+    <col min="1562" max="1562" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.5" customWidth="1"/>
+    <col min="1794" max="1794" width="12.5" customWidth="1"/>
+    <col min="1795" max="1797" width="19.5" customWidth="1"/>
     <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.5" bestFit="1" customWidth="1"/>
     <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
-    <col min="1814" max="1814" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="1816" max="1816" width="7" customWidth="1"/>
-    <col min="1818" max="1818" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="43.42578125" customWidth="1"/>
-    <col min="2050" max="2050" width="12.5703125" customWidth="1"/>
-    <col min="2051" max="2051" width="19.5703125" customWidth="1"/>
-    <col min="2052" max="2053" width="19.42578125" customWidth="1"/>
+    <col min="1818" max="1818" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.5" customWidth="1"/>
+    <col min="2050" max="2050" width="12.5" customWidth="1"/>
+    <col min="2051" max="2053" width="19.5" customWidth="1"/>
     <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2070" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2072" max="2072" width="7" customWidth="1"/>
-    <col min="2074" max="2074" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="43.42578125" customWidth="1"/>
-    <col min="2306" max="2306" width="12.5703125" customWidth="1"/>
-    <col min="2307" max="2307" width="19.5703125" customWidth="1"/>
-    <col min="2308" max="2309" width="19.42578125" customWidth="1"/>
+    <col min="2074" max="2074" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.5" customWidth="1"/>
+    <col min="2306" max="2306" width="12.5" customWidth="1"/>
+    <col min="2307" max="2309" width="19.5" customWidth="1"/>
     <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2326" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2328" max="2328" width="7" customWidth="1"/>
-    <col min="2330" max="2330" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="43.42578125" customWidth="1"/>
-    <col min="2562" max="2562" width="12.5703125" customWidth="1"/>
-    <col min="2563" max="2563" width="19.5703125" customWidth="1"/>
-    <col min="2564" max="2565" width="19.42578125" customWidth="1"/>
+    <col min="2330" max="2330" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.5" customWidth="1"/>
+    <col min="2562" max="2562" width="12.5" customWidth="1"/>
+    <col min="2563" max="2565" width="19.5" customWidth="1"/>
     <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2582" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2584" max="2584" width="7" customWidth="1"/>
-    <col min="2586" max="2586" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="43.42578125" customWidth="1"/>
-    <col min="2818" max="2818" width="12.5703125" customWidth="1"/>
-    <col min="2819" max="2819" width="19.5703125" customWidth="1"/>
-    <col min="2820" max="2821" width="19.42578125" customWidth="1"/>
+    <col min="2586" max="2586" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.5" customWidth="1"/>
+    <col min="2818" max="2818" width="12.5" customWidth="1"/>
+    <col min="2819" max="2821" width="19.5" customWidth="1"/>
     <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
-    <col min="2838" max="2838" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2840" max="2840" width="7" customWidth="1"/>
-    <col min="2842" max="2842" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="43.42578125" customWidth="1"/>
-    <col min="3074" max="3074" width="12.5703125" customWidth="1"/>
-    <col min="3075" max="3075" width="19.5703125" customWidth="1"/>
-    <col min="3076" max="3077" width="19.42578125" customWidth="1"/>
+    <col min="2842" max="2842" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.5" customWidth="1"/>
+    <col min="3074" max="3074" width="12.5" customWidth="1"/>
+    <col min="3075" max="3077" width="19.5" customWidth="1"/>
     <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3094" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3096" max="3096" width="7" customWidth="1"/>
-    <col min="3098" max="3098" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="43.42578125" customWidth="1"/>
-    <col min="3330" max="3330" width="12.5703125" customWidth="1"/>
-    <col min="3331" max="3331" width="19.5703125" customWidth="1"/>
-    <col min="3332" max="3333" width="19.42578125" customWidth="1"/>
+    <col min="3098" max="3098" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.5" customWidth="1"/>
+    <col min="3330" max="3330" width="12.5" customWidth="1"/>
+    <col min="3331" max="3333" width="19.5" customWidth="1"/>
     <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3350" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3352" max="3352" width="7" customWidth="1"/>
-    <col min="3354" max="3354" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="43.42578125" customWidth="1"/>
-    <col min="3586" max="3586" width="12.5703125" customWidth="1"/>
-    <col min="3587" max="3587" width="19.5703125" customWidth="1"/>
-    <col min="3588" max="3589" width="19.42578125" customWidth="1"/>
+    <col min="3354" max="3354" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.5" customWidth="1"/>
+    <col min="3586" max="3586" width="12.5" customWidth="1"/>
+    <col min="3587" max="3589" width="19.5" customWidth="1"/>
     <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3606" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3608" max="3608" width="7" customWidth="1"/>
-    <col min="3610" max="3610" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="43.42578125" customWidth="1"/>
-    <col min="3842" max="3842" width="12.5703125" customWidth="1"/>
-    <col min="3843" max="3843" width="19.5703125" customWidth="1"/>
-    <col min="3844" max="3845" width="19.42578125" customWidth="1"/>
+    <col min="3610" max="3610" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.5" customWidth="1"/>
+    <col min="3842" max="3842" width="12.5" customWidth="1"/>
+    <col min="3843" max="3845" width="19.5" customWidth="1"/>
     <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
-    <col min="3862" max="3862" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3864" max="3864" width="7" customWidth="1"/>
-    <col min="3866" max="3866" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="43.42578125" customWidth="1"/>
-    <col min="4098" max="4098" width="12.5703125" customWidth="1"/>
-    <col min="4099" max="4099" width="19.5703125" customWidth="1"/>
-    <col min="4100" max="4101" width="19.42578125" customWidth="1"/>
+    <col min="3866" max="3866" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.5" customWidth="1"/>
+    <col min="4098" max="4098" width="12.5" customWidth="1"/>
+    <col min="4099" max="4101" width="19.5" customWidth="1"/>
     <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4118" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4120" max="4120" width="7" customWidth="1"/>
-    <col min="4122" max="4122" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="43.42578125" customWidth="1"/>
-    <col min="4354" max="4354" width="12.5703125" customWidth="1"/>
-    <col min="4355" max="4355" width="19.5703125" customWidth="1"/>
-    <col min="4356" max="4357" width="19.42578125" customWidth="1"/>
+    <col min="4122" max="4122" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.5" customWidth="1"/>
+    <col min="4354" max="4354" width="12.5" customWidth="1"/>
+    <col min="4355" max="4357" width="19.5" customWidth="1"/>
     <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4374" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4376" max="4376" width="7" customWidth="1"/>
-    <col min="4378" max="4378" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="43.42578125" customWidth="1"/>
-    <col min="4610" max="4610" width="12.5703125" customWidth="1"/>
-    <col min="4611" max="4611" width="19.5703125" customWidth="1"/>
-    <col min="4612" max="4613" width="19.42578125" customWidth="1"/>
+    <col min="4378" max="4378" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.5" customWidth="1"/>
+    <col min="4610" max="4610" width="12.5" customWidth="1"/>
+    <col min="4611" max="4613" width="19.5" customWidth="1"/>
     <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4630" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4632" max="4632" width="7" customWidth="1"/>
-    <col min="4634" max="4634" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="43.42578125" customWidth="1"/>
-    <col min="4866" max="4866" width="12.5703125" customWidth="1"/>
-    <col min="4867" max="4867" width="19.5703125" customWidth="1"/>
-    <col min="4868" max="4869" width="19.42578125" customWidth="1"/>
+    <col min="4634" max="4634" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.5" customWidth="1"/>
+    <col min="4866" max="4866" width="12.5" customWidth="1"/>
+    <col min="4867" max="4869" width="19.5" customWidth="1"/>
     <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
-    <col min="4886" max="4886" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4888" max="4888" width="7" customWidth="1"/>
-    <col min="4890" max="4890" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="43.42578125" customWidth="1"/>
-    <col min="5122" max="5122" width="12.5703125" customWidth="1"/>
-    <col min="5123" max="5123" width="19.5703125" customWidth="1"/>
-    <col min="5124" max="5125" width="19.42578125" customWidth="1"/>
+    <col min="4890" max="4890" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.5" customWidth="1"/>
+    <col min="5122" max="5122" width="12.5" customWidth="1"/>
+    <col min="5123" max="5125" width="19.5" customWidth="1"/>
     <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5142" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5144" max="5144" width="7" customWidth="1"/>
-    <col min="5146" max="5146" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="43.42578125" customWidth="1"/>
-    <col min="5378" max="5378" width="12.5703125" customWidth="1"/>
-    <col min="5379" max="5379" width="19.5703125" customWidth="1"/>
-    <col min="5380" max="5381" width="19.42578125" customWidth="1"/>
+    <col min="5146" max="5146" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.5" customWidth="1"/>
+    <col min="5378" max="5378" width="12.5" customWidth="1"/>
+    <col min="5379" max="5381" width="19.5" customWidth="1"/>
     <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5398" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5400" max="5400" width="7" customWidth="1"/>
-    <col min="5402" max="5402" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="43.42578125" customWidth="1"/>
-    <col min="5634" max="5634" width="12.5703125" customWidth="1"/>
-    <col min="5635" max="5635" width="19.5703125" customWidth="1"/>
-    <col min="5636" max="5637" width="19.42578125" customWidth="1"/>
+    <col min="5402" max="5402" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.5" customWidth="1"/>
+    <col min="5634" max="5634" width="12.5" customWidth="1"/>
+    <col min="5635" max="5637" width="19.5" customWidth="1"/>
     <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5654" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5656" max="5656" width="7" customWidth="1"/>
-    <col min="5658" max="5658" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="43.42578125" customWidth="1"/>
-    <col min="5890" max="5890" width="12.5703125" customWidth="1"/>
-    <col min="5891" max="5891" width="19.5703125" customWidth="1"/>
-    <col min="5892" max="5893" width="19.42578125" customWidth="1"/>
+    <col min="5658" max="5658" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.5" customWidth="1"/>
+    <col min="5890" max="5890" width="12.5" customWidth="1"/>
+    <col min="5891" max="5893" width="19.5" customWidth="1"/>
     <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
-    <col min="5910" max="5910" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5912" max="5912" width="7" customWidth="1"/>
-    <col min="5914" max="5914" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="43.42578125" customWidth="1"/>
-    <col min="6146" max="6146" width="12.5703125" customWidth="1"/>
-    <col min="6147" max="6147" width="19.5703125" customWidth="1"/>
-    <col min="6148" max="6149" width="19.42578125" customWidth="1"/>
+    <col min="5914" max="5914" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.5" customWidth="1"/>
+    <col min="6146" max="6146" width="12.5" customWidth="1"/>
+    <col min="6147" max="6149" width="19.5" customWidth="1"/>
     <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6166" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6168" max="6168" width="7" customWidth="1"/>
-    <col min="6170" max="6170" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="43.42578125" customWidth="1"/>
-    <col min="6402" max="6402" width="12.5703125" customWidth="1"/>
-    <col min="6403" max="6403" width="19.5703125" customWidth="1"/>
-    <col min="6404" max="6405" width="19.42578125" customWidth="1"/>
+    <col min="6170" max="6170" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.5" customWidth="1"/>
+    <col min="6402" max="6402" width="12.5" customWidth="1"/>
+    <col min="6403" max="6405" width="19.5" customWidth="1"/>
     <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6422" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6424" max="6424" width="7" customWidth="1"/>
-    <col min="6426" max="6426" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="43.42578125" customWidth="1"/>
-    <col min="6658" max="6658" width="12.5703125" customWidth="1"/>
-    <col min="6659" max="6659" width="19.5703125" customWidth="1"/>
-    <col min="6660" max="6661" width="19.42578125" customWidth="1"/>
+    <col min="6426" max="6426" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.5" customWidth="1"/>
+    <col min="6658" max="6658" width="12.5" customWidth="1"/>
+    <col min="6659" max="6661" width="19.5" customWidth="1"/>
     <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6678" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6680" max="6680" width="7" customWidth="1"/>
-    <col min="6682" max="6682" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="43.42578125" customWidth="1"/>
-    <col min="6914" max="6914" width="12.5703125" customWidth="1"/>
-    <col min="6915" max="6915" width="19.5703125" customWidth="1"/>
-    <col min="6916" max="6917" width="19.42578125" customWidth="1"/>
+    <col min="6682" max="6682" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.5" customWidth="1"/>
+    <col min="6914" max="6914" width="12.5" customWidth="1"/>
+    <col min="6915" max="6917" width="19.5" customWidth="1"/>
     <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
-    <col min="6934" max="6934" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6936" max="6936" width="7" customWidth="1"/>
-    <col min="6938" max="6938" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="43.42578125" customWidth="1"/>
-    <col min="7170" max="7170" width="12.5703125" customWidth="1"/>
-    <col min="7171" max="7171" width="19.5703125" customWidth="1"/>
-    <col min="7172" max="7173" width="19.42578125" customWidth="1"/>
+    <col min="6938" max="6938" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.5" customWidth="1"/>
+    <col min="7170" max="7170" width="12.5" customWidth="1"/>
+    <col min="7171" max="7173" width="19.5" customWidth="1"/>
     <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7190" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7192" max="7192" width="7" customWidth="1"/>
-    <col min="7194" max="7194" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="43.42578125" customWidth="1"/>
-    <col min="7426" max="7426" width="12.5703125" customWidth="1"/>
-    <col min="7427" max="7427" width="19.5703125" customWidth="1"/>
-    <col min="7428" max="7429" width="19.42578125" customWidth="1"/>
+    <col min="7194" max="7194" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.5" customWidth="1"/>
+    <col min="7426" max="7426" width="12.5" customWidth="1"/>
+    <col min="7427" max="7429" width="19.5" customWidth="1"/>
     <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7446" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7448" max="7448" width="7" customWidth="1"/>
-    <col min="7450" max="7450" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="43.42578125" customWidth="1"/>
-    <col min="7682" max="7682" width="12.5703125" customWidth="1"/>
-    <col min="7683" max="7683" width="19.5703125" customWidth="1"/>
-    <col min="7684" max="7685" width="19.42578125" customWidth="1"/>
+    <col min="7450" max="7450" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.5" customWidth="1"/>
+    <col min="7682" max="7682" width="12.5" customWidth="1"/>
+    <col min="7683" max="7685" width="19.5" customWidth="1"/>
     <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7702" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7704" max="7704" width="7" customWidth="1"/>
-    <col min="7706" max="7706" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="43.42578125" customWidth="1"/>
-    <col min="7938" max="7938" width="12.5703125" customWidth="1"/>
-    <col min="7939" max="7939" width="19.5703125" customWidth="1"/>
-    <col min="7940" max="7941" width="19.42578125" customWidth="1"/>
+    <col min="7706" max="7706" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.5" customWidth="1"/>
+    <col min="7938" max="7938" width="12.5" customWidth="1"/>
+    <col min="7939" max="7941" width="19.5" customWidth="1"/>
     <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
-    <col min="7958" max="7958" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7960" max="7960" width="7" customWidth="1"/>
-    <col min="7962" max="7962" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="43.42578125" customWidth="1"/>
-    <col min="8194" max="8194" width="12.5703125" customWidth="1"/>
-    <col min="8195" max="8195" width="19.5703125" customWidth="1"/>
-    <col min="8196" max="8197" width="19.42578125" customWidth="1"/>
+    <col min="7962" max="7962" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.5" customWidth="1"/>
+    <col min="8194" max="8194" width="12.5" customWidth="1"/>
+    <col min="8195" max="8197" width="19.5" customWidth="1"/>
     <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8214" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8216" max="8216" width="7" customWidth="1"/>
-    <col min="8218" max="8218" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="43.42578125" customWidth="1"/>
-    <col min="8450" max="8450" width="12.5703125" customWidth="1"/>
-    <col min="8451" max="8451" width="19.5703125" customWidth="1"/>
-    <col min="8452" max="8453" width="19.42578125" customWidth="1"/>
+    <col min="8218" max="8218" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.5" customWidth="1"/>
+    <col min="8450" max="8450" width="12.5" customWidth="1"/>
+    <col min="8451" max="8453" width="19.5" customWidth="1"/>
     <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8470" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8472" max="8472" width="7" customWidth="1"/>
-    <col min="8474" max="8474" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="43.42578125" customWidth="1"/>
-    <col min="8706" max="8706" width="12.5703125" customWidth="1"/>
-    <col min="8707" max="8707" width="19.5703125" customWidth="1"/>
-    <col min="8708" max="8709" width="19.42578125" customWidth="1"/>
+    <col min="8474" max="8474" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.5" customWidth="1"/>
+    <col min="8706" max="8706" width="12.5" customWidth="1"/>
+    <col min="8707" max="8709" width="19.5" customWidth="1"/>
     <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8726" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8728" max="8728" width="7" customWidth="1"/>
-    <col min="8730" max="8730" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="43.42578125" customWidth="1"/>
-    <col min="8962" max="8962" width="12.5703125" customWidth="1"/>
-    <col min="8963" max="8963" width="19.5703125" customWidth="1"/>
-    <col min="8964" max="8965" width="19.42578125" customWidth="1"/>
+    <col min="8730" max="8730" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.5" customWidth="1"/>
+    <col min="8962" max="8962" width="12.5" customWidth="1"/>
+    <col min="8963" max="8965" width="19.5" customWidth="1"/>
     <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
-    <col min="8982" max="8982" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8984" max="8984" width="7" customWidth="1"/>
-    <col min="8986" max="8986" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="43.42578125" customWidth="1"/>
-    <col min="9218" max="9218" width="12.5703125" customWidth="1"/>
-    <col min="9219" max="9219" width="19.5703125" customWidth="1"/>
-    <col min="9220" max="9221" width="19.42578125" customWidth="1"/>
+    <col min="8986" max="8986" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.5" customWidth="1"/>
+    <col min="9218" max="9218" width="12.5" customWidth="1"/>
+    <col min="9219" max="9221" width="19.5" customWidth="1"/>
     <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9238" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9240" max="9240" width="7" customWidth="1"/>
-    <col min="9242" max="9242" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="43.42578125" customWidth="1"/>
-    <col min="9474" max="9474" width="12.5703125" customWidth="1"/>
-    <col min="9475" max="9475" width="19.5703125" customWidth="1"/>
-    <col min="9476" max="9477" width="19.42578125" customWidth="1"/>
+    <col min="9242" max="9242" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.5" customWidth="1"/>
+    <col min="9474" max="9474" width="12.5" customWidth="1"/>
+    <col min="9475" max="9477" width="19.5" customWidth="1"/>
     <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9494" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9496" max="9496" width="7" customWidth="1"/>
-    <col min="9498" max="9498" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="43.42578125" customWidth="1"/>
-    <col min="9730" max="9730" width="12.5703125" customWidth="1"/>
-    <col min="9731" max="9731" width="19.5703125" customWidth="1"/>
-    <col min="9732" max="9733" width="19.42578125" customWidth="1"/>
+    <col min="9498" max="9498" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.5" customWidth="1"/>
+    <col min="9730" max="9730" width="12.5" customWidth="1"/>
+    <col min="9731" max="9733" width="19.5" customWidth="1"/>
     <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9750" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9752" max="9752" width="7" customWidth="1"/>
-    <col min="9754" max="9754" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="43.42578125" customWidth="1"/>
-    <col min="9986" max="9986" width="12.5703125" customWidth="1"/>
-    <col min="9987" max="9987" width="19.5703125" customWidth="1"/>
-    <col min="9988" max="9989" width="19.42578125" customWidth="1"/>
+    <col min="9754" max="9754" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.5" customWidth="1"/>
+    <col min="9986" max="9986" width="12.5" customWidth="1"/>
+    <col min="9987" max="9989" width="19.5" customWidth="1"/>
     <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10006" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10008" max="10008" width="7" customWidth="1"/>
-    <col min="10010" max="10010" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="43.42578125" customWidth="1"/>
-    <col min="10242" max="10242" width="12.5703125" customWidth="1"/>
-    <col min="10243" max="10243" width="19.5703125" customWidth="1"/>
-    <col min="10244" max="10245" width="19.42578125" customWidth="1"/>
+    <col min="10010" max="10010" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.5" customWidth="1"/>
+    <col min="10242" max="10242" width="12.5" customWidth="1"/>
+    <col min="10243" max="10245" width="19.5" customWidth="1"/>
     <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10262" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10264" max="10264" width="7" customWidth="1"/>
-    <col min="10266" max="10266" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="43.42578125" customWidth="1"/>
-    <col min="10498" max="10498" width="12.5703125" customWidth="1"/>
-    <col min="10499" max="10499" width="19.5703125" customWidth="1"/>
-    <col min="10500" max="10501" width="19.42578125" customWidth="1"/>
+    <col min="10266" max="10266" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.5" customWidth="1"/>
+    <col min="10498" max="10498" width="12.5" customWidth="1"/>
+    <col min="10499" max="10501" width="19.5" customWidth="1"/>
     <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10518" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10520" max="10520" width="7" customWidth="1"/>
-    <col min="10522" max="10522" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="43.42578125" customWidth="1"/>
-    <col min="10754" max="10754" width="12.5703125" customWidth="1"/>
-    <col min="10755" max="10755" width="19.5703125" customWidth="1"/>
-    <col min="10756" max="10757" width="19.42578125" customWidth="1"/>
+    <col min="10522" max="10522" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.5" customWidth="1"/>
+    <col min="10754" max="10754" width="12.5" customWidth="1"/>
+    <col min="10755" max="10757" width="19.5" customWidth="1"/>
     <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
-    <col min="10774" max="10774" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10776" max="10776" width="7" customWidth="1"/>
-    <col min="10778" max="10778" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="43.42578125" customWidth="1"/>
-    <col min="11010" max="11010" width="12.5703125" customWidth="1"/>
-    <col min="11011" max="11011" width="19.5703125" customWidth="1"/>
-    <col min="11012" max="11013" width="19.42578125" customWidth="1"/>
+    <col min="10778" max="10778" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.5" customWidth="1"/>
+    <col min="11010" max="11010" width="12.5" customWidth="1"/>
+    <col min="11011" max="11013" width="19.5" customWidth="1"/>
     <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11030" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="11032" max="11032" width="7" customWidth="1"/>
-    <col min="11034" max="11034" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="43.42578125" customWidth="1"/>
-    <col min="11266" max="11266" width="12.5703125" customWidth="1"/>
-    <col min="11267" max="11267" width="19.5703125" customWidth="1"/>
-    <col min="11268" max="11269" width="19.42578125" customWidth="1"/>
+    <col min="11034" max="11034" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.5" customWidth="1"/>
+    <col min="11266" max="11266" width="12.5" customWidth="1"/>
+    <col min="11267" max="11269" width="19.5" customWidth="1"/>
     <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11286" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="11288" max="11288" width="7" customWidth="1"/>
-    <col min="11290" max="11290" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="43.42578125" customWidth="1"/>
-    <col min="11522" max="11522" width="12.5703125" customWidth="1"/>
-    <col min="11523" max="11523" width="19.5703125" customWidth="1"/>
-    <col min="11524" max="11525" width="19.42578125" customWidth="1"/>
+    <col min="11290" max="11290" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.5" customWidth="1"/>
+    <col min="11522" max="11522" width="12.5" customWidth="1"/>
+    <col min="11523" max="11525" width="19.5" customWidth="1"/>
     <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11542" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="11544" max="11544" width="7" customWidth="1"/>
-    <col min="11546" max="11546" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="43.42578125" customWidth="1"/>
-    <col min="11778" max="11778" width="12.5703125" customWidth="1"/>
-    <col min="11779" max="11779" width="19.5703125" customWidth="1"/>
-    <col min="11780" max="11781" width="19.42578125" customWidth="1"/>
+    <col min="11546" max="11546" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.5" customWidth="1"/>
+    <col min="11778" max="11778" width="12.5" customWidth="1"/>
+    <col min="11779" max="11781" width="19.5" customWidth="1"/>
     <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
-    <col min="11798" max="11798" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="11800" max="11800" width="7" customWidth="1"/>
-    <col min="11802" max="11802" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="43.42578125" customWidth="1"/>
-    <col min="12034" max="12034" width="12.5703125" customWidth="1"/>
-    <col min="12035" max="12035" width="19.5703125" customWidth="1"/>
-    <col min="12036" max="12037" width="19.42578125" customWidth="1"/>
+    <col min="11802" max="11802" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.5" customWidth="1"/>
+    <col min="12034" max="12034" width="12.5" customWidth="1"/>
+    <col min="12035" max="12037" width="19.5" customWidth="1"/>
     <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12054" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12056" max="12056" width="7" customWidth="1"/>
-    <col min="12058" max="12058" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="43.42578125" customWidth="1"/>
-    <col min="12290" max="12290" width="12.5703125" customWidth="1"/>
-    <col min="12291" max="12291" width="19.5703125" customWidth="1"/>
-    <col min="12292" max="12293" width="19.42578125" customWidth="1"/>
+    <col min="12058" max="12058" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.5" customWidth="1"/>
+    <col min="12290" max="12290" width="12.5" customWidth="1"/>
+    <col min="12291" max="12293" width="19.5" customWidth="1"/>
     <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12310" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12312" max="12312" width="7" customWidth="1"/>
-    <col min="12314" max="12314" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="43.42578125" customWidth="1"/>
-    <col min="12546" max="12546" width="12.5703125" customWidth="1"/>
-    <col min="12547" max="12547" width="19.5703125" customWidth="1"/>
-    <col min="12548" max="12549" width="19.42578125" customWidth="1"/>
+    <col min="12314" max="12314" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.5" customWidth="1"/>
+    <col min="12546" max="12546" width="12.5" customWidth="1"/>
+    <col min="12547" max="12549" width="19.5" customWidth="1"/>
     <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12566" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12568" max="12568" width="7" customWidth="1"/>
-    <col min="12570" max="12570" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="43.42578125" customWidth="1"/>
-    <col min="12802" max="12802" width="12.5703125" customWidth="1"/>
-    <col min="12803" max="12803" width="19.5703125" customWidth="1"/>
-    <col min="12804" max="12805" width="19.42578125" customWidth="1"/>
+    <col min="12570" max="12570" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.5" customWidth="1"/>
+    <col min="12802" max="12802" width="12.5" customWidth="1"/>
+    <col min="12803" max="12805" width="19.5" customWidth="1"/>
     <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
-    <col min="12822" max="12822" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12824" max="12824" width="7" customWidth="1"/>
-    <col min="12826" max="12826" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="43.42578125" customWidth="1"/>
-    <col min="13058" max="13058" width="12.5703125" customWidth="1"/>
-    <col min="13059" max="13059" width="19.5703125" customWidth="1"/>
-    <col min="13060" max="13061" width="19.42578125" customWidth="1"/>
+    <col min="12826" max="12826" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.5" customWidth="1"/>
+    <col min="13058" max="13058" width="12.5" customWidth="1"/>
+    <col min="13059" max="13061" width="19.5" customWidth="1"/>
     <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.5" bestFit="1" customWidth="1"/>
     <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13078" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13080" max="13080" width="7" customWidth="1"/>
-    <col min="13082" max="13082" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="43.42578125" customWidth="1"/>
-    <col min="13314" max="13314" width="12.5703125" customWidth="1"/>
-    <col min="13315" max="13315" width="19.5703125" customWidth="1"/>
-    <col min="13316" max="13317" width="19.42578125" customWidth="1"/>
+    <col min="13082" max="13082" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.5" customWidth="1"/>
+    <col min="13314" max="13314" width="12.5" customWidth="1"/>
+    <col min="13315" max="13317" width="19.5" customWidth="1"/>
     <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.5" bestFit="1" customWidth="1"/>
     <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13334" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13336" max="13336" width="7" customWidth="1"/>
-    <col min="13338" max="13338" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="43.42578125" customWidth="1"/>
-    <col min="13570" max="13570" width="12.5703125" customWidth="1"/>
-    <col min="13571" max="13571" width="19.5703125" customWidth="1"/>
-    <col min="13572" max="13573" width="19.42578125" customWidth="1"/>
+    <col min="13338" max="13338" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.5" customWidth="1"/>
+    <col min="13570" max="13570" width="12.5" customWidth="1"/>
+    <col min="13571" max="13573" width="19.5" customWidth="1"/>
     <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.5" bestFit="1" customWidth="1"/>
     <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13590" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13592" max="13592" width="7" customWidth="1"/>
-    <col min="13594" max="13594" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="43.42578125" customWidth="1"/>
-    <col min="13826" max="13826" width="12.5703125" customWidth="1"/>
-    <col min="13827" max="13827" width="19.5703125" customWidth="1"/>
-    <col min="13828" max="13829" width="19.42578125" customWidth="1"/>
+    <col min="13594" max="13594" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.5" customWidth="1"/>
+    <col min="13826" max="13826" width="12.5" customWidth="1"/>
+    <col min="13827" max="13829" width="19.5" customWidth="1"/>
     <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.5" bestFit="1" customWidth="1"/>
     <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
-    <col min="13846" max="13846" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13848" max="13848" width="7" customWidth="1"/>
-    <col min="13850" max="13850" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="43.42578125" customWidth="1"/>
-    <col min="14082" max="14082" width="12.5703125" customWidth="1"/>
-    <col min="14083" max="14083" width="19.5703125" customWidth="1"/>
-    <col min="14084" max="14085" width="19.42578125" customWidth="1"/>
+    <col min="13850" max="13850" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.5" customWidth="1"/>
+    <col min="14082" max="14082" width="12.5" customWidth="1"/>
+    <col min="14083" max="14085" width="19.5" customWidth="1"/>
     <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14102" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14104" max="14104" width="7" customWidth="1"/>
-    <col min="14106" max="14106" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="43.42578125" customWidth="1"/>
-    <col min="14338" max="14338" width="12.5703125" customWidth="1"/>
-    <col min="14339" max="14339" width="19.5703125" customWidth="1"/>
-    <col min="14340" max="14341" width="19.42578125" customWidth="1"/>
+    <col min="14106" max="14106" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.5" customWidth="1"/>
+    <col min="14338" max="14338" width="12.5" customWidth="1"/>
+    <col min="14339" max="14341" width="19.5" customWidth="1"/>
     <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14358" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14360" max="14360" width="7" customWidth="1"/>
-    <col min="14362" max="14362" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="43.42578125" customWidth="1"/>
-    <col min="14594" max="14594" width="12.5703125" customWidth="1"/>
-    <col min="14595" max="14595" width="19.5703125" customWidth="1"/>
-    <col min="14596" max="14597" width="19.42578125" customWidth="1"/>
+    <col min="14362" max="14362" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.5" customWidth="1"/>
+    <col min="14594" max="14594" width="12.5" customWidth="1"/>
+    <col min="14595" max="14597" width="19.5" customWidth="1"/>
     <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14614" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14616" max="14616" width="7" customWidth="1"/>
-    <col min="14618" max="14618" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="43.42578125" customWidth="1"/>
-    <col min="14850" max="14850" width="12.5703125" customWidth="1"/>
-    <col min="14851" max="14851" width="19.5703125" customWidth="1"/>
-    <col min="14852" max="14853" width="19.42578125" customWidth="1"/>
+    <col min="14618" max="14618" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.5" customWidth="1"/>
+    <col min="14850" max="14850" width="12.5" customWidth="1"/>
+    <col min="14851" max="14853" width="19.5" customWidth="1"/>
     <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
-    <col min="14870" max="14870" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14872" max="14872" width="7" customWidth="1"/>
-    <col min="14874" max="14874" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="43.42578125" customWidth="1"/>
-    <col min="15106" max="15106" width="12.5703125" customWidth="1"/>
-    <col min="15107" max="15107" width="19.5703125" customWidth="1"/>
-    <col min="15108" max="15109" width="19.42578125" customWidth="1"/>
+    <col min="14874" max="14874" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.5" customWidth="1"/>
+    <col min="15106" max="15106" width="12.5" customWidth="1"/>
+    <col min="15107" max="15109" width="19.5" customWidth="1"/>
     <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.5" bestFit="1" customWidth="1"/>
     <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15126" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="15128" max="15128" width="7" customWidth="1"/>
-    <col min="15130" max="15130" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="43.42578125" customWidth="1"/>
-    <col min="15362" max="15362" width="12.5703125" customWidth="1"/>
-    <col min="15363" max="15363" width="19.5703125" customWidth="1"/>
-    <col min="15364" max="15365" width="19.42578125" customWidth="1"/>
+    <col min="15130" max="15130" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.5" customWidth="1"/>
+    <col min="15362" max="15362" width="12.5" customWidth="1"/>
+    <col min="15363" max="15365" width="19.5" customWidth="1"/>
     <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.5" bestFit="1" customWidth="1"/>
     <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15382" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="15384" max="15384" width="7" customWidth="1"/>
-    <col min="15386" max="15386" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="43.42578125" customWidth="1"/>
-    <col min="15618" max="15618" width="12.5703125" customWidth="1"/>
-    <col min="15619" max="15619" width="19.5703125" customWidth="1"/>
-    <col min="15620" max="15621" width="19.42578125" customWidth="1"/>
+    <col min="15386" max="15386" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.5" customWidth="1"/>
+    <col min="15618" max="15618" width="12.5" customWidth="1"/>
+    <col min="15619" max="15621" width="19.5" customWidth="1"/>
     <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.5" bestFit="1" customWidth="1"/>
     <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15638" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="15640" max="15640" width="7" customWidth="1"/>
-    <col min="15642" max="15642" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="43.42578125" customWidth="1"/>
-    <col min="15874" max="15874" width="12.5703125" customWidth="1"/>
-    <col min="15875" max="15875" width="19.5703125" customWidth="1"/>
-    <col min="15876" max="15877" width="19.42578125" customWidth="1"/>
+    <col min="15642" max="15642" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.5" customWidth="1"/>
+    <col min="15874" max="15874" width="12.5" customWidth="1"/>
+    <col min="15875" max="15877" width="19.5" customWidth="1"/>
     <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.5" bestFit="1" customWidth="1"/>
     <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
-    <col min="15894" max="15894" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="15896" max="15896" width="7" customWidth="1"/>
-    <col min="15898" max="15898" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="43.42578125" customWidth="1"/>
-    <col min="16130" max="16130" width="12.5703125" customWidth="1"/>
-    <col min="16131" max="16131" width="19.5703125" customWidth="1"/>
-    <col min="16132" max="16133" width="19.42578125" customWidth="1"/>
+    <col min="15898" max="15898" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.5" customWidth="1"/>
+    <col min="16130" max="16130" width="12.5" customWidth="1"/>
+    <col min="16131" max="16133" width="19.5" customWidth="1"/>
     <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.5" bestFit="1" customWidth="1"/>
     <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16150" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="16152" max="16152" width="7" customWidth="1"/>
-    <col min="16154" max="16154" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16154" max="16154" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -4501,7 +4402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -4583,7 +4484,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -4665,7 +4566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -4745,7 +4646,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -4825,7 +4726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -4905,7 +4806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -4985,7 +4886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -5081,23 +4982,23 @@
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.85546875"/>
+    <col min="13" max="21" width="8.83203125"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5069,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>213</v>
       </c>
@@ -5241,7 +5142,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -5313,7 +5214,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>215</v>
       </c>
@@ -5386,7 +5287,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="U7" s="41"/>
     </row>
@@ -5404,16 +5305,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="4" max="5" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -5460,7 +5361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>97</v>
       </c>
@@ -5508,7 +5409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -5556,7 +5457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -5604,7 +5505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -5668,16 +5569,16 @@
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="15" max="15" width="29.5703125" customWidth="1"/>
+    <col min="15" max="15" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5724,7 +5625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5786,20 +5687,20 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="22" max="22" width="12.5" customWidth="1"/>
+    <col min="23" max="23" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -5900,7 +5801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -6005,7 +5906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -6126,15 +6027,15 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -6181,7 +6082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6241,25 +6142,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5" customWidth="1"/>
     <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6327,7 +6228,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
@@ -6393,7 +6294,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>164</v>
       </c>
@@ -6459,7 +6360,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -6525,7 +6426,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>164</v>
       </c>
@@ -6591,7 +6492,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>166</v>
       </c>
@@ -6653,14 +6554,14 @@
       <c r="T6" s="2">
         <v>5</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="2" t="s">
         <v>253</v>
       </c>
       <c r="V6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>166</v>
       </c>
@@ -6722,14 +6623,14 @@
       <c r="T7" s="2">
         <v>5</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="2" t="s">
         <v>254</v>
       </c>
       <c r="V7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
@@ -6791,14 +6692,14 @@
       <c r="T8" s="2">
         <v>5</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="2" t="s">
         <v>255</v>
       </c>
       <c r="V8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>166</v>
       </c>
@@ -6835,7 +6736,7 @@
       <c r="L9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="43">
         <v>0</v>
       </c>
       <c r="N9">
@@ -6860,14 +6761,14 @@
       <c r="T9" s="2">
         <v>5</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="2" t="s">
         <v>255</v>
       </c>
       <c r="V9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>165</v>
       </c>
@@ -6929,14 +6830,14 @@
       <c r="T10" s="2">
         <v>5</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="2" t="s">
         <v>253</v>
       </c>
       <c r="V10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
@@ -6998,14 +6899,14 @@
       <c r="T11" s="2">
         <v>5</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="2" t="s">
         <v>254</v>
       </c>
       <c r="V11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>165</v>
       </c>
@@ -7067,14 +6968,14 @@
       <c r="T12" s="2">
         <v>5</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="2" t="s">
         <v>255</v>
       </c>
       <c r="V12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>165</v>
       </c>
@@ -7136,36 +7037,36 @@
       <c r="T13" s="2">
         <v>5</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="2" t="s">
         <v>255</v>
       </c>
       <c r="V13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E14" s="48">
-        <v>1</v>
-      </c>
-      <c r="F14" s="48">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>10000000000</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="2">
@@ -7205,36 +7106,36 @@
       <c r="T14" s="2">
         <v>5</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="2" t="s">
         <v>255</v>
       </c>
       <c r="V14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E15" s="48">
-        <v>1</v>
-      </c>
-      <c r="F15" s="48">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
         <v>30000</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="2">
         <v>0.94</v>
       </c>
       <c r="I15" s="2">
@@ -7274,36 +7175,36 @@
       <c r="T15" s="2">
         <v>5</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="2" t="s">
         <v>256</v>
       </c>
       <c r="V15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="2">
         <v>30000</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="2">
         <v>60000</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="2">
         <v>0.94</v>
       </c>
       <c r="I16" s="2">
@@ -7343,36 +7244,36 @@
       <c r="T16" s="2">
         <v>5</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="2" t="s">
         <v>257</v>
       </c>
       <c r="V16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="2">
         <v>60000</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="2">
         <v>230000</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="2">
         <v>0.94</v>
       </c>
       <c r="I17" s="2">
@@ -7412,36 +7313,36 @@
       <c r="T17" s="2">
         <v>5</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="2" t="s">
         <v>258</v>
       </c>
       <c r="V17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="48">
-        <v>1</v>
-      </c>
-      <c r="F18" s="48">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>20000</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="2">
         <v>0.9</v>
       </c>
       <c r="I18" s="2">
@@ -7481,36 +7382,36 @@
       <c r="T18" s="2">
         <v>5</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="2" t="s">
         <v>259</v>
       </c>
       <c r="V18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="2">
         <v>20000</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="2">
         <v>60000</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="2">
         <v>0.85</v>
       </c>
       <c r="I19" s="2">
@@ -7550,36 +7451,36 @@
       <c r="T19" s="2">
         <v>5</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="2" t="s">
         <v>260</v>
       </c>
       <c r="V19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="2">
         <v>60000</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="2">
         <v>1000000000</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="2">
         <v>0.81</v>
       </c>
       <c r="I20" s="2">
@@ -7610,16 +7511,16 @@
       <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="43">
         <v>20</v>
       </c>
-      <c r="S20" s="44">
+      <c r="S20" s="43">
         <v>6</v>
       </c>
-      <c r="T20" s="44">
-        <v>5</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="T20" s="43">
+        <v>5</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>261</v>
       </c>
       <c r="V20" t="s">
@@ -7643,20 +7544,20 @@
       <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.42578125" customWidth="1"/>
+    <col min="6" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -7727,7 +7628,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -7798,7 +7699,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>177</v>
       </c>
@@ -7869,7 +7770,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>177</v>
       </c>
@@ -7940,7 +7841,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>176</v>
       </c>
@@ -8011,7 +7912,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>176</v>
       </c>
@@ -8082,7 +7983,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>176</v>
       </c>
@@ -8153,7 +8054,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>181</v>
       </c>
@@ -8224,7 +8125,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>181</v>
       </c>
@@ -8295,7 +8196,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>182</v>
       </c>
@@ -8366,7 +8267,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>184</v>
       </c>
@@ -8438,7 +8339,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
@@ -8457,19 +8358,19 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="10" width="15.85546875" customWidth="1"/>
+    <col min="7" max="10" width="15.83203125" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="111.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -8534,7 +8435,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -8601,7 +8502,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -8667,7 +8568,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -8734,7 +8635,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
@@ -8804,21 +8705,21 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -8886,7 +8787,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -8954,7 +8855,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -9024,7 +8925,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -9094,7 +8995,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -9164,7 +9065,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -9234,7 +9135,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -9302,10 +9203,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P15" s="10"/>
     </row>
   </sheetData>
@@ -9320,24 +9221,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2:AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9438,7 +9339,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
@@ -9539,7 +9440,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -9640,7 +9541,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
@@ -9734,14 +9635,14 @@
       <c r="AE4" s="14">
         <v>3.74</v>
       </c>
-      <c r="AF4" s="51">
+      <c r="AF4" s="44">
         <v>2.5</v>
       </c>
       <c r="AG4" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -9842,7 +9743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -9936,14 +9837,14 @@
       <c r="AE6" s="14">
         <v>646</v>
       </c>
-      <c r="AF6" s="51">
+      <c r="AF6" s="44">
         <v>431</v>
       </c>
       <c r="AG6" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
@@ -10058,23 +9959,23 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -10142,7 +10043,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -10210,7 +10111,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -10278,7 +10179,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -10346,7 +10247,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -10414,7 +10315,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -10422,7 +10323,7 @@
       <c r="K6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>

--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmccarty/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD31A90-34DC-0B43-BE62-65915A182A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019EA98-D0C9-BA4C-9E84-47C9C42F1E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="38640" windowHeight="21240" tabRatio="993" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="271">
   <si>
     <t>Description</t>
   </si>
@@ -134,9 +134,6 @@
     <t>assumption</t>
   </si>
   <si>
-    <t>generic monocrystalline panel</t>
-  </si>
-  <si>
     <t>PV1</t>
   </si>
   <si>
@@ -149,18 +146,9 @@
     <t>USD-2015</t>
   </si>
   <si>
-    <t>IR_%, capacity</t>
-  </si>
-  <si>
-    <t>generic polycrystalline panel</t>
-  </si>
-  <si>
     <t>PV2</t>
   </si>
   <si>
-    <t>generic amorphous silicon panel</t>
-  </si>
-  <si>
     <t>PV3</t>
   </si>
   <si>
@@ -840,6 +828,42 @@
   </si>
   <si>
     <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass-flow rates</t>
+  </si>
+  <si>
+    <t>capacity_Wp</t>
+  </si>
+  <si>
+    <t>primar_energy_kWh_m2</t>
+  </si>
+  <si>
+    <t>cost_facade_euro_m2</t>
+  </si>
+  <si>
+    <t>cost_roof_euro_m2</t>
+  </si>
+  <si>
+    <t>module_embodied_kgco2m2</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>typical csi 2024 (BIPV)</t>
+  </si>
+  <si>
+    <t>jmccarty CACTUS</t>
+  </si>
+  <si>
+    <t>typical mcsi 2024 (BIPV)</t>
+  </si>
+  <si>
+    <t>typical cdte 2024 (BIPV)</t>
+  </si>
+  <si>
+    <t>typical cigs 2024 (BIPV)</t>
+  </si>
+  <si>
+    <t>PV4</t>
   </si>
 </sst>
 </file>
@@ -1661,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1688,7 +1712,7 @@
     <col min="27" max="27" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1770,25 +1794,46 @@
       <c r="AA1" s="35" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF1" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG1" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH1" s="35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -1796,251 +1841,312 @@
       <c r="H2" s="2">
         <v>2E-3</v>
       </c>
-      <c r="I2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.93582299999999996</v>
-      </c>
-      <c r="M2" s="3">
-        <v>5.4288999999999997E-2</v>
-      </c>
-      <c r="N2" s="3">
-        <v>8.6770000000000007E-3</v>
-      </c>
-      <c r="O2" s="3">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="P2" s="3">
-        <v>-1.1E-5</v>
+      <c r="I2" s="26">
+        <v>0.184638894</v>
+      </c>
+      <c r="J2" s="26">
+        <v>45.1</v>
+      </c>
+      <c r="K2" s="26">
+        <v>3.81E-3</v>
+      </c>
+      <c r="L2" s="26">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="M2" s="26">
+        <v>9.9879999999999997E-2</v>
+      </c>
+      <c r="N2" s="26">
+        <v>-4.2729999999999997E-2</v>
+      </c>
+      <c r="O2" s="26">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="P2" s="26">
+        <v>-7.6400000000000003E-4</v>
       </c>
       <c r="Q2" s="4">
         <v>0.1</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="26">
+        <v>325.70374800000002</v>
+      </c>
+      <c r="AC2" s="26">
+        <v>1.76</v>
+      </c>
+      <c r="AD2" s="26">
+        <v>831.8</v>
+      </c>
+      <c r="AE2" s="26">
+        <v>345.72</v>
+      </c>
+      <c r="AF2" s="26">
+        <v>254.72</v>
+      </c>
+      <c r="AG2" s="26">
+        <v>255.76616110000001</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.17502508999999999</v>
+      </c>
+      <c r="J3" s="26">
+        <v>45.2</v>
+      </c>
+      <c r="K3" s="26">
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0.92194100000000001</v>
+      </c>
+      <c r="M3" s="26">
+        <v>7.0891999999999997E-2</v>
+      </c>
+      <c r="N3" s="26">
+        <v>-1.4272E-2</v>
+      </c>
+      <c r="O3" s="26">
+        <v>1.1709999999999999E-3</v>
+      </c>
+      <c r="P3" s="26">
+        <v>-3.4E-5</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>335.15983340000002</v>
+      </c>
+      <c r="AC3" s="26">
+        <v>1.91</v>
+      </c>
+      <c r="AD3" s="26">
+        <v>631.70000000000005</v>
+      </c>
+      <c r="AE3" s="26">
+        <v>329.58</v>
+      </c>
+      <c r="AF3" s="26">
+        <v>238.58</v>
+      </c>
+      <c r="AG3" s="26">
+        <v>191.18310840000001</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.176001714</v>
+      </c>
+      <c r="J4" s="26">
+        <v>50.7</v>
+      </c>
+      <c r="K4" s="26">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="M4" s="26">
+        <v>7.1639999999999995E-2</v>
+      </c>
+      <c r="N4" s="26">
+        <v>-1.338E-2</v>
+      </c>
+      <c r="O4" s="26">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="P4" s="26">
+        <v>-2.5000000000000001E-5</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>430.93599019999999</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>153.1</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>330.54</v>
+      </c>
+      <c r="AF4" s="26">
+        <v>239.54</v>
+      </c>
+      <c r="AG4" s="26">
+        <v>47.550374410000003</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J3" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.93582299999999996</v>
-      </c>
-      <c r="M3" s="3">
-        <v>5.4288999999999997E-2</v>
-      </c>
-      <c r="N3" s="3">
-        <v>8.6770000000000007E-3</v>
-      </c>
-      <c r="O3" s="3">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="P3" s="3">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J4" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.93582299999999996</v>
-      </c>
-      <c r="M4" s="3">
-        <v>5.4288999999999997E-2</v>
-      </c>
-      <c r="N4" s="3">
-        <v>8.6770000000000007E-3</v>
-      </c>
-      <c r="O4" s="3">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="P4" s="3">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -2048,35 +2154,35 @@
       <c r="H5" s="2">
         <v>2E-3</v>
       </c>
-      <c r="I5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="M5" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="P5" s="3">
-        <v>-1.26E-4</v>
+      <c r="I5" s="26">
+        <v>9.9396463000000004E-2</v>
+      </c>
+      <c r="J5" s="26">
+        <v>55.7</v>
+      </c>
+      <c r="K5" s="26">
+        <v>3.8500000000000001E-3</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="M5" s="26">
+        <v>6.8089999999999998E-2</v>
+      </c>
+      <c r="N5" s="26">
+        <v>-2.094E-2</v>
+      </c>
+      <c r="O5" s="26">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="P5" s="26">
+        <v>-1.56E-4</v>
       </c>
       <c r="Q5" s="4">
         <v>0.1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -2095,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
@@ -2106,425 +2212,26 @@
       <c r="AA5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J6" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K6" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="M6" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="P6" s="3">
-        <v>-1.26E-4</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="M7" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="O7" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="P7" s="3">
-        <v>-1.26E-4</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J8" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="M8" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="N8" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J9" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="M9" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="O9" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J10" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="O10" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>32</v>
+      <c r="AB5" s="26">
+        <v>164.99812879999999</v>
+      </c>
+      <c r="AC5" s="26">
+        <v>1.66</v>
+      </c>
+      <c r="AD5" s="26">
+        <v>246</v>
+      </c>
+      <c r="AE5" s="26">
+        <v>356.06</v>
+      </c>
+      <c r="AF5" s="26">
+        <v>265.06</v>
+      </c>
+      <c r="AG5" s="26">
+        <v>75.914425350000002</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2596,15 +2303,15 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -2613,10 +2320,10 @@
         <v>10000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2647,10 +2354,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2659,10 +2366,10 @@
         <v>10000000000</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2690,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2743,16 +2450,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>17</v>
@@ -2785,18 +2492,18 @@
         <v>26</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -2805,7 +2512,7 @@
         <v>19000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>3.7</v>
@@ -2820,7 +2527,7 @@
         <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -2847,21 +2554,21 @@
         <v>5</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -2870,7 +2577,7 @@
         <v>19000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>3.5</v>
@@ -2885,7 +2592,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -2912,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -2975,22 +2682,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>17</v>
@@ -3023,18 +2730,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -3043,7 +2750,7 @@
         <v>40000</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="11">
         <v>4.3</v>
@@ -3058,13 +2765,13 @@
         <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -3093,18 +2800,18 @@
       </c>
       <c r="V2" s="14"/>
       <c r="W2" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D3" s="17">
         <v>40000</v>
@@ -3113,7 +2820,7 @@
         <v>100000000</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="11">
         <v>4.3</v>
@@ -3128,13 +2835,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -3163,18 +2870,18 @@
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -3183,7 +2890,7 @@
         <v>20000</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="11">
         <v>4.9000000000000004</v>
@@ -3198,13 +2905,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -3233,18 +2940,18 @@
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D5" s="17">
         <v>20000</v>
@@ -3253,7 +2960,7 @@
         <v>40000</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="11">
         <v>4.9000000000000004</v>
@@ -3268,13 +2975,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -3303,18 +3010,18 @@
       </c>
       <c r="V5" s="14"/>
       <c r="W5" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D6" s="17">
         <v>40000</v>
@@ -3323,7 +3030,7 @@
         <v>60000</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="11">
         <v>4.9000000000000004</v>
@@ -3338,13 +3045,13 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -3373,18 +3080,18 @@
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D7" s="17">
         <v>60000</v>
@@ -3393,7 +3100,7 @@
         <v>20000000</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="11">
         <v>4.9000000000000004</v>
@@ -3408,13 +3115,13 @@
         <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -3443,18 +3150,18 @@
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
@@ -3463,7 +3170,7 @@
         <v>20000</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="11">
         <v>3.4</v>
@@ -3478,13 +3185,13 @@
         <v>35</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -3513,18 +3220,18 @@
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D9" s="17">
         <v>20000</v>
@@ -3533,7 +3240,7 @@
         <v>40000</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="11">
         <v>3.3</v>
@@ -3548,13 +3255,13 @@
         <v>35</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -3583,18 +3290,18 @@
       </c>
       <c r="V9" s="14"/>
       <c r="W9" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D10" s="17">
         <v>40000</v>
@@ -3603,7 +3310,7 @@
         <v>60000</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="11">
         <v>3.3</v>
@@ -3618,13 +3325,13 @@
         <v>35</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -3653,18 +3360,18 @@
       </c>
       <c r="V10" s="14"/>
       <c r="W10" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D11" s="17">
         <v>60000</v>
@@ -3673,7 +3380,7 @@
         <v>10000000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="11">
         <v>3.2</v>
@@ -3688,13 +3395,13 @@
         <v>35</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -3723,7 +3430,7 @@
       </c>
       <c r="V11" s="14"/>
       <c r="W11" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4339,7 +4046,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>17</v>
@@ -4363,7 +4070,7 @@
         <v>23</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O1" s="35" t="s">
         <v>24</v>
@@ -4372,31 +4079,31 @@
         <v>25</v>
       </c>
       <c r="Q1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="X1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="Y1" s="35" t="s">
         <v>105</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="35" t="s">
-        <v>109</v>
       </c>
       <c r="Z1" s="35" t="s">
         <v>26</v>
@@ -4404,13 +4111,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" s="17">
         <v>100</v>
@@ -4419,10 +4126,10 @@
         <v>12000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -4481,18 +4188,18 @@
         <v>0.96</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D3" s="17">
         <v>12000</v>
@@ -4501,10 +4208,10 @@
         <v>10000000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -4568,13 +4275,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -4583,10 +4290,10 @@
         <v>10000000000</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
@@ -4643,18 +4350,18 @@
         <v>0.96</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" s="17">
         <v>0</v>
@@ -4663,10 +4370,10 @@
         <v>10000000000</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
@@ -4723,18 +4430,18 @@
         <v>0.96</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D6" s="17">
         <v>0</v>
@@ -4743,10 +4450,10 @@
         <v>10000000000</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -4803,18 +4510,18 @@
         <v>0.96</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="17">
         <v>0</v>
@@ -4823,10 +4530,10 @@
         <v>10000000000</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -4883,18 +4590,18 @@
         <v>0.96</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
@@ -4903,10 +4610,10 @@
         <v>10000000000</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
@@ -4963,7 +4670,7 @@
         <v>0.96</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5018,22 +4725,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H1" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>218</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>222</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>17</v>
@@ -5066,18 +4773,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -5086,7 +4793,7 @@
         <v>25000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -5101,13 +4808,13 @@
         <v>1100</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <f>-333/0.962</f>
@@ -5136,21 +4843,21 @@
         <v>5</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W2" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D3" s="17">
         <v>5000</v>
@@ -5159,7 +4866,7 @@
         <v>40000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -5174,13 +4881,13 @@
         <v>36000</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <f>5000/0.962</f>
@@ -5208,21 +4915,21 @@
         <v>5</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D4" s="17">
         <v>5000</v>
@@ -5231,7 +4938,7 @@
         <v>100000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -5246,13 +4953,13 @@
         <v>100000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <f>-3000/0.962</f>
@@ -5281,10 +4988,10 @@
         <v>5</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W4" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -5363,10 +5070,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -5375,10 +5082,10 @@
         <v>4000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -5411,10 +5118,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
         <v>4000</v>
@@ -5423,10 +5130,10 @@
         <v>37000</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -5459,10 +5166,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2">
         <v>37000</v>
@@ -5471,10 +5178,10 @@
         <v>375000</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -5507,10 +5214,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2">
         <v>37000</v>
@@ -5519,10 +5226,10 @@
         <v>10000000000</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -5550,7 +5257,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5627,10 +5334,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -5639,10 +5346,10 @@
         <v>10000000000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -5714,52 +5421,52 @@
         <v>6</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="M1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="N1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="O1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="P1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="Q1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="R1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="S1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="T1" s="38" t="s">
         <v>48</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>52</v>
       </c>
       <c r="U1" s="35" t="s">
         <v>3</v>
@@ -5803,13 +5510,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -5872,10 +5579,10 @@
         <v>10000000000</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="2">
         <v>0</v>
@@ -5908,13 +5615,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -5977,10 +5684,10 @@
         <v>10000000000</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="2">
         <v>0</v>
@@ -6084,10 +5791,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6096,10 +5803,10 @@
         <v>10000000000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -6142,7 +5849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -6171,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -6183,16 +5890,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -6225,21 +5932,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -6248,7 +5955,7 @@
         <v>20000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="21">
         <v>0.93</v>
@@ -6263,7 +5970,7 @@
         <v>126</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -6291,21 +5998,21 @@
         <v>5</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E3" s="17">
         <v>20000</v>
@@ -6314,7 +6021,7 @@
         <v>30000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="21">
         <v>0.95</v>
@@ -6329,7 +6036,7 @@
         <v>126</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -6357,21 +6064,21 @@
         <v>5</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E4" s="17">
         <v>30000</v>
@@ -6380,7 +6087,7 @@
         <v>60000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="21">
         <v>0.95</v>
@@ -6395,7 +6102,7 @@
         <v>126</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -6423,21 +6130,21 @@
         <v>5</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E5" s="17">
         <v>60000</v>
@@ -6446,7 +6153,7 @@
         <v>10000000000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="21">
         <v>0.95</v>
@@ -6461,7 +6168,7 @@
         <v>126</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -6489,21 +6196,21 @@
         <v>5</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
@@ -6512,7 +6219,7 @@
         <v>20000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="21">
         <v>0.92</v>
@@ -6527,7 +6234,7 @@
         <v>126</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -6555,24 +6262,24 @@
         <v>5</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="V6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" s="17">
         <v>20000</v>
@@ -6581,7 +6288,7 @@
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="21">
         <v>0.93</v>
@@ -6596,7 +6303,7 @@
         <v>126</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -6624,24 +6331,24 @@
         <v>5</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="V7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E8" s="17">
         <v>30000</v>
@@ -6650,7 +6357,7 @@
         <v>60000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="21">
         <v>0.93</v>
@@ -6665,7 +6372,7 @@
         <v>126</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -6693,24 +6400,24 @@
         <v>5</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="V8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E9" s="17">
         <v>60000</v>
@@ -6719,7 +6426,7 @@
         <v>10000000000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="21">
         <v>0.93</v>
@@ -6734,7 +6441,7 @@
         <v>126</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="43">
         <v>0</v>
@@ -6762,24 +6469,24 @@
         <v>5</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="V9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E10" s="17">
         <v>1</v>
@@ -6788,7 +6495,7 @@
         <v>20000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="21">
         <v>0.93</v>
@@ -6803,7 +6510,7 @@
         <v>126</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -6831,24 +6538,24 @@
         <v>5</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="V10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E11" s="17">
         <v>20000</v>
@@ -6857,7 +6564,7 @@
         <v>30000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="21">
         <v>0.95</v>
@@ -6872,7 +6579,7 @@
         <v>126</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -6900,24 +6607,24 @@
         <v>5</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="V11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E12" s="17">
         <v>30000</v>
@@ -6926,7 +6633,7 @@
         <v>60000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="21">
         <v>0.95</v>
@@ -6941,7 +6648,7 @@
         <v>126</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -6969,24 +6676,24 @@
         <v>5</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="V12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E13" s="17">
         <v>60000</v>
@@ -6995,7 +6702,7 @@
         <v>10000000000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="21">
         <v>0.95</v>
@@ -7010,7 +6717,7 @@
         <v>126</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -7038,24 +6745,24 @@
         <v>5</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="V13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -7064,7 +6771,7 @@
         <v>10000000000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -7079,7 +6786,7 @@
         <v>126</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -7107,24 +6814,24 @@
         <v>5</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="V14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -7133,7 +6840,7 @@
         <v>30000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="2">
         <v>0.94</v>
@@ -7148,7 +6855,7 @@
         <v>126</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -7176,24 +6883,24 @@
         <v>5</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="V15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E16" s="2">
         <v>30000</v>
@@ -7202,7 +6909,7 @@
         <v>60000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2">
         <v>0.94</v>
@@ -7217,7 +6924,7 @@
         <v>126</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -7245,24 +6952,24 @@
         <v>5</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E17" s="2">
         <v>60000</v>
@@ -7271,7 +6978,7 @@
         <v>230000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="2">
         <v>0.94</v>
@@ -7286,7 +6993,7 @@
         <v>126</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -7314,24 +7021,24 @@
         <v>5</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -7340,7 +7047,7 @@
         <v>20000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="2">
         <v>0.9</v>
@@ -7355,7 +7062,7 @@
         <v>126</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -7383,24 +7090,24 @@
         <v>5</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="V18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E19" s="2">
         <v>20000</v>
@@ -7409,7 +7116,7 @@
         <v>60000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="2">
         <v>0.85</v>
@@ -7424,7 +7131,7 @@
         <v>126</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -7452,24 +7159,24 @@
         <v>5</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="V19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2">
         <v>60000</v>
@@ -7478,7 +7185,7 @@
         <v>1000000000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="2">
         <v>0.81</v>
@@ -7493,7 +7200,7 @@
         <v>126</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -7521,10 +7228,10 @@
         <v>5</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="V20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -7568,7 +7275,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>3</v>
@@ -7580,19 +7287,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>17</v>
@@ -7625,21 +7332,21 @@
         <v>26</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E2" s="17">
         <v>850000</v>
@@ -7648,7 +7355,7 @@
         <v>2600000</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="27">
         <v>0.4</v>
@@ -7666,7 +7373,7 @@
         <v>140</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="12">
         <v>0</v>
@@ -7693,24 +7400,24 @@
         <v>5</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E3" s="17">
         <v>2600000</v>
@@ -7719,7 +7426,7 @@
         <v>3500000</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="28">
         <v>0.43</v>
@@ -7737,7 +7444,7 @@
         <v>140</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="12">
         <v>0</v>
@@ -7764,24 +7471,24 @@
         <v>5</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E4" s="23">
         <v>3500000</v>
@@ -7790,7 +7497,7 @@
         <v>10000000</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="29">
         <v>0.45500000000000002</v>
@@ -7808,7 +7515,7 @@
         <v>140</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="12">
         <v>0</v>
@@ -7835,24 +7542,24 @@
         <v>5</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="W4" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E5" s="24">
         <v>180000</v>
@@ -7861,7 +7568,7 @@
         <v>280000</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="29">
         <v>0.35</v>
@@ -7879,7 +7586,7 @@
         <v>140</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="12">
         <v>0</v>
@@ -7906,24 +7613,24 @@
         <v>5</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="W5" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E6" s="24">
         <v>280000</v>
@@ -7932,7 +7639,7 @@
         <v>900000</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="29">
         <v>0.39</v>
@@ -7950,7 +7657,7 @@
         <v>140</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="12">
         <v>0</v>
@@ -7977,24 +7684,24 @@
         <v>5</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="W6" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E7" s="24">
         <v>900000</v>
@@ -8003,7 +7710,7 @@
         <v>2600000</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="29">
         <v>0.42</v>
@@ -8021,7 +7728,7 @@
         <v>140</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
@@ -8048,24 +7755,24 @@
         <v>5</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E8" s="24">
         <v>1000000</v>
@@ -8074,7 +7781,7 @@
         <v>5000000</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="29">
         <v>0.15</v>
@@ -8092,7 +7799,7 @@
         <v>250</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="11">
         <v>0</v>
@@ -8119,24 +7826,24 @@
         <v>5</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E9" s="24">
         <v>5000000</v>
@@ -8145,7 +7852,7 @@
         <v>50000000</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="29">
         <v>0.17</v>
@@ -8163,7 +7870,7 @@
         <v>250</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="11">
         <v>0</v>
@@ -8190,24 +7897,24 @@
         <v>5</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E10" s="24">
         <v>1000000</v>
@@ -8216,7 +7923,7 @@
         <v>50000000</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="29">
         <v>0.18</v>
@@ -8234,7 +7941,7 @@
         <v>350</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="11">
         <v>0</v>
@@ -8261,24 +7968,24 @@
         <v>5</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W10" s="26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E11" s="24">
         <v>30000000</v>
@@ -8287,7 +7994,7 @@
         <v>150000000</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="29">
         <v>0.62</v>
@@ -8305,7 +8012,7 @@
         <v>150</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="11">
         <v>0</v>
@@ -8333,10 +8040,10 @@
         <v>6</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W11" s="26" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -8390,16 +8097,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>17</v>
@@ -8432,18 +8139,18 @@
         <v>26</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -8452,7 +8159,7 @@
         <v>80000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>-20</v>
@@ -8461,13 +8168,13 @@
         <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <f>-333/0.962</f>
@@ -8496,21 +8203,21 @@
         <v>5</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U2" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D3" s="17">
         <v>80000</v>
@@ -8519,7 +8226,7 @@
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>-20</v>
@@ -8528,13 +8235,13 @@
         <v>160</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <f>5000/0.962</f>
@@ -8562,21 +8269,21 @@
         <v>5</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" s="23">
         <v>100000</v>
@@ -8585,7 +8292,7 @@
         <v>10000000000</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="12">
         <v>-20</v>
@@ -8594,13 +8301,13 @@
         <v>160</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <f>-3000/0.962</f>
@@ -8629,21 +8336,21 @@
         <v>5</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -8652,14 +8359,14 @@
         <v>500</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>3381</v>
@@ -8686,7 +8393,7 @@
         <v>5</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8727,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
@@ -8742,16 +8449,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>17</v>
@@ -8784,21 +8491,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="12">
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" s="17">
         <v>1050000</v>
@@ -8807,7 +8514,7 @@
         <v>70000000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2">
         <v>6.3</v>
@@ -8822,7 +8529,7 @@
         <v>6.67</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>1568000</v>
@@ -8849,24 +8556,24 @@
         <v>5</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11">
         <v>0.4</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -8875,7 +8582,7 @@
         <v>260000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
         <v>4.7</v>
@@ -8890,7 +8597,7 @@
         <v>6.67</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <f>11357/0.902</f>
@@ -8922,21 +8629,21 @@
         <v>25</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11">
         <v>0.4</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" s="17">
         <v>260000</v>
@@ -8945,7 +8652,7 @@
         <v>530000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
         <v>4.9000000000000004</v>
@@ -8960,7 +8667,7 @@
         <v>6.67</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <f>11357/0.902</f>
@@ -8992,21 +8699,21 @@
         <v>25</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11">
         <v>0.4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" s="17">
         <v>530000</v>
@@ -9015,7 +8722,7 @@
         <v>1050000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
         <v>5.3</v>
@@ -9030,7 +8737,7 @@
         <v>6.67</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <f>11357/0.902</f>
@@ -9062,21 +8769,21 @@
         <v>25</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11">
         <v>0.4</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E6" s="17">
         <v>1050000</v>
@@ -9085,7 +8792,7 @@
         <v>2110000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>5.8</v>
@@ -9100,7 +8807,7 @@
         <v>6.67</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <f>11357/0.902</f>
@@ -9132,21 +8839,21 @@
         <v>25</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="11">
         <v>0.4</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E7" s="17">
         <v>2110000</v>
@@ -9155,7 +8862,7 @@
         <v>70000000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2">
         <v>6.3</v>
@@ -9170,7 +8877,7 @@
         <v>6.67</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -9200,7 +8907,7 @@
         <v>25</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -9258,22 +8965,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -9306,48 +9013,48 @@
         <v>26</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -9356,7 +9063,7 @@
         <v>51150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>0.7</v>
@@ -9377,7 +9084,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -9437,18 +9144,18 @@
         <v>2.14</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" s="17">
         <v>51150</v>
@@ -9457,7 +9164,7 @@
         <v>1176000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>0.7</v>
@@ -9478,7 +9185,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -9538,18 +9245,18 @@
         <v>33</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -9558,7 +9265,7 @@
         <v>58150</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -9579,7 +9286,7 @@
         <v>7</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -9639,18 +9346,18 @@
         <v>2.5</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" s="17">
         <v>58150</v>
@@ -9659,7 +9366,7 @@
         <v>1337450</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -9680,7 +9387,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -9740,18 +9447,18 @@
         <v>14</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="17">
         <v>1337450</v>
@@ -9760,7 +9467,7 @@
         <v>10000000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -9781,7 +9488,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -9841,18 +9548,18 @@
         <v>431</v>
       </c>
       <c r="AG6" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="17">
         <v>116300</v>
@@ -9861,7 +9568,7 @@
         <v>1628200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>1.2</v>
@@ -9882,7 +9589,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -9995,19 +9702,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>17</v>
@@ -10040,18 +9747,18 @@
         <v>26</v>
       </c>
       <c r="V1" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -10060,7 +9767,7 @@
         <v>10000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="19">
         <v>1.26E-2</v>
@@ -10078,7 +9785,7 @@
         <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>1457.3</v>
@@ -10105,21 +9812,21 @@
         <v>15</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D3" s="17">
         <v>10000000</v>
@@ -10128,7 +9835,7 @@
         <v>1E+16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="19">
         <v>1.26E-2</v>
@@ -10146,7 +9853,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>1457.3</v>
@@ -10173,21 +9880,21 @@
         <v>15</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -10196,7 +9903,7 @@
         <v>10000000</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="19">
         <v>3.15E-2</v>
@@ -10214,7 +9921,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>1457.3</v>
@@ -10244,18 +9951,18 @@
         <v>24</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D5" s="17">
         <v>10000000</v>
@@ -10264,7 +9971,7 @@
         <v>1E+16</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="19">
         <v>3.15E-2</v>
@@ -10282,7 +9989,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="18">
         <v>1457.3</v>
@@ -10309,10 +10016,10 @@
         <v>15</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">

--- a/cea/databases/DE/components/CONVERSION.xlsx
+++ b/cea/databases/DE/components/CONVERSION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmccarty/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019EA98-D0C9-BA4C-9E84-47C9C42F1E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43ACDEE-736A-6649-B75F-28C0FD8F19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,9 +833,6 @@
     <t>capacity_Wp</t>
   </si>
   <si>
-    <t>primar_energy_kWh_m2</t>
-  </si>
-  <si>
     <t>cost_facade_euro_m2</t>
   </si>
   <si>
@@ -864,6 +861,9 @@
   </si>
   <si>
     <t>PV4</t>
+  </si>
+  <si>
+    <t>primary_energy_kWh_m2</t>
   </si>
 </sst>
 </file>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AH5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1801,24 +1801,24 @@
         <v>33</v>
       </c>
       <c r="AD1" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE1" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AF1" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AG1" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AH1" s="35" t="s">
         <v>263</v>
-      </c>
-      <c r="AH1" s="35" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -1917,12 +1917,12 @@
         <v>255.76616110000001</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -2021,12 +2021,12 @@
         <v>191.18310840000001</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
@@ -2126,15 +2126,15 @@
         <v>47.550374410000003</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -2231,7 +2231,7 @@
         <v>75.914425350000002</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
